--- a/data/VGPs_NAM/4.xlsx
+++ b/data/VGPs_NAM/4.xlsx
@@ -1,20 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\TRABAJOS\2021_YOUNG_CEED\Young_CEED_2.0\data\VGPs_NAM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
-  </bookViews>
   <sheets>
-    <sheet name="Ark2" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Ark2" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mghw0cPCfUtqhZaFwQ965SCwvNfQQ=="/>
@@ -24,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
   <si>
     <t>Study level data</t>
   </si>
@@ -52,19 +44,19 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t>α</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t>95</t>
     </r>
@@ -141,19 +133,19 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t>α</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t>95</t>
     </r>
@@ -166,9 +158,6 @@
   </si>
   <si>
     <t>qwnTEQ</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>qcnAGU</t>
@@ -282,75 +271,67 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
   <fonts count="13">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font/>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
+      <sz val="11.0"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF2E2E2E"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF2E2E2E"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF2E2E2E"/>
       <name val="Calibri"/>
     </font>
@@ -360,7 +341,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -376,19 +357,12 @@
     </fill>
   </fills>
   <borders count="3">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -403,139 +377,129 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="35">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -725,36 +689,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y939"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="20" width="9.375" customWidth="1"/>
-    <col min="21" max="21" width="17" customWidth="1"/>
-    <col min="22" max="28" width="9.375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="9.38"/>
+    <col customWidth="1" min="2" max="2" width="14.5"/>
+    <col customWidth="1" min="3" max="20" width="9.38"/>
+    <col customWidth="1" min="21" max="21" width="17.0"/>
+    <col customWidth="1" min="22" max="28" width="9.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="35" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -825,18 +786,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75">
+    <row r="3">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="6">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="C3" s="7">
-        <v>260.10000000000002</v>
+        <v>260.1</v>
       </c>
       <c r="D3" s="8">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="E3" s="9">
         <v>359.5</v>
@@ -854,7 +815,7 @@
         <v>-89.2</v>
       </c>
       <c r="J3" s="11">
-        <v>310.89999999999998</v>
+        <v>310.9</v>
       </c>
       <c r="K3" s="8">
         <v>70.7</v>
@@ -869,19 +830,19 @@
         <v>3.5</v>
       </c>
       <c r="O3" s="14">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="P3" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q3" s="6">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="T3" s="8">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="U3" s="15" t="s">
         <v>26</v>
@@ -894,21 +855,20 @@
       </c>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4">
       <c r="A4" s="16"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="35" t="s">
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="36"/>
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -979,7 +939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75">
+    <row r="7">
       <c r="A7" s="17" t="s">
         <v>35</v>
       </c>
@@ -990,7 +950,7 @@
         <v>-103.84</v>
       </c>
       <c r="D7" s="9">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="E7" s="9">
         <v>5.5</v>
@@ -1017,14 +977,11 @@
       <c r="U7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" ht="15.75">
-      <c r="A8" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="B8" s="9">
         <v>19.38</v>
@@ -1033,7 +990,7 @@
         <v>-102.24</v>
       </c>
       <c r="D8" s="9">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="E8" s="9">
         <v>10.3</v>
@@ -1048,24 +1005,24 @@
         <v>8.5</v>
       </c>
       <c r="I8" s="9">
-        <v>79.900000000000006</v>
+        <v>79.9</v>
       </c>
       <c r="J8" s="9">
         <v>359.6</v>
       </c>
       <c r="O8" s="21">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="P8" s="22">
         <f>0.55-0.06</f>
-        <v>0.49000000000000005</v>
+        <v>0.49</v>
       </c>
       <c r="Q8" s="22">
         <f>0.55+0.06</f>
-        <v>0.6100000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>25</v>
@@ -1074,21 +1031,21 @@
         <v>26</v>
       </c>
       <c r="V8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.75">
-      <c r="A9" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="B9" s="9">
-        <v>20.260000000000002</v>
+        <v>20.26</v>
       </c>
       <c r="C9" s="9">
         <v>-102.09</v>
       </c>
       <c r="D9" s="9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="E9" s="9">
         <v>171.9</v>
@@ -1097,13 +1054,13 @@
         <v>-43.1</v>
       </c>
       <c r="G9" s="9">
-        <v>225</v>
+        <v>225.0</v>
       </c>
       <c r="H9" s="9">
         <v>3.3</v>
       </c>
       <c r="I9" s="9">
-        <v>81.099999999999994</v>
+        <v>81.1</v>
       </c>
       <c r="J9" s="9">
         <v>202.2</v>
@@ -1117,10 +1074,10 @@
       </c>
       <c r="Q9" s="22">
         <f>O9+0.1</f>
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>25</v>
@@ -1129,21 +1086,21 @@
         <v>26</v>
       </c>
       <c r="V9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="15.75">
-      <c r="A10" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="B10" s="9">
-        <v>19.350000000000001</v>
+        <v>19.35</v>
       </c>
       <c r="C10" s="9">
         <v>-102.07</v>
       </c>
       <c r="D10" s="9">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="E10" s="9">
         <v>3.8</v>
@@ -1152,7 +1109,7 @@
         <v>44.4</v>
       </c>
       <c r="G10" s="9">
-        <v>330</v>
+        <v>330.0</v>
       </c>
       <c r="H10" s="9">
         <v>2.5</v>
@@ -1170,13 +1127,10 @@
       <c r="U10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="V10" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15.75">
+    </row>
+    <row r="11">
       <c r="A11" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="9">
         <v>19.54</v>
@@ -1185,7 +1139,7 @@
         <v>-101.61</v>
       </c>
       <c r="D11" s="9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="E11" s="9">
         <v>175.9</v>
@@ -1197,10 +1151,10 @@
         <v>148.9</v>
       </c>
       <c r="H11" s="9">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="I11" s="9">
-        <v>81.599999999999994</v>
+        <v>81.6</v>
       </c>
       <c r="J11" s="9">
         <v>232.5</v>
@@ -1212,13 +1166,10 @@
       <c r="U11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="V11" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="15.75">
+    </row>
+    <row r="12">
       <c r="A12" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="9">
         <v>19.59</v>
@@ -1227,7 +1178,7 @@
         <v>-101.58</v>
       </c>
       <c r="D12" s="9">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="E12" s="9">
         <v>189.1</v>
@@ -1242,7 +1193,7 @@
         <v>6.5</v>
       </c>
       <c r="I12" s="9">
-        <v>79.900000000000006</v>
+        <v>79.9</v>
       </c>
       <c r="J12" s="9">
         <v>313.3</v>
@@ -1252,14 +1203,14 @@
       </c>
       <c r="P12" s="22">
         <f>0.54-0.07</f>
-        <v>0.47000000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="Q12" s="22">
         <f>0.54+0.07</f>
-        <v>0.6100000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>25</v>
@@ -1268,12 +1219,12 @@
         <v>26</v>
       </c>
       <c r="V12" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="15.75">
-      <c r="A13" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="B13" s="9">
         <v>19.63</v>
@@ -1282,10 +1233,10 @@
         <v>-101.44</v>
       </c>
       <c r="D13" s="9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="E13" s="9">
-        <v>179</v>
+        <v>179.0</v>
       </c>
       <c r="F13" s="9">
         <v>-23.1</v>
@@ -1312,7 +1263,7 @@
         <v>0.92</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>25</v>
@@ -1321,12 +1272,12 @@
         <v>26</v>
       </c>
       <c r="V13" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="23" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="15.75">
-      <c r="A14" s="23" t="s">
-        <v>48</v>
       </c>
       <c r="B14" s="24">
         <v>19.29</v>
@@ -1335,7 +1286,7 @@
         <v>-100.35</v>
       </c>
       <c r="D14" s="24">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="E14" s="24">
         <v>357.2</v>
@@ -1350,7 +1301,7 @@
         <v>2.8</v>
       </c>
       <c r="I14" s="24">
-        <v>81.099999999999994</v>
+        <v>81.1</v>
       </c>
       <c r="J14" s="24">
         <v>97.7</v>
@@ -1369,7 +1320,7 @@
         <v>1.8</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>25</v>
@@ -1378,36 +1329,36 @@
         <v>26</v>
       </c>
       <c r="V14" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" ht="15.75">
-      <c r="A15" s="23" t="s">
-        <v>50</v>
-      </c>
       <c r="B15" s="24">
-        <v>19.309999999999999</v>
+        <v>19.31</v>
       </c>
       <c r="C15" s="24">
         <v>-100.35</v>
       </c>
       <c r="D15" s="24">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="E15" s="24">
-        <v>348</v>
+        <v>348.0</v>
       </c>
       <c r="F15" s="24">
         <v>46.5</v>
       </c>
       <c r="G15" s="24">
-        <v>556.79999999999995</v>
+        <v>556.8</v>
       </c>
       <c r="H15" s="24">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I15" s="24">
-        <v>76.099999999999994</v>
+        <v>76.1</v>
       </c>
       <c r="J15" s="24">
         <v>209.5</v>
@@ -1425,13 +1376,10 @@
       <c r="U15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="V15" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="15.75">
+    </row>
+    <row r="16">
       <c r="A16" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="24">
         <v>19.38</v>
@@ -1440,7 +1388,7 @@
         <v>-100.34</v>
       </c>
       <c r="D16" s="24">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="E16" s="24">
         <v>28.1</v>
@@ -1474,7 +1422,7 @@
         <v>1.9</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>25</v>
@@ -1483,12 +1431,12 @@
         <v>26</v>
       </c>
       <c r="V16" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="23" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="15.75">
-      <c r="A17" s="23" t="s">
-        <v>53</v>
       </c>
       <c r="B17" s="24">
         <v>19.36</v>
@@ -1497,13 +1445,13 @@
         <v>-100.32</v>
       </c>
       <c r="D17" s="24">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="E17" s="24">
-        <v>313</v>
+        <v>313.0</v>
       </c>
       <c r="F17" s="24">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="G17" s="24">
         <v>291.3</v>
@@ -1515,7 +1463,7 @@
         <v>43.7</v>
       </c>
       <c r="J17" s="24">
-        <v>165</v>
+        <v>165.0</v>
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -1531,7 +1479,7 @@
         <v>0.74</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>25</v>
@@ -1540,23 +1488,23 @@
         <v>26</v>
       </c>
       <c r="V17" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.75">
-      <c r="A18" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="B18" s="25">
-        <f>ROUND(19+(17.75/60),2)</f>
+        <f>round(19+(17.75/60),2)</f>
         <v>19.3</v>
       </c>
       <c r="C18" s="25">
-        <f>-ROUND(99+(23.95/60),2)</f>
+        <f>-round(99+(23.95/60),2)</f>
         <v>-99.4</v>
       </c>
       <c r="D18" s="24">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="E18" s="24">
         <v>167.3</v>
@@ -1564,10 +1512,10 @@
       <c r="F18" s="28">
         <v>-26.7</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="29">
         <v>130.5</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="29">
         <v>4.2</v>
       </c>
       <c r="I18" s="25"/>
@@ -1576,41 +1524,41 @@
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
-      <c r="O18" s="29"/>
+      <c r="O18" s="28"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
       <c r="S18" s="9" t="s">
         <v>25</v>
       </c>
       <c r="U18" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="15.75">
-      <c r="A19" s="27" t="s">
-        <v>57</v>
-      </c>
       <c r="B19" s="25">
-        <f>ROUND(19+(19/60),2)</f>
+        <f>round(19+(19/60),2)</f>
         <v>19.32</v>
       </c>
       <c r="C19" s="25">
-        <f>-ROUND(99+(19.52/60),2)</f>
+        <f>-round(99+(19.52/60),2)</f>
         <v>-99.33</v>
       </c>
       <c r="D19" s="24">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="E19" s="24">
-        <v>177</v>
+        <v>177.0</v>
       </c>
       <c r="F19" s="28">
         <v>-53.9</v>
       </c>
-      <c r="G19" s="28">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="H19" s="28">
+      <c r="G19" s="29">
+        <v>80.1</v>
+      </c>
+      <c r="H19" s="29">
         <v>5.4</v>
       </c>
       <c r="I19" s="25"/>
@@ -1619,559 +1567,559 @@
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
-      <c r="O19" s="29"/>
+      <c r="O19" s="28"/>
       <c r="P19" s="25"/>
       <c r="Q19" s="25"/>
       <c r="S19" s="9" t="s">
         <v>25</v>
       </c>
       <c r="U19" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="15.75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="25">
-        <f>ROUND(19+(17.67/60),2)</f>
+        <f>round(19+(17.67/60),2)</f>
         <v>19.29</v>
       </c>
       <c r="C20" s="25">
-        <f>-ROUND(99+(20.45/60),2)</f>
+        <f>-round(99+(20.45/60),2)</f>
         <v>-99.34</v>
       </c>
       <c r="D20" s="9">
-        <v>9</v>
-      </c>
-      <c r="E20" s="28">
+        <v>9.0</v>
+      </c>
+      <c r="E20" s="29">
         <v>362.2</v>
       </c>
-      <c r="F20" s="28">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="G20" s="28">
+      <c r="F20" s="29">
+        <v>32.2</v>
+      </c>
+      <c r="G20" s="29">
         <v>170.4</v>
       </c>
-      <c r="H20" s="28">
-        <v>4</v>
+      <c r="H20" s="29">
+        <v>4.0</v>
       </c>
       <c r="O20" s="21">
-        <v>0.67900000000000005</v>
+        <v>0.679</v>
       </c>
       <c r="P20" s="22">
         <f>O20-0.28</f>
-        <v>0.39900000000000002</v>
+        <v>0.399</v>
       </c>
       <c r="Q20" s="22">
         <f>O20+0.28</f>
-        <v>0.95900000000000007</v>
+        <v>0.959</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="U20" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="25">
-        <f>ROUND(19+(18.42/60),2)</f>
-        <v>19.309999999999999</v>
+        <f>round(19+(18.42/60),2)</f>
+        <v>19.31</v>
       </c>
       <c r="C21" s="25">
-        <f>-ROUND(99+(20.67/60),2)</f>
+        <f>-round(99+(20.67/60),2)</f>
         <v>-99.34</v>
       </c>
       <c r="D21" s="9">
-        <v>8</v>
-      </c>
-      <c r="E21" s="28">
+        <v>8.0</v>
+      </c>
+      <c r="E21" s="29">
         <v>352.1</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="29">
         <v>45.6</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="29">
         <v>337.7</v>
       </c>
-      <c r="H21" s="28">
-        <v>3</v>
+      <c r="H21" s="29">
+        <v>3.0</v>
       </c>
       <c r="O21" s="19"/>
       <c r="S21" s="9" t="s">
         <v>25</v>
       </c>
       <c r="U21" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="25">
-        <f>ROUND(19+(19.9/60),2)</f>
-        <v>19.329999999999998</v>
+        <f>round(19+(19.9/60),2)</f>
+        <v>19.33</v>
       </c>
       <c r="C22" s="25">
-        <f>-ROUND(98+(47/60),2)</f>
+        <f>-round(98+(47/60),2)</f>
         <v>-98.78</v>
       </c>
       <c r="D22" s="9">
-        <v>10</v>
-      </c>
-      <c r="E22" s="28">
+        <v>10.0</v>
+      </c>
+      <c r="E22" s="29">
         <v>358.3</v>
       </c>
-      <c r="F22" s="28">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="G22" s="28">
+      <c r="F22" s="29">
+        <v>33.8</v>
+      </c>
+      <c r="G22" s="29">
         <v>108.8</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="29">
         <v>4.7</v>
       </c>
-      <c r="O22" s="29"/>
+      <c r="O22" s="28"/>
       <c r="S22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="U22" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="27" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A23" s="27" t="s">
-        <v>62</v>
-      </c>
       <c r="B23" s="25">
-        <f>ROUND(19+(20.37/60),2)</f>
+        <f>round(19+(20.37/60),2)</f>
         <v>19.34</v>
       </c>
       <c r="C23" s="25">
-        <f>-ROUND(98+(42.83/60),2)</f>
+        <f>-round(98+(42.83/60),2)</f>
         <v>-98.71</v>
       </c>
       <c r="D23" s="9">
-        <v>11</v>
-      </c>
-      <c r="E23" s="28">
-        <v>324.60000000000002</v>
-      </c>
-      <c r="F23" s="28">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="G23" s="28">
-        <v>93</v>
-      </c>
-      <c r="H23" s="28">
+        <v>11.0</v>
+      </c>
+      <c r="E23" s="29">
+        <v>324.6</v>
+      </c>
+      <c r="F23" s="29">
+        <v>36.3</v>
+      </c>
+      <c r="G23" s="29">
+        <v>93.0</v>
+      </c>
+      <c r="H23" s="29">
         <v>4.8</v>
       </c>
-      <c r="O23" s="29"/>
+      <c r="O23" s="28"/>
       <c r="S23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="U23" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="25">
-        <f>ROUND(19+(19.35/60),2)</f>
+        <f>round(19+(19.35/60),2)</f>
         <v>19.32</v>
       </c>
       <c r="C24" s="25">
-        <f>-ROUND(98+(43.72/60),2)</f>
+        <f>-round(98+(43.72/60),2)</f>
         <v>-98.73</v>
       </c>
       <c r="D24" s="9">
-        <v>10</v>
-      </c>
-      <c r="E24" s="28">
-        <v>191</v>
+        <v>10.0</v>
+      </c>
+      <c r="E24" s="29">
+        <v>191.0</v>
       </c>
       <c r="F24" s="28">
-        <v>-32</v>
-      </c>
-      <c r="G24" s="28">
+        <v>-32.0</v>
+      </c>
+      <c r="G24" s="29">
         <v>389.1</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="29">
         <v>2.5</v>
       </c>
-      <c r="O24" s="29"/>
+      <c r="O24" s="28"/>
       <c r="S24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="U24" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="25">
-        <f>ROUND(19+(20.63/60),2)</f>
+        <f>round(19+(20.63/60),2)</f>
         <v>19.34</v>
       </c>
       <c r="C25" s="25">
-        <f>-ROUND(98+(41.58/60),2)</f>
+        <f>-round(98+(41.58/60),2)</f>
         <v>-98.69</v>
       </c>
       <c r="D25" s="9">
-        <v>11</v>
-      </c>
-      <c r="E25" s="28">
+        <v>11.0</v>
+      </c>
+      <c r="E25" s="29">
         <v>343.7</v>
       </c>
-      <c r="F25" s="28">
-        <v>34</v>
-      </c>
-      <c r="G25" s="28">
+      <c r="F25" s="29">
+        <v>34.0</v>
+      </c>
+      <c r="G25" s="29">
         <v>35.1</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="29">
         <v>7.8</v>
       </c>
-      <c r="O25" s="29"/>
+      <c r="O25" s="28"/>
       <c r="S25" s="9" t="s">
         <v>25</v>
       </c>
       <c r="U25" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="25">
-        <f>ROUND(19+(17.57/60),2)</f>
+        <f>round(19+(17.57/60),2)</f>
         <v>19.29</v>
       </c>
       <c r="C26" s="25">
-        <f>-ROUND(98+(40.65/60),2)</f>
+        <f>-round(98+(40.65/60),2)</f>
         <v>-98.68</v>
       </c>
       <c r="D26" s="9">
-        <v>13</v>
-      </c>
-      <c r="E26" s="28">
+        <v>13.0</v>
+      </c>
+      <c r="E26" s="29">
         <v>356.5</v>
       </c>
-      <c r="F26" s="28">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="G26" s="28">
+      <c r="F26" s="29">
+        <v>38.2</v>
+      </c>
+      <c r="G26" s="29">
         <v>112.7</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="29">
         <v>3.9</v>
       </c>
-      <c r="O26" s="29"/>
+      <c r="O26" s="28"/>
       <c r="S26" s="9" t="s">
         <v>25</v>
       </c>
       <c r="U26" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="25">
-        <f>ROUND(19+(16.83/60),2)</f>
+        <f>round(19+(16.83/60),2)</f>
         <v>19.28</v>
       </c>
       <c r="C27" s="25">
-        <f>-ROUND(98+(43.22/60),2)</f>
+        <f>-round(98+(43.22/60),2)</f>
         <v>-98.72</v>
       </c>
       <c r="D27" s="9">
-        <v>10</v>
-      </c>
-      <c r="E27" s="28">
+        <v>10.0</v>
+      </c>
+      <c r="E27" s="29">
         <v>6.2</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="29">
         <v>34.6</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="29">
         <v>84.4</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="29">
         <v>5.3</v>
       </c>
-      <c r="O27" s="29"/>
+      <c r="O27" s="28"/>
       <c r="S27" s="9" t="s">
         <v>25</v>
       </c>
       <c r="U27" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="25">
-        <f>ROUND(19+(3.55/60),2)</f>
-        <v>19.059999999999999</v>
+        <f>round(19+(3.55/60),2)</f>
+        <v>19.06</v>
       </c>
       <c r="C28" s="25">
-        <f>-ROUND(98+(22.5/60),2)</f>
+        <f>-round(98+(22.5/60),2)</f>
         <v>-98.38</v>
       </c>
       <c r="D28" s="9">
-        <v>10</v>
-      </c>
-      <c r="E28" s="28">
+        <v>10.0</v>
+      </c>
+      <c r="E28" s="29">
         <v>5.8</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="29">
         <v>16.7</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="29">
         <v>48.4</v>
       </c>
-      <c r="H28" s="28">
-        <v>7</v>
-      </c>
-      <c r="O28" s="29"/>
+      <c r="H28" s="29">
+        <v>7.0</v>
+      </c>
+      <c r="O28" s="28"/>
       <c r="S28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="U28" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="25">
-        <f>ROUND(19+(5.17/60),2)</f>
+        <f>round(19+(5.17/60),2)</f>
         <v>19.09</v>
       </c>
       <c r="C29" s="25">
-        <f>-ROUND(98+(35.35/60),2)</f>
+        <f>-round(98+(35.35/60),2)</f>
         <v>-98.59</v>
       </c>
       <c r="D29" s="9">
-        <v>13</v>
-      </c>
-      <c r="E29" s="28">
+        <v>13.0</v>
+      </c>
+      <c r="E29" s="29">
         <v>2.1</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="29">
         <v>32.9</v>
       </c>
-      <c r="G29" s="28">
-        <v>116</v>
-      </c>
-      <c r="H29" s="28">
+      <c r="G29" s="29">
+        <v>116.0</v>
+      </c>
+      <c r="H29" s="29">
         <v>3.9</v>
       </c>
-      <c r="O29" s="29"/>
+      <c r="O29" s="28"/>
       <c r="S29" s="9" t="s">
         <v>25</v>
       </c>
       <c r="U29" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="25">
-        <f>ROUND(19+(5.57/60),2)</f>
+        <f>round(19+(5.57/60),2)</f>
         <v>19.09</v>
       </c>
       <c r="C30" s="25">
-        <f>-ROUND(98+(37.15/60),2)</f>
+        <f>-round(98+(37.15/60),2)</f>
         <v>-98.62</v>
       </c>
       <c r="D30" s="9">
-        <v>9</v>
-      </c>
-      <c r="E30" s="28">
+        <v>9.0</v>
+      </c>
+      <c r="E30" s="29">
         <v>0.9</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="29">
         <v>19.7</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="29">
         <v>117.5</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="29">
         <v>3.9</v>
       </c>
-      <c r="O30" s="29"/>
+      <c r="O30" s="28"/>
       <c r="S30" s="9" t="s">
         <v>25</v>
       </c>
       <c r="U30" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="25">
-        <f>ROUND(19+(8.15/ 60),2)</f>
+        <f>round(19+(8.15/ 60),2)</f>
         <v>19.14</v>
       </c>
       <c r="C31" s="25">
-        <f>-ROUND(98+(38.93/60),2)</f>
+        <f>-round(98+(38.93/60),2)</f>
         <v>-98.65</v>
       </c>
       <c r="D31" s="9">
-        <v>11</v>
-      </c>
-      <c r="E31" s="28">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F31" s="28">
+        <v>11.0</v>
+      </c>
+      <c r="E31" s="29">
+        <v>4.4</v>
+      </c>
+      <c r="F31" s="29">
         <v>32.4</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="29">
         <v>84.1</v>
       </c>
-      <c r="H31" s="28">
-        <v>5</v>
-      </c>
-      <c r="O31" s="29"/>
+      <c r="H31" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="O31" s="28"/>
       <c r="S31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="U31" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="25">
-        <f>ROUND(19+(12.63/60),2)</f>
+        <f>round(19+(12.63/60),2)</f>
         <v>19.21</v>
       </c>
       <c r="C32" s="25">
-        <f>-ROUND(98+(44.43/60),2)</f>
+        <f>-round(98+(44.43/60),2)</f>
         <v>-98.74</v>
       </c>
-      <c r="D32" s="28">
-        <v>11</v>
-      </c>
-      <c r="E32" s="28">
+      <c r="D32" s="29">
+        <v>11.0</v>
+      </c>
+      <c r="E32" s="29">
         <v>180.8</v>
       </c>
       <c r="F32" s="28">
         <v>-16.5</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="29">
         <v>357.2</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="29">
         <v>2.4</v>
       </c>
       <c r="I32" s="27"/>
-      <c r="O32" s="29"/>
+      <c r="O32" s="28"/>
       <c r="S32" s="9" t="s">
         <v>25</v>
       </c>
       <c r="U32" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="25">
-        <f>ROUND(19+(11.68/60),2)</f>
-        <v>19.190000000000001</v>
+        <f>round(19+(11.68/60),2)</f>
+        <v>19.19</v>
       </c>
       <c r="C33" s="25">
-        <f>-ROUND(98+(347.78/60),2)</f>
+        <f>-round(98+(347.78/60),2)</f>
         <v>-103.8</v>
       </c>
-      <c r="D33" s="28">
-        <v>11</v>
-      </c>
-      <c r="E33" s="28">
+      <c r="D33" s="29">
+        <v>11.0</v>
+      </c>
+      <c r="E33" s="29">
         <v>355.2</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="29">
         <v>24.4</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="29">
         <v>98.6</v>
       </c>
-      <c r="H33" s="28">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I33" s="28"/>
-      <c r="O33" s="29"/>
+      <c r="H33" s="29">
+        <v>4.6</v>
+      </c>
+      <c r="I33" s="29"/>
+      <c r="O33" s="28"/>
       <c r="S33" s="9" t="s">
         <v>25</v>
       </c>
       <c r="U33" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
       <c r="O34" s="2"/>
       <c r="U34" s="31"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="27"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -2183,3663 +2131,3647 @@
       <c r="I37" s="34"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A38" s="37"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="27"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42">
       <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43">
       <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="38"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
+    <row r="44">
+      <c r="A44" s="16"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45">
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46">
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47">
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48">
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49">
       <c r="A49" s="16"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50">
       <c r="A50" s="16"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51">
       <c r="A51" s="16"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52">
       <c r="A52" s="16"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53">
       <c r="A53" s="16"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54">
       <c r="A54" s="16"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55">
       <c r="A55" s="16"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="16"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="16"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="16"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="15.75" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="16"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="16"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="16"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="16"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="16"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" ht="15.75" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="16"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15" ht="15.75" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="16"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15" ht="15.75" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="16"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15" ht="15.75" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="16"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15" ht="15.75" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="16"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15" ht="15.75" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="16"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:15" ht="15.75" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="16"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" ht="15.75" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="16"/>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="1:15" ht="15.75" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="16"/>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="1:15" ht="15.75" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="16"/>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" ht="15.75" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="16"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:15" ht="15.75" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="16"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" ht="15.75" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="16"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" ht="15.75" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="16"/>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="1:15" ht="15.75" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="16"/>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:15" ht="15.75" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="16"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" ht="15.75" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="16"/>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" ht="15.75" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="16"/>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" ht="15.75" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="16"/>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" ht="15.75" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="16"/>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="1:15" ht="15.75" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="16"/>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="1:15" ht="15.75" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="16"/>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="1:15" ht="15.75" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="16"/>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="1:15" ht="15.75" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="16"/>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="1:15" ht="15.75" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="16"/>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="1:15" ht="15.75" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="16"/>
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="1:15" ht="15.75" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="16"/>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="1:15" ht="15.75" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="16"/>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="1:15" ht="15.75" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="16"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="1:15" ht="15.75" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="16"/>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="1:15" ht="15.75" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="16"/>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="1:15" ht="15.75" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="16"/>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="1:15" ht="15.75" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="16"/>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="1:15" ht="15.75" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="16"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="1:15" ht="15.75" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="16"/>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="1:15" ht="15.75" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="16"/>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="1:15" ht="15.75" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="16"/>
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="1:15" ht="15.75" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="16"/>
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="1:15" ht="15.75" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="16"/>
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="1:15" ht="15.75" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="16"/>
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="1:15" ht="15.75" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="16"/>
       <c r="O104" s="2"/>
     </row>
-    <row r="105" spans="1:15" ht="15.75" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="16"/>
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="1:15" ht="15.75" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="16"/>
       <c r="O106" s="2"/>
     </row>
-    <row r="107" spans="1:15" ht="15.75" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="16"/>
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="1:15" ht="15.75" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="16"/>
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="1:15" ht="15.75" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="16"/>
       <c r="O109" s="2"/>
     </row>
-    <row r="110" spans="1:15" ht="15.75" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="16"/>
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="1:15" ht="15.75" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="16"/>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="1:15" ht="15.75" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="16"/>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="1:15" ht="15.75" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="16"/>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="1:15" ht="15.75" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="16"/>
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="1:15" ht="15.75" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="16"/>
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="1:15" ht="15.75" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="16"/>
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="1:15" ht="15.75" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="16"/>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="1:15" ht="15.75" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="16"/>
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="1:15" ht="15.75" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="16"/>
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="1:15" ht="15.75" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="16"/>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="1:15" ht="15.75" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="16"/>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="1:15" ht="15.75" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="16"/>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="1:15" ht="15.75" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="16"/>
       <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="1:15" ht="15.75" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="16"/>
       <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="1:15" ht="15.75" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="16"/>
       <c r="O125" s="2"/>
     </row>
-    <row r="126" spans="1:15" ht="15.75" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="16"/>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="1:15" ht="15.75" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="16"/>
       <c r="O127" s="2"/>
     </row>
-    <row r="128" spans="1:15" ht="15.75" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="16"/>
       <c r="O128" s="2"/>
     </row>
-    <row r="129" spans="1:15" ht="15.75" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="16"/>
       <c r="O129" s="2"/>
     </row>
-    <row r="130" spans="1:15" ht="15.75" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="16"/>
       <c r="O130" s="2"/>
     </row>
-    <row r="131" spans="1:15" ht="15.75" customHeight="1">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="16"/>
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="1:15" ht="15.75" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="16"/>
       <c r="O132" s="2"/>
     </row>
-    <row r="133" spans="1:15" ht="15.75" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="16"/>
       <c r="O133" s="2"/>
     </row>
-    <row r="134" spans="1:15" ht="15.75" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="16"/>
       <c r="O134" s="2"/>
     </row>
-    <row r="135" spans="1:15" ht="15.75" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="16"/>
       <c r="O135" s="2"/>
     </row>
-    <row r="136" spans="1:15" ht="15.75" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="16"/>
       <c r="O136" s="2"/>
     </row>
-    <row r="137" spans="1:15" ht="15.75" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="16"/>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="1:15" ht="15.75" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="16"/>
       <c r="O138" s="2"/>
     </row>
-    <row r="139" spans="1:15" ht="15.75" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="16"/>
       <c r="O139" s="2"/>
     </row>
-    <row r="140" spans="1:15" ht="15.75" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="16"/>
       <c r="O140" s="2"/>
     </row>
-    <row r="141" spans="1:15" ht="15.75" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="16"/>
       <c r="O141" s="2"/>
     </row>
-    <row r="142" spans="1:15" ht="15.75" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="16"/>
       <c r="O142" s="2"/>
     </row>
-    <row r="143" spans="1:15" ht="15.75" customHeight="1">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="16"/>
       <c r="O143" s="2"/>
     </row>
-    <row r="144" spans="1:15" ht="15.75" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="16"/>
       <c r="O144" s="2"/>
     </row>
-    <row r="145" spans="1:15" ht="15.75" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="16"/>
       <c r="O145" s="2"/>
     </row>
-    <row r="146" spans="1:15" ht="15.75" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="16"/>
       <c r="O146" s="2"/>
     </row>
-    <row r="147" spans="1:15" ht="15.75" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="16"/>
       <c r="O147" s="2"/>
     </row>
-    <row r="148" spans="1:15" ht="15.75" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="16"/>
       <c r="O148" s="2"/>
     </row>
-    <row r="149" spans="1:15" ht="15.75" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="16"/>
       <c r="O149" s="2"/>
     </row>
-    <row r="150" spans="1:15" ht="15.75" customHeight="1">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="16"/>
       <c r="O150" s="2"/>
     </row>
-    <row r="151" spans="1:15" ht="15.75" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="16"/>
       <c r="O151" s="2"/>
     </row>
-    <row r="152" spans="1:15" ht="15.75" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="16"/>
       <c r="O152" s="2"/>
     </row>
-    <row r="153" spans="1:15" ht="15.75" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="16"/>
       <c r="O153" s="2"/>
     </row>
-    <row r="154" spans="1:15" ht="15.75" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="16"/>
       <c r="O154" s="2"/>
     </row>
-    <row r="155" spans="1:15" ht="15.75" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="16"/>
       <c r="O155" s="2"/>
     </row>
-    <row r="156" spans="1:15" ht="15.75" customHeight="1">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="16"/>
       <c r="O156" s="2"/>
     </row>
-    <row r="157" spans="1:15" ht="15.75" customHeight="1">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="16"/>
       <c r="O157" s="2"/>
     </row>
-    <row r="158" spans="1:15" ht="15.75" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="16"/>
       <c r="O158" s="2"/>
     </row>
-    <row r="159" spans="1:15" ht="15.75" customHeight="1">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="16"/>
       <c r="O159" s="2"/>
     </row>
-    <row r="160" spans="1:15" ht="15.75" customHeight="1">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="16"/>
       <c r="O160" s="2"/>
     </row>
-    <row r="161" spans="1:15" ht="15.75" customHeight="1">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="16"/>
       <c r="O161" s="2"/>
     </row>
-    <row r="162" spans="1:15" ht="15.75" customHeight="1">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="16"/>
       <c r="O162" s="2"/>
     </row>
-    <row r="163" spans="1:15" ht="15.75" customHeight="1">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="16"/>
       <c r="O163" s="2"/>
     </row>
-    <row r="164" spans="1:15" ht="15.75" customHeight="1">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="16"/>
       <c r="O164" s="2"/>
     </row>
-    <row r="165" spans="1:15" ht="15.75" customHeight="1">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="16"/>
       <c r="O165" s="2"/>
     </row>
-    <row r="166" spans="1:15" ht="15.75" customHeight="1">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="16"/>
       <c r="O166" s="2"/>
     </row>
-    <row r="167" spans="1:15" ht="15.75" customHeight="1">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="16"/>
       <c r="O167" s="2"/>
     </row>
-    <row r="168" spans="1:15" ht="15.75" customHeight="1">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="16"/>
       <c r="O168" s="2"/>
     </row>
-    <row r="169" spans="1:15" ht="15.75" customHeight="1">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="16"/>
       <c r="O169" s="2"/>
     </row>
-    <row r="170" spans="1:15" ht="15.75" customHeight="1">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="16"/>
       <c r="O170" s="2"/>
     </row>
-    <row r="171" spans="1:15" ht="15.75" customHeight="1">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="16"/>
       <c r="O171" s="2"/>
     </row>
-    <row r="172" spans="1:15" ht="15.75" customHeight="1">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="16"/>
       <c r="O172" s="2"/>
     </row>
-    <row r="173" spans="1:15" ht="15.75" customHeight="1">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="16"/>
       <c r="O173" s="2"/>
     </row>
-    <row r="174" spans="1:15" ht="15.75" customHeight="1">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="16"/>
       <c r="O174" s="2"/>
     </row>
-    <row r="175" spans="1:15" ht="15.75" customHeight="1">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="16"/>
       <c r="O175" s="2"/>
     </row>
-    <row r="176" spans="1:15" ht="15.75" customHeight="1">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="16"/>
       <c r="O176" s="2"/>
     </row>
-    <row r="177" spans="1:15" ht="15.75" customHeight="1">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="16"/>
       <c r="O177" s="2"/>
     </row>
-    <row r="178" spans="1:15" ht="15.75" customHeight="1">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="16"/>
       <c r="O178" s="2"/>
     </row>
-    <row r="179" spans="1:15" ht="15.75" customHeight="1">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="16"/>
       <c r="O179" s="2"/>
     </row>
-    <row r="180" spans="1:15" ht="15.75" customHeight="1">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="16"/>
       <c r="O180" s="2"/>
     </row>
-    <row r="181" spans="1:15" ht="15.75" customHeight="1">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="16"/>
       <c r="O181" s="2"/>
     </row>
-    <row r="182" spans="1:15" ht="15.75" customHeight="1">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="16"/>
       <c r="O182" s="2"/>
     </row>
-    <row r="183" spans="1:15" ht="15.75" customHeight="1">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="16"/>
       <c r="O183" s="2"/>
     </row>
-    <row r="184" spans="1:15" ht="15.75" customHeight="1">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="16"/>
       <c r="O184" s="2"/>
     </row>
-    <row r="185" spans="1:15" ht="15.75" customHeight="1">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="16"/>
       <c r="O185" s="2"/>
     </row>
-    <row r="186" spans="1:15" ht="15.75" customHeight="1">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="16"/>
       <c r="O186" s="2"/>
     </row>
-    <row r="187" spans="1:15" ht="15.75" customHeight="1">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="16"/>
       <c r="O187" s="2"/>
     </row>
-    <row r="188" spans="1:15" ht="15.75" customHeight="1">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="16"/>
       <c r="O188" s="2"/>
     </row>
-    <row r="189" spans="1:15" ht="15.75" customHeight="1">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="16"/>
       <c r="O189" s="2"/>
     </row>
-    <row r="190" spans="1:15" ht="15.75" customHeight="1">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="16"/>
       <c r="O190" s="2"/>
     </row>
-    <row r="191" spans="1:15" ht="15.75" customHeight="1">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="16"/>
       <c r="O191" s="2"/>
     </row>
-    <row r="192" spans="1:15" ht="15.75" customHeight="1">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="16"/>
       <c r="O192" s="2"/>
     </row>
-    <row r="193" spans="1:15" ht="15.75" customHeight="1">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="16"/>
       <c r="O193" s="2"/>
     </row>
-    <row r="194" spans="1:15" ht="15.75" customHeight="1">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="16"/>
       <c r="O194" s="2"/>
     </row>
-    <row r="195" spans="1:15" ht="15.75" customHeight="1">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="16"/>
       <c r="O195" s="2"/>
     </row>
-    <row r="196" spans="1:15" ht="15.75" customHeight="1">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="16"/>
       <c r="O196" s="2"/>
     </row>
-    <row r="197" spans="1:15" ht="15.75" customHeight="1">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="16"/>
       <c r="O197" s="2"/>
     </row>
-    <row r="198" spans="1:15" ht="15.75" customHeight="1">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="16"/>
       <c r="O198" s="2"/>
     </row>
-    <row r="199" spans="1:15" ht="15.75" customHeight="1">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="16"/>
       <c r="O199" s="2"/>
     </row>
-    <row r="200" spans="1:15" ht="15.75" customHeight="1">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="16"/>
       <c r="O200" s="2"/>
     </row>
-    <row r="201" spans="1:15" ht="15.75" customHeight="1">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="16"/>
       <c r="O201" s="2"/>
     </row>
-    <row r="202" spans="1:15" ht="15.75" customHeight="1">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="16"/>
       <c r="O202" s="2"/>
     </row>
-    <row r="203" spans="1:15" ht="15.75" customHeight="1">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="16"/>
       <c r="O203" s="2"/>
     </row>
-    <row r="204" spans="1:15" ht="15.75" customHeight="1">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="16"/>
       <c r="O204" s="2"/>
     </row>
-    <row r="205" spans="1:15" ht="15.75" customHeight="1">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="16"/>
       <c r="O205" s="2"/>
     </row>
-    <row r="206" spans="1:15" ht="15.75" customHeight="1">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="16"/>
       <c r="O206" s="2"/>
     </row>
-    <row r="207" spans="1:15" ht="15.75" customHeight="1">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="16"/>
       <c r="O207" s="2"/>
     </row>
-    <row r="208" spans="1:15" ht="15.75" customHeight="1">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="16"/>
       <c r="O208" s="2"/>
     </row>
-    <row r="209" spans="1:15" ht="15.75" customHeight="1">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="16"/>
       <c r="O209" s="2"/>
     </row>
-    <row r="210" spans="1:15" ht="15.75" customHeight="1">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="16"/>
       <c r="O210" s="2"/>
     </row>
-    <row r="211" spans="1:15" ht="15.75" customHeight="1">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="16"/>
       <c r="O211" s="2"/>
     </row>
-    <row r="212" spans="1:15" ht="15.75" customHeight="1">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="16"/>
       <c r="O212" s="2"/>
     </row>
-    <row r="213" spans="1:15" ht="15.75" customHeight="1">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="16"/>
       <c r="O213" s="2"/>
     </row>
-    <row r="214" spans="1:15" ht="15.75" customHeight="1">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="16"/>
       <c r="O214" s="2"/>
     </row>
-    <row r="215" spans="1:15" ht="15.75" customHeight="1">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="16"/>
       <c r="O215" s="2"/>
     </row>
-    <row r="216" spans="1:15" ht="15.75" customHeight="1">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="16"/>
       <c r="O216" s="2"/>
     </row>
-    <row r="217" spans="1:15" ht="15.75" customHeight="1">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="16"/>
       <c r="O217" s="2"/>
     </row>
-    <row r="218" spans="1:15" ht="15.75" customHeight="1">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="16"/>
       <c r="O218" s="2"/>
     </row>
-    <row r="219" spans="1:15" ht="15.75" customHeight="1">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="16"/>
       <c r="O219" s="2"/>
     </row>
-    <row r="220" spans="1:15" ht="15.75" customHeight="1">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="16"/>
       <c r="O220" s="2"/>
     </row>
-    <row r="221" spans="1:15" ht="15.75" customHeight="1">
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="16"/>
       <c r="O221" s="2"/>
     </row>
-    <row r="222" spans="1:15" ht="15.75" customHeight="1">
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="16"/>
       <c r="O222" s="2"/>
     </row>
-    <row r="223" spans="1:15" ht="15.75" customHeight="1">
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="16"/>
       <c r="O223" s="2"/>
     </row>
-    <row r="224" spans="1:15" ht="15.75" customHeight="1">
+    <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="16"/>
       <c r="O224" s="2"/>
     </row>
-    <row r="225" spans="1:15" ht="15.75" customHeight="1">
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="16"/>
       <c r="O225" s="2"/>
     </row>
-    <row r="226" spans="1:15" ht="15.75" customHeight="1">
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="16"/>
       <c r="O226" s="2"/>
     </row>
-    <row r="227" spans="1:15" ht="15.75" customHeight="1">
+    <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="16"/>
       <c r="O227" s="2"/>
     </row>
-    <row r="228" spans="1:15" ht="15.75" customHeight="1">
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="16"/>
       <c r="O228" s="2"/>
     </row>
-    <row r="229" spans="1:15" ht="15.75" customHeight="1">
+    <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="16"/>
       <c r="O229" s="2"/>
     </row>
-    <row r="230" spans="1:15" ht="15.75" customHeight="1">
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="16"/>
       <c r="O230" s="2"/>
     </row>
-    <row r="231" spans="1:15" ht="15.75" customHeight="1">
+    <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="16"/>
       <c r="O231" s="2"/>
     </row>
-    <row r="232" spans="1:15" ht="15.75" customHeight="1">
+    <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="16"/>
       <c r="O232" s="2"/>
     </row>
-    <row r="233" spans="1:15" ht="15.75" customHeight="1">
+    <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="16"/>
       <c r="O233" s="2"/>
     </row>
-    <row r="234" spans="1:15" ht="15.75" customHeight="1">
+    <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="16"/>
       <c r="O234" s="2"/>
     </row>
-    <row r="235" spans="1:15" ht="15.75" customHeight="1">
+    <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="16"/>
       <c r="O235" s="2"/>
     </row>
-    <row r="236" spans="1:15" ht="15.75" customHeight="1">
+    <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="16"/>
       <c r="O236" s="2"/>
     </row>
-    <row r="237" spans="1:15" ht="15.75" customHeight="1">
+    <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="16"/>
       <c r="O237" s="2"/>
     </row>
-    <row r="238" spans="1:15" ht="15.75" customHeight="1">
+    <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="16"/>
       <c r="O238" s="2"/>
     </row>
-    <row r="239" spans="1:15" ht="15.75" customHeight="1">
+    <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="16"/>
       <c r="O239" s="2"/>
     </row>
-    <row r="240" spans="1:15" ht="15.75" customHeight="1">
+    <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="16"/>
       <c r="O240" s="2"/>
     </row>
-    <row r="241" spans="1:15" ht="15.75" customHeight="1">
+    <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="16"/>
       <c r="O241" s="2"/>
     </row>
-    <row r="242" spans="1:15" ht="15.75" customHeight="1">
+    <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="16"/>
       <c r="O242" s="2"/>
     </row>
-    <row r="243" spans="1:15" ht="15.75" customHeight="1">
+    <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="16"/>
       <c r="O243" s="2"/>
     </row>
-    <row r="244" spans="1:15" ht="15.75" customHeight="1">
+    <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="16"/>
       <c r="O244" s="2"/>
     </row>
-    <row r="245" spans="1:15" ht="15.75" customHeight="1">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="16"/>
       <c r="O245" s="2"/>
     </row>
-    <row r="246" spans="1:15" ht="15.75" customHeight="1">
+    <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="16"/>
       <c r="O246" s="2"/>
     </row>
-    <row r="247" spans="1:15" ht="15.75" customHeight="1">
+    <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="16"/>
       <c r="O247" s="2"/>
     </row>
-    <row r="248" spans="1:15" ht="15.75" customHeight="1">
+    <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="16"/>
       <c r="O248" s="2"/>
     </row>
-    <row r="249" spans="1:15" ht="15.75" customHeight="1">
+    <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="16"/>
       <c r="O249" s="2"/>
     </row>
-    <row r="250" spans="1:15" ht="15.75" customHeight="1">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="16"/>
       <c r="O250" s="2"/>
     </row>
-    <row r="251" spans="1:15" ht="15.75" customHeight="1">
+    <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="16"/>
       <c r="O251" s="2"/>
     </row>
-    <row r="252" spans="1:15" ht="15.75" customHeight="1">
+    <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="16"/>
       <c r="O252" s="2"/>
     </row>
-    <row r="253" spans="1:15" ht="15.75" customHeight="1">
+    <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="16"/>
       <c r="O253" s="2"/>
     </row>
-    <row r="254" spans="1:15" ht="15.75" customHeight="1">
+    <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="16"/>
       <c r="O254" s="2"/>
     </row>
-    <row r="255" spans="1:15" ht="15.75" customHeight="1">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="16"/>
       <c r="O255" s="2"/>
     </row>
-    <row r="256" spans="1:15" ht="15.75" customHeight="1">
+    <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="16"/>
       <c r="O256" s="2"/>
     </row>
-    <row r="257" spans="1:15" ht="15.75" customHeight="1">
+    <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="16"/>
       <c r="O257" s="2"/>
     </row>
-    <row r="258" spans="1:15" ht="15.75" customHeight="1">
+    <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="16"/>
       <c r="O258" s="2"/>
     </row>
-    <row r="259" spans="1:15" ht="15.75" customHeight="1">
+    <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="16"/>
       <c r="O259" s="2"/>
     </row>
-    <row r="260" spans="1:15" ht="15.75" customHeight="1">
+    <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="16"/>
       <c r="O260" s="2"/>
     </row>
-    <row r="261" spans="1:15" ht="15.75" customHeight="1">
+    <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="16"/>
       <c r="O261" s="2"/>
     </row>
-    <row r="262" spans="1:15" ht="15.75" customHeight="1">
+    <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="16"/>
       <c r="O262" s="2"/>
     </row>
-    <row r="263" spans="1:15" ht="15.75" customHeight="1">
+    <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="16"/>
       <c r="O263" s="2"/>
     </row>
-    <row r="264" spans="1:15" ht="15.75" customHeight="1">
+    <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="16"/>
       <c r="O264" s="2"/>
     </row>
-    <row r="265" spans="1:15" ht="15.75" customHeight="1">
+    <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="16"/>
       <c r="O265" s="2"/>
     </row>
-    <row r="266" spans="1:15" ht="15.75" customHeight="1">
+    <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="16"/>
       <c r="O266" s="2"/>
     </row>
-    <row r="267" spans="1:15" ht="15.75" customHeight="1">
+    <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="16"/>
       <c r="O267" s="2"/>
     </row>
-    <row r="268" spans="1:15" ht="15.75" customHeight="1">
+    <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="16"/>
       <c r="O268" s="2"/>
     </row>
-    <row r="269" spans="1:15" ht="15.75" customHeight="1">
+    <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="16"/>
       <c r="O269" s="2"/>
     </row>
-    <row r="270" spans="1:15" ht="15.75" customHeight="1">
+    <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="16"/>
       <c r="O270" s="2"/>
     </row>
-    <row r="271" spans="1:15" ht="15.75" customHeight="1">
+    <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="16"/>
       <c r="O271" s="2"/>
     </row>
-    <row r="272" spans="1:15" ht="15.75" customHeight="1">
+    <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="16"/>
       <c r="O272" s="2"/>
     </row>
-    <row r="273" spans="1:15" ht="15.75" customHeight="1">
+    <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="16"/>
       <c r="O273" s="2"/>
     </row>
-    <row r="274" spans="1:15" ht="15.75" customHeight="1">
+    <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="16"/>
       <c r="O274" s="2"/>
     </row>
-    <row r="275" spans="1:15" ht="15.75" customHeight="1">
+    <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="16"/>
       <c r="O275" s="2"/>
     </row>
-    <row r="276" spans="1:15" ht="15.75" customHeight="1">
+    <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="16"/>
       <c r="O276" s="2"/>
     </row>
-    <row r="277" spans="1:15" ht="15.75" customHeight="1">
+    <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="16"/>
       <c r="O277" s="2"/>
     </row>
-    <row r="278" spans="1:15" ht="15.75" customHeight="1">
+    <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="16"/>
       <c r="O278" s="2"/>
     </row>
-    <row r="279" spans="1:15" ht="15.75" customHeight="1">
+    <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="16"/>
       <c r="O279" s="2"/>
     </row>
-    <row r="280" spans="1:15" ht="15.75" customHeight="1">
+    <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="16"/>
       <c r="O280" s="2"/>
     </row>
-    <row r="281" spans="1:15" ht="15.75" customHeight="1">
+    <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="16"/>
       <c r="O281" s="2"/>
     </row>
-    <row r="282" spans="1:15" ht="15.75" customHeight="1">
+    <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="16"/>
       <c r="O282" s="2"/>
     </row>
-    <row r="283" spans="1:15" ht="15.75" customHeight="1">
+    <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="16"/>
       <c r="O283" s="2"/>
     </row>
-    <row r="284" spans="1:15" ht="15.75" customHeight="1">
+    <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="16"/>
       <c r="O284" s="2"/>
     </row>
-    <row r="285" spans="1:15" ht="15.75" customHeight="1">
+    <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="16"/>
       <c r="O285" s="2"/>
     </row>
-    <row r="286" spans="1:15" ht="15.75" customHeight="1">
+    <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="16"/>
       <c r="O286" s="2"/>
     </row>
-    <row r="287" spans="1:15" ht="15.75" customHeight="1">
+    <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="16"/>
       <c r="O287" s="2"/>
     </row>
-    <row r="288" spans="1:15" ht="15.75" customHeight="1">
+    <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="16"/>
       <c r="O288" s="2"/>
     </row>
-    <row r="289" spans="1:15" ht="15.75" customHeight="1">
+    <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="16"/>
       <c r="O289" s="2"/>
     </row>
-    <row r="290" spans="1:15" ht="15.75" customHeight="1">
+    <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="16"/>
       <c r="O290" s="2"/>
     </row>
-    <row r="291" spans="1:15" ht="15.75" customHeight="1">
+    <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="16"/>
       <c r="O291" s="2"/>
     </row>
-    <row r="292" spans="1:15" ht="15.75" customHeight="1">
+    <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="16"/>
       <c r="O292" s="2"/>
     </row>
-    <row r="293" spans="1:15" ht="15.75" customHeight="1">
+    <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="16"/>
       <c r="O293" s="2"/>
     </row>
-    <row r="294" spans="1:15" ht="15.75" customHeight="1">
+    <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="16"/>
       <c r="O294" s="2"/>
     </row>
-    <row r="295" spans="1:15" ht="15.75" customHeight="1">
+    <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="16"/>
       <c r="O295" s="2"/>
     </row>
-    <row r="296" spans="1:15" ht="15.75" customHeight="1">
+    <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="16"/>
       <c r="O296" s="2"/>
     </row>
-    <row r="297" spans="1:15" ht="15.75" customHeight="1">
+    <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="16"/>
       <c r="O297" s="2"/>
     </row>
-    <row r="298" spans="1:15" ht="15.75" customHeight="1">
+    <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="16"/>
       <c r="O298" s="2"/>
     </row>
-    <row r="299" spans="1:15" ht="15.75" customHeight="1">
+    <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="16"/>
       <c r="O299" s="2"/>
     </row>
-    <row r="300" spans="1:15" ht="15.75" customHeight="1">
+    <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="16"/>
       <c r="O300" s="2"/>
     </row>
-    <row r="301" spans="1:15" ht="15.75" customHeight="1">
+    <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="16"/>
       <c r="O301" s="2"/>
     </row>
-    <row r="302" spans="1:15" ht="15.75" customHeight="1">
+    <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="16"/>
       <c r="O302" s="2"/>
     </row>
-    <row r="303" spans="1:15" ht="15.75" customHeight="1">
+    <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="16"/>
       <c r="O303" s="2"/>
     </row>
-    <row r="304" spans="1:15" ht="15.75" customHeight="1">
+    <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="16"/>
       <c r="O304" s="2"/>
     </row>
-    <row r="305" spans="1:15" ht="15.75" customHeight="1">
+    <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="16"/>
       <c r="O305" s="2"/>
     </row>
-    <row r="306" spans="1:15" ht="15.75" customHeight="1">
+    <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="16"/>
       <c r="O306" s="2"/>
     </row>
-    <row r="307" spans="1:15" ht="15.75" customHeight="1">
+    <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="16"/>
       <c r="O307" s="2"/>
     </row>
-    <row r="308" spans="1:15" ht="15.75" customHeight="1">
+    <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="16"/>
       <c r="O308" s="2"/>
     </row>
-    <row r="309" spans="1:15" ht="15.75" customHeight="1">
+    <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="16"/>
       <c r="O309" s="2"/>
     </row>
-    <row r="310" spans="1:15" ht="15.75" customHeight="1">
+    <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="16"/>
       <c r="O310" s="2"/>
     </row>
-    <row r="311" spans="1:15" ht="15.75" customHeight="1">
+    <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="16"/>
       <c r="O311" s="2"/>
     </row>
-    <row r="312" spans="1:15" ht="15.75" customHeight="1">
+    <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="16"/>
       <c r="O312" s="2"/>
     </row>
-    <row r="313" spans="1:15" ht="15.75" customHeight="1">
+    <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="16"/>
       <c r="O313" s="2"/>
     </row>
-    <row r="314" spans="1:15" ht="15.75" customHeight="1">
+    <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="16"/>
       <c r="O314" s="2"/>
     </row>
-    <row r="315" spans="1:15" ht="15.75" customHeight="1">
+    <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="16"/>
       <c r="O315" s="2"/>
     </row>
-    <row r="316" spans="1:15" ht="15.75" customHeight="1">
+    <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="16"/>
       <c r="O316" s="2"/>
     </row>
-    <row r="317" spans="1:15" ht="15.75" customHeight="1">
+    <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="16"/>
       <c r="O317" s="2"/>
     </row>
-    <row r="318" spans="1:15" ht="15.75" customHeight="1">
+    <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="16"/>
       <c r="O318" s="2"/>
     </row>
-    <row r="319" spans="1:15" ht="15.75" customHeight="1">
+    <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="16"/>
       <c r="O319" s="2"/>
     </row>
-    <row r="320" spans="1:15" ht="15.75" customHeight="1">
+    <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="16"/>
       <c r="O320" s="2"/>
     </row>
-    <row r="321" spans="1:15" ht="15.75" customHeight="1">
+    <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="16"/>
       <c r="O321" s="2"/>
     </row>
-    <row r="322" spans="1:15" ht="15.75" customHeight="1">
+    <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="16"/>
       <c r="O322" s="2"/>
     </row>
-    <row r="323" spans="1:15" ht="15.75" customHeight="1">
+    <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="16"/>
       <c r="O323" s="2"/>
     </row>
-    <row r="324" spans="1:15" ht="15.75" customHeight="1">
+    <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="16"/>
       <c r="O324" s="2"/>
     </row>
-    <row r="325" spans="1:15" ht="15.75" customHeight="1">
+    <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="16"/>
       <c r="O325" s="2"/>
     </row>
-    <row r="326" spans="1:15" ht="15.75" customHeight="1">
+    <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="16"/>
       <c r="O326" s="2"/>
     </row>
-    <row r="327" spans="1:15" ht="15.75" customHeight="1">
+    <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="16"/>
       <c r="O327" s="2"/>
     </row>
-    <row r="328" spans="1:15" ht="15.75" customHeight="1">
+    <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="16"/>
       <c r="O328" s="2"/>
     </row>
-    <row r="329" spans="1:15" ht="15.75" customHeight="1">
+    <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="16"/>
       <c r="O329" s="2"/>
     </row>
-    <row r="330" spans="1:15" ht="15.75" customHeight="1">
+    <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="16"/>
       <c r="O330" s="2"/>
     </row>
-    <row r="331" spans="1:15" ht="15.75" customHeight="1">
+    <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="16"/>
       <c r="O331" s="2"/>
     </row>
-    <row r="332" spans="1:15" ht="15.75" customHeight="1">
+    <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="16"/>
       <c r="O332" s="2"/>
     </row>
-    <row r="333" spans="1:15" ht="15.75" customHeight="1">
+    <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="16"/>
       <c r="O333" s="2"/>
     </row>
-    <row r="334" spans="1:15" ht="15.75" customHeight="1">
+    <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="16"/>
       <c r="O334" s="2"/>
     </row>
-    <row r="335" spans="1:15" ht="15.75" customHeight="1">
+    <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="16"/>
       <c r="O335" s="2"/>
     </row>
-    <row r="336" spans="1:15" ht="15.75" customHeight="1">
+    <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="16"/>
       <c r="O336" s="2"/>
     </row>
-    <row r="337" spans="1:15" ht="15.75" customHeight="1">
+    <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="16"/>
       <c r="O337" s="2"/>
     </row>
-    <row r="338" spans="1:15" ht="15.75" customHeight="1">
+    <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="16"/>
       <c r="O338" s="2"/>
     </row>
-    <row r="339" spans="1:15" ht="15.75" customHeight="1">
+    <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="16"/>
       <c r="O339" s="2"/>
     </row>
-    <row r="340" spans="1:15" ht="15.75" customHeight="1">
+    <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="16"/>
       <c r="O340" s="2"/>
     </row>
-    <row r="341" spans="1:15" ht="15.75" customHeight="1">
+    <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="16"/>
       <c r="O341" s="2"/>
     </row>
-    <row r="342" spans="1:15" ht="15.75" customHeight="1">
+    <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="16"/>
       <c r="O342" s="2"/>
     </row>
-    <row r="343" spans="1:15" ht="15.75" customHeight="1">
+    <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="16"/>
       <c r="O343" s="2"/>
     </row>
-    <row r="344" spans="1:15" ht="15.75" customHeight="1">
+    <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="16"/>
       <c r="O344" s="2"/>
     </row>
-    <row r="345" spans="1:15" ht="15.75" customHeight="1">
+    <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="16"/>
       <c r="O345" s="2"/>
     </row>
-    <row r="346" spans="1:15" ht="15.75" customHeight="1">
+    <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="16"/>
       <c r="O346" s="2"/>
     </row>
-    <row r="347" spans="1:15" ht="15.75" customHeight="1">
+    <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="16"/>
       <c r="O347" s="2"/>
     </row>
-    <row r="348" spans="1:15" ht="15.75" customHeight="1">
+    <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="16"/>
       <c r="O348" s="2"/>
     </row>
-    <row r="349" spans="1:15" ht="15.75" customHeight="1">
+    <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="16"/>
       <c r="O349" s="2"/>
     </row>
-    <row r="350" spans="1:15" ht="15.75" customHeight="1">
+    <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="16"/>
       <c r="O350" s="2"/>
     </row>
-    <row r="351" spans="1:15" ht="15.75" customHeight="1">
+    <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="16"/>
       <c r="O351" s="2"/>
     </row>
-    <row r="352" spans="1:15" ht="15.75" customHeight="1">
+    <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="16"/>
       <c r="O352" s="2"/>
     </row>
-    <row r="353" spans="1:15" ht="15.75" customHeight="1">
+    <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="16"/>
       <c r="O353" s="2"/>
     </row>
-    <row r="354" spans="1:15" ht="15.75" customHeight="1">
+    <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="16"/>
       <c r="O354" s="2"/>
     </row>
-    <row r="355" spans="1:15" ht="15.75" customHeight="1">
+    <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="16"/>
       <c r="O355" s="2"/>
     </row>
-    <row r="356" spans="1:15" ht="15.75" customHeight="1">
+    <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="16"/>
       <c r="O356" s="2"/>
     </row>
-    <row r="357" spans="1:15" ht="15.75" customHeight="1">
+    <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="16"/>
       <c r="O357" s="2"/>
     </row>
-    <row r="358" spans="1:15" ht="15.75" customHeight="1">
+    <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="16"/>
       <c r="O358" s="2"/>
     </row>
-    <row r="359" spans="1:15" ht="15.75" customHeight="1">
+    <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="16"/>
       <c r="O359" s="2"/>
     </row>
-    <row r="360" spans="1:15" ht="15.75" customHeight="1">
+    <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="16"/>
       <c r="O360" s="2"/>
     </row>
-    <row r="361" spans="1:15" ht="15.75" customHeight="1">
+    <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="16"/>
       <c r="O361" s="2"/>
     </row>
-    <row r="362" spans="1:15" ht="15.75" customHeight="1">
+    <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="16"/>
       <c r="O362" s="2"/>
     </row>
-    <row r="363" spans="1:15" ht="15.75" customHeight="1">
+    <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="16"/>
       <c r="O363" s="2"/>
     </row>
-    <row r="364" spans="1:15" ht="15.75" customHeight="1">
+    <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="16"/>
       <c r="O364" s="2"/>
     </row>
-    <row r="365" spans="1:15" ht="15.75" customHeight="1">
+    <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="16"/>
       <c r="O365" s="2"/>
     </row>
-    <row r="366" spans="1:15" ht="15.75" customHeight="1">
+    <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="16"/>
       <c r="O366" s="2"/>
     </row>
-    <row r="367" spans="1:15" ht="15.75" customHeight="1">
+    <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="16"/>
       <c r="O367" s="2"/>
     </row>
-    <row r="368" spans="1:15" ht="15.75" customHeight="1">
+    <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="16"/>
       <c r="O368" s="2"/>
     </row>
-    <row r="369" spans="1:15" ht="15.75" customHeight="1">
+    <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="16"/>
       <c r="O369" s="2"/>
     </row>
-    <row r="370" spans="1:15" ht="15.75" customHeight="1">
+    <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="16"/>
       <c r="O370" s="2"/>
     </row>
-    <row r="371" spans="1:15" ht="15.75" customHeight="1">
+    <row r="371" ht="15.75" customHeight="1">
       <c r="A371" s="16"/>
       <c r="O371" s="2"/>
     </row>
-    <row r="372" spans="1:15" ht="15.75" customHeight="1">
+    <row r="372" ht="15.75" customHeight="1">
       <c r="A372" s="16"/>
       <c r="O372" s="2"/>
     </row>
-    <row r="373" spans="1:15" ht="15.75" customHeight="1">
+    <row r="373" ht="15.75" customHeight="1">
       <c r="A373" s="16"/>
       <c r="O373" s="2"/>
     </row>
-    <row r="374" spans="1:15" ht="15.75" customHeight="1">
+    <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="16"/>
       <c r="O374" s="2"/>
     </row>
-    <row r="375" spans="1:15" ht="15.75" customHeight="1">
+    <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="16"/>
       <c r="O375" s="2"/>
     </row>
-    <row r="376" spans="1:15" ht="15.75" customHeight="1">
+    <row r="376" ht="15.75" customHeight="1">
       <c r="A376" s="16"/>
       <c r="O376" s="2"/>
     </row>
-    <row r="377" spans="1:15" ht="15.75" customHeight="1">
+    <row r="377" ht="15.75" customHeight="1">
       <c r="A377" s="16"/>
       <c r="O377" s="2"/>
     </row>
-    <row r="378" spans="1:15" ht="15.75" customHeight="1">
+    <row r="378" ht="15.75" customHeight="1">
       <c r="A378" s="16"/>
       <c r="O378" s="2"/>
     </row>
-    <row r="379" spans="1:15" ht="15.75" customHeight="1">
+    <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="16"/>
       <c r="O379" s="2"/>
     </row>
-    <row r="380" spans="1:15" ht="15.75" customHeight="1">
+    <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="16"/>
       <c r="O380" s="2"/>
     </row>
-    <row r="381" spans="1:15" ht="15.75" customHeight="1">
+    <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="16"/>
       <c r="O381" s="2"/>
     </row>
-    <row r="382" spans="1:15" ht="15.75" customHeight="1">
+    <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="16"/>
       <c r="O382" s="2"/>
     </row>
-    <row r="383" spans="1:15" ht="15.75" customHeight="1">
+    <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="16"/>
       <c r="O383" s="2"/>
     </row>
-    <row r="384" spans="1:15" ht="15.75" customHeight="1">
+    <row r="384" ht="15.75" customHeight="1">
       <c r="A384" s="16"/>
       <c r="O384" s="2"/>
     </row>
-    <row r="385" spans="1:15" ht="15.75" customHeight="1">
+    <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="16"/>
       <c r="O385" s="2"/>
     </row>
-    <row r="386" spans="1:15" ht="15.75" customHeight="1">
+    <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="16"/>
       <c r="O386" s="2"/>
     </row>
-    <row r="387" spans="1:15" ht="15.75" customHeight="1">
+    <row r="387" ht="15.75" customHeight="1">
       <c r="A387" s="16"/>
       <c r="O387" s="2"/>
     </row>
-    <row r="388" spans="1:15" ht="15.75" customHeight="1">
+    <row r="388" ht="15.75" customHeight="1">
       <c r="A388" s="16"/>
       <c r="O388" s="2"/>
     </row>
-    <row r="389" spans="1:15" ht="15.75" customHeight="1">
+    <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="16"/>
       <c r="O389" s="2"/>
     </row>
-    <row r="390" spans="1:15" ht="15.75" customHeight="1">
+    <row r="390" ht="15.75" customHeight="1">
       <c r="A390" s="16"/>
       <c r="O390" s="2"/>
     </row>
-    <row r="391" spans="1:15" ht="15.75" customHeight="1">
+    <row r="391" ht="15.75" customHeight="1">
       <c r="A391" s="16"/>
       <c r="O391" s="2"/>
     </row>
-    <row r="392" spans="1:15" ht="15.75" customHeight="1">
+    <row r="392" ht="15.75" customHeight="1">
       <c r="A392" s="16"/>
       <c r="O392" s="2"/>
     </row>
-    <row r="393" spans="1:15" ht="15.75" customHeight="1">
+    <row r="393" ht="15.75" customHeight="1">
       <c r="A393" s="16"/>
       <c r="O393" s="2"/>
     </row>
-    <row r="394" spans="1:15" ht="15.75" customHeight="1">
+    <row r="394" ht="15.75" customHeight="1">
       <c r="A394" s="16"/>
       <c r="O394" s="2"/>
     </row>
-    <row r="395" spans="1:15" ht="15.75" customHeight="1">
+    <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="16"/>
       <c r="O395" s="2"/>
     </row>
-    <row r="396" spans="1:15" ht="15.75" customHeight="1">
+    <row r="396" ht="15.75" customHeight="1">
       <c r="A396" s="16"/>
       <c r="O396" s="2"/>
     </row>
-    <row r="397" spans="1:15" ht="15.75" customHeight="1">
+    <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="16"/>
       <c r="O397" s="2"/>
     </row>
-    <row r="398" spans="1:15" ht="15.75" customHeight="1">
+    <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="16"/>
       <c r="O398" s="2"/>
     </row>
-    <row r="399" spans="1:15" ht="15.75" customHeight="1">
+    <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="16"/>
       <c r="O399" s="2"/>
     </row>
-    <row r="400" spans="1:15" ht="15.75" customHeight="1">
+    <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="16"/>
       <c r="O400" s="2"/>
     </row>
-    <row r="401" spans="1:15" ht="15.75" customHeight="1">
+    <row r="401" ht="15.75" customHeight="1">
       <c r="A401" s="16"/>
       <c r="O401" s="2"/>
     </row>
-    <row r="402" spans="1:15" ht="15.75" customHeight="1">
+    <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="16"/>
       <c r="O402" s="2"/>
     </row>
-    <row r="403" spans="1:15" ht="15.75" customHeight="1">
+    <row r="403" ht="15.75" customHeight="1">
       <c r="A403" s="16"/>
       <c r="O403" s="2"/>
     </row>
-    <row r="404" spans="1:15" ht="15.75" customHeight="1">
+    <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="16"/>
       <c r="O404" s="2"/>
     </row>
-    <row r="405" spans="1:15" ht="15.75" customHeight="1">
+    <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="16"/>
       <c r="O405" s="2"/>
     </row>
-    <row r="406" spans="1:15" ht="15.75" customHeight="1">
+    <row r="406" ht="15.75" customHeight="1">
       <c r="A406" s="16"/>
       <c r="O406" s="2"/>
     </row>
-    <row r="407" spans="1:15" ht="15.75" customHeight="1">
+    <row r="407" ht="15.75" customHeight="1">
       <c r="A407" s="16"/>
       <c r="O407" s="2"/>
     </row>
-    <row r="408" spans="1:15" ht="15.75" customHeight="1">
+    <row r="408" ht="15.75" customHeight="1">
       <c r="A408" s="16"/>
       <c r="O408" s="2"/>
     </row>
-    <row r="409" spans="1:15" ht="15.75" customHeight="1">
+    <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="16"/>
       <c r="O409" s="2"/>
     </row>
-    <row r="410" spans="1:15" ht="15.75" customHeight="1">
+    <row r="410" ht="15.75" customHeight="1">
       <c r="A410" s="16"/>
       <c r="O410" s="2"/>
     </row>
-    <row r="411" spans="1:15" ht="15.75" customHeight="1">
+    <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="16"/>
       <c r="O411" s="2"/>
     </row>
-    <row r="412" spans="1:15" ht="15.75" customHeight="1">
+    <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="16"/>
       <c r="O412" s="2"/>
     </row>
-    <row r="413" spans="1:15" ht="15.75" customHeight="1">
+    <row r="413" ht="15.75" customHeight="1">
       <c r="A413" s="16"/>
       <c r="O413" s="2"/>
     </row>
-    <row r="414" spans="1:15" ht="15.75" customHeight="1">
+    <row r="414" ht="15.75" customHeight="1">
       <c r="A414" s="16"/>
       <c r="O414" s="2"/>
     </row>
-    <row r="415" spans="1:15" ht="15.75" customHeight="1">
+    <row r="415" ht="15.75" customHeight="1">
       <c r="A415" s="16"/>
       <c r="O415" s="2"/>
     </row>
-    <row r="416" spans="1:15" ht="15.75" customHeight="1">
+    <row r="416" ht="15.75" customHeight="1">
       <c r="A416" s="16"/>
       <c r="O416" s="2"/>
     </row>
-    <row r="417" spans="1:15" ht="15.75" customHeight="1">
+    <row r="417" ht="15.75" customHeight="1">
       <c r="A417" s="16"/>
       <c r="O417" s="2"/>
     </row>
-    <row r="418" spans="1:15" ht="15.75" customHeight="1">
+    <row r="418" ht="15.75" customHeight="1">
       <c r="A418" s="16"/>
       <c r="O418" s="2"/>
     </row>
-    <row r="419" spans="1:15" ht="15.75" customHeight="1">
+    <row r="419" ht="15.75" customHeight="1">
       <c r="A419" s="16"/>
       <c r="O419" s="2"/>
     </row>
-    <row r="420" spans="1:15" ht="15.75" customHeight="1">
+    <row r="420" ht="15.75" customHeight="1">
       <c r="A420" s="16"/>
       <c r="O420" s="2"/>
     </row>
-    <row r="421" spans="1:15" ht="15.75" customHeight="1">
+    <row r="421" ht="15.75" customHeight="1">
       <c r="A421" s="16"/>
       <c r="O421" s="2"/>
     </row>
-    <row r="422" spans="1:15" ht="15.75" customHeight="1">
+    <row r="422" ht="15.75" customHeight="1">
       <c r="A422" s="16"/>
       <c r="O422" s="2"/>
     </row>
-    <row r="423" spans="1:15" ht="15.75" customHeight="1">
+    <row r="423" ht="15.75" customHeight="1">
       <c r="A423" s="16"/>
       <c r="O423" s="2"/>
     </row>
-    <row r="424" spans="1:15" ht="15.75" customHeight="1">
+    <row r="424" ht="15.75" customHeight="1">
       <c r="A424" s="16"/>
       <c r="O424" s="2"/>
     </row>
-    <row r="425" spans="1:15" ht="15.75" customHeight="1">
+    <row r="425" ht="15.75" customHeight="1">
       <c r="A425" s="16"/>
       <c r="O425" s="2"/>
     </row>
-    <row r="426" spans="1:15" ht="15.75" customHeight="1">
+    <row r="426" ht="15.75" customHeight="1">
       <c r="A426" s="16"/>
       <c r="O426" s="2"/>
     </row>
-    <row r="427" spans="1:15" ht="15.75" customHeight="1">
+    <row r="427" ht="15.75" customHeight="1">
       <c r="A427" s="16"/>
       <c r="O427" s="2"/>
     </row>
-    <row r="428" spans="1:15" ht="15.75" customHeight="1">
+    <row r="428" ht="15.75" customHeight="1">
       <c r="A428" s="16"/>
       <c r="O428" s="2"/>
     </row>
-    <row r="429" spans="1:15" ht="15.75" customHeight="1">
+    <row r="429" ht="15.75" customHeight="1">
       <c r="A429" s="16"/>
       <c r="O429" s="2"/>
     </row>
-    <row r="430" spans="1:15" ht="15.75" customHeight="1">
+    <row r="430" ht="15.75" customHeight="1">
       <c r="A430" s="16"/>
       <c r="O430" s="2"/>
     </row>
-    <row r="431" spans="1:15" ht="15.75" customHeight="1">
+    <row r="431" ht="15.75" customHeight="1">
       <c r="A431" s="16"/>
       <c r="O431" s="2"/>
     </row>
-    <row r="432" spans="1:15" ht="15.75" customHeight="1">
+    <row r="432" ht="15.75" customHeight="1">
       <c r="A432" s="16"/>
       <c r="O432" s="2"/>
     </row>
-    <row r="433" spans="1:15" ht="15.75" customHeight="1">
+    <row r="433" ht="15.75" customHeight="1">
       <c r="A433" s="16"/>
       <c r="O433" s="2"/>
     </row>
-    <row r="434" spans="1:15" ht="15.75" customHeight="1">
+    <row r="434" ht="15.75" customHeight="1">
       <c r="A434" s="16"/>
       <c r="O434" s="2"/>
     </row>
-    <row r="435" spans="1:15" ht="15.75" customHeight="1">
+    <row r="435" ht="15.75" customHeight="1">
       <c r="A435" s="16"/>
       <c r="O435" s="2"/>
     </row>
-    <row r="436" spans="1:15" ht="15.75" customHeight="1">
+    <row r="436" ht="15.75" customHeight="1">
       <c r="A436" s="16"/>
       <c r="O436" s="2"/>
     </row>
-    <row r="437" spans="1:15" ht="15.75" customHeight="1">
+    <row r="437" ht="15.75" customHeight="1">
       <c r="A437" s="16"/>
       <c r="O437" s="2"/>
     </row>
-    <row r="438" spans="1:15" ht="15.75" customHeight="1">
+    <row r="438" ht="15.75" customHeight="1">
       <c r="A438" s="16"/>
       <c r="O438" s="2"/>
     </row>
-    <row r="439" spans="1:15" ht="15.75" customHeight="1">
+    <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="16"/>
       <c r="O439" s="2"/>
     </row>
-    <row r="440" spans="1:15" ht="15.75" customHeight="1">
+    <row r="440" ht="15.75" customHeight="1">
       <c r="A440" s="16"/>
       <c r="O440" s="2"/>
     </row>
-    <row r="441" spans="1:15" ht="15.75" customHeight="1">
+    <row r="441" ht="15.75" customHeight="1">
       <c r="A441" s="16"/>
       <c r="O441" s="2"/>
     </row>
-    <row r="442" spans="1:15" ht="15.75" customHeight="1">
+    <row r="442" ht="15.75" customHeight="1">
       <c r="A442" s="16"/>
       <c r="O442" s="2"/>
     </row>
-    <row r="443" spans="1:15" ht="15.75" customHeight="1">
+    <row r="443" ht="15.75" customHeight="1">
       <c r="A443" s="16"/>
       <c r="O443" s="2"/>
     </row>
-    <row r="444" spans="1:15" ht="15.75" customHeight="1">
+    <row r="444" ht="15.75" customHeight="1">
       <c r="A444" s="16"/>
       <c r="O444" s="2"/>
     </row>
-    <row r="445" spans="1:15" ht="15.75" customHeight="1">
+    <row r="445" ht="15.75" customHeight="1">
       <c r="A445" s="16"/>
       <c r="O445" s="2"/>
     </row>
-    <row r="446" spans="1:15" ht="15.75" customHeight="1">
+    <row r="446" ht="15.75" customHeight="1">
       <c r="A446" s="16"/>
       <c r="O446" s="2"/>
     </row>
-    <row r="447" spans="1:15" ht="15.75" customHeight="1">
+    <row r="447" ht="15.75" customHeight="1">
       <c r="A447" s="16"/>
       <c r="O447" s="2"/>
     </row>
-    <row r="448" spans="1:15" ht="15.75" customHeight="1">
+    <row r="448" ht="15.75" customHeight="1">
       <c r="A448" s="16"/>
       <c r="O448" s="2"/>
     </row>
-    <row r="449" spans="1:15" ht="15.75" customHeight="1">
+    <row r="449" ht="15.75" customHeight="1">
       <c r="A449" s="16"/>
       <c r="O449" s="2"/>
     </row>
-    <row r="450" spans="1:15" ht="15.75" customHeight="1">
+    <row r="450" ht="15.75" customHeight="1">
       <c r="A450" s="16"/>
       <c r="O450" s="2"/>
     </row>
-    <row r="451" spans="1:15" ht="15.75" customHeight="1">
+    <row r="451" ht="15.75" customHeight="1">
       <c r="A451" s="16"/>
       <c r="O451" s="2"/>
     </row>
-    <row r="452" spans="1:15" ht="15.75" customHeight="1">
+    <row r="452" ht="15.75" customHeight="1">
       <c r="A452" s="16"/>
       <c r="O452" s="2"/>
     </row>
-    <row r="453" spans="1:15" ht="15.75" customHeight="1">
+    <row r="453" ht="15.75" customHeight="1">
       <c r="A453" s="16"/>
       <c r="O453" s="2"/>
     </row>
-    <row r="454" spans="1:15" ht="15.75" customHeight="1">
+    <row r="454" ht="15.75" customHeight="1">
       <c r="A454" s="16"/>
       <c r="O454" s="2"/>
     </row>
-    <row r="455" spans="1:15" ht="15.75" customHeight="1">
+    <row r="455" ht="15.75" customHeight="1">
       <c r="A455" s="16"/>
       <c r="O455" s="2"/>
     </row>
-    <row r="456" spans="1:15" ht="15.75" customHeight="1">
+    <row r="456" ht="15.75" customHeight="1">
       <c r="A456" s="16"/>
       <c r="O456" s="2"/>
     </row>
-    <row r="457" spans="1:15" ht="15.75" customHeight="1">
+    <row r="457" ht="15.75" customHeight="1">
       <c r="A457" s="16"/>
       <c r="O457" s="2"/>
     </row>
-    <row r="458" spans="1:15" ht="15.75" customHeight="1">
+    <row r="458" ht="15.75" customHeight="1">
       <c r="A458" s="16"/>
       <c r="O458" s="2"/>
     </row>
-    <row r="459" spans="1:15" ht="15.75" customHeight="1">
+    <row r="459" ht="15.75" customHeight="1">
       <c r="A459" s="16"/>
       <c r="O459" s="2"/>
     </row>
-    <row r="460" spans="1:15" ht="15.75" customHeight="1">
+    <row r="460" ht="15.75" customHeight="1">
       <c r="A460" s="16"/>
       <c r="O460" s="2"/>
     </row>
-    <row r="461" spans="1:15" ht="15.75" customHeight="1">
+    <row r="461" ht="15.75" customHeight="1">
       <c r="A461" s="16"/>
       <c r="O461" s="2"/>
     </row>
-    <row r="462" spans="1:15" ht="15.75" customHeight="1">
+    <row r="462" ht="15.75" customHeight="1">
       <c r="A462" s="16"/>
       <c r="O462" s="2"/>
     </row>
-    <row r="463" spans="1:15" ht="15.75" customHeight="1">
+    <row r="463" ht="15.75" customHeight="1">
       <c r="A463" s="16"/>
       <c r="O463" s="2"/>
     </row>
-    <row r="464" spans="1:15" ht="15.75" customHeight="1">
+    <row r="464" ht="15.75" customHeight="1">
       <c r="A464" s="16"/>
       <c r="O464" s="2"/>
     </row>
-    <row r="465" spans="1:15" ht="15.75" customHeight="1">
+    <row r="465" ht="15.75" customHeight="1">
       <c r="A465" s="16"/>
       <c r="O465" s="2"/>
     </row>
-    <row r="466" spans="1:15" ht="15.75" customHeight="1">
+    <row r="466" ht="15.75" customHeight="1">
       <c r="A466" s="16"/>
       <c r="O466" s="2"/>
     </row>
-    <row r="467" spans="1:15" ht="15.75" customHeight="1">
+    <row r="467" ht="15.75" customHeight="1">
       <c r="A467" s="16"/>
       <c r="O467" s="2"/>
     </row>
-    <row r="468" spans="1:15" ht="15.75" customHeight="1">
+    <row r="468" ht="15.75" customHeight="1">
       <c r="A468" s="16"/>
       <c r="O468" s="2"/>
     </row>
-    <row r="469" spans="1:15" ht="15.75" customHeight="1">
+    <row r="469" ht="15.75" customHeight="1">
       <c r="A469" s="16"/>
       <c r="O469" s="2"/>
     </row>
-    <row r="470" spans="1:15" ht="15.75" customHeight="1">
+    <row r="470" ht="15.75" customHeight="1">
       <c r="A470" s="16"/>
       <c r="O470" s="2"/>
     </row>
-    <row r="471" spans="1:15" ht="15.75" customHeight="1">
+    <row r="471" ht="15.75" customHeight="1">
       <c r="A471" s="16"/>
       <c r="O471" s="2"/>
     </row>
-    <row r="472" spans="1:15" ht="15.75" customHeight="1">
+    <row r="472" ht="15.75" customHeight="1">
       <c r="A472" s="16"/>
       <c r="O472" s="2"/>
     </row>
-    <row r="473" spans="1:15" ht="15.75" customHeight="1">
+    <row r="473" ht="15.75" customHeight="1">
       <c r="A473" s="16"/>
       <c r="O473" s="2"/>
     </row>
-    <row r="474" spans="1:15" ht="15.75" customHeight="1">
+    <row r="474" ht="15.75" customHeight="1">
       <c r="A474" s="16"/>
       <c r="O474" s="2"/>
     </row>
-    <row r="475" spans="1:15" ht="15.75" customHeight="1">
+    <row r="475" ht="15.75" customHeight="1">
       <c r="A475" s="16"/>
       <c r="O475" s="2"/>
     </row>
-    <row r="476" spans="1:15" ht="15.75" customHeight="1">
+    <row r="476" ht="15.75" customHeight="1">
       <c r="A476" s="16"/>
       <c r="O476" s="2"/>
     </row>
-    <row r="477" spans="1:15" ht="15.75" customHeight="1">
+    <row r="477" ht="15.75" customHeight="1">
       <c r="A477" s="16"/>
       <c r="O477" s="2"/>
     </row>
-    <row r="478" spans="1:15" ht="15.75" customHeight="1">
+    <row r="478" ht="15.75" customHeight="1">
       <c r="A478" s="16"/>
       <c r="O478" s="2"/>
     </row>
-    <row r="479" spans="1:15" ht="15.75" customHeight="1">
+    <row r="479" ht="15.75" customHeight="1">
       <c r="A479" s="16"/>
       <c r="O479" s="2"/>
     </row>
-    <row r="480" spans="1:15" ht="15.75" customHeight="1">
+    <row r="480" ht="15.75" customHeight="1">
       <c r="A480" s="16"/>
       <c r="O480" s="2"/>
     </row>
-    <row r="481" spans="1:15" ht="15.75" customHeight="1">
+    <row r="481" ht="15.75" customHeight="1">
       <c r="A481" s="16"/>
       <c r="O481" s="2"/>
     </row>
-    <row r="482" spans="1:15" ht="15.75" customHeight="1">
+    <row r="482" ht="15.75" customHeight="1">
       <c r="A482" s="16"/>
       <c r="O482" s="2"/>
     </row>
-    <row r="483" spans="1:15" ht="15.75" customHeight="1">
+    <row r="483" ht="15.75" customHeight="1">
       <c r="A483" s="16"/>
       <c r="O483" s="2"/>
     </row>
-    <row r="484" spans="1:15" ht="15.75" customHeight="1">
+    <row r="484" ht="15.75" customHeight="1">
       <c r="A484" s="16"/>
       <c r="O484" s="2"/>
     </row>
-    <row r="485" spans="1:15" ht="15.75" customHeight="1">
+    <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="16"/>
       <c r="O485" s="2"/>
     </row>
-    <row r="486" spans="1:15" ht="15.75" customHeight="1">
+    <row r="486" ht="15.75" customHeight="1">
       <c r="A486" s="16"/>
       <c r="O486" s="2"/>
     </row>
-    <row r="487" spans="1:15" ht="15.75" customHeight="1">
+    <row r="487" ht="15.75" customHeight="1">
       <c r="A487" s="16"/>
       <c r="O487" s="2"/>
     </row>
-    <row r="488" spans="1:15" ht="15.75" customHeight="1">
+    <row r="488" ht="15.75" customHeight="1">
       <c r="A488" s="16"/>
       <c r="O488" s="2"/>
     </row>
-    <row r="489" spans="1:15" ht="15.75" customHeight="1">
+    <row r="489" ht="15.75" customHeight="1">
       <c r="A489" s="16"/>
       <c r="O489" s="2"/>
     </row>
-    <row r="490" spans="1:15" ht="15.75" customHeight="1">
+    <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="16"/>
       <c r="O490" s="2"/>
     </row>
-    <row r="491" spans="1:15" ht="15.75" customHeight="1">
+    <row r="491" ht="15.75" customHeight="1">
       <c r="A491" s="16"/>
       <c r="O491" s="2"/>
     </row>
-    <row r="492" spans="1:15" ht="15.75" customHeight="1">
+    <row r="492" ht="15.75" customHeight="1">
       <c r="A492" s="16"/>
       <c r="O492" s="2"/>
     </row>
-    <row r="493" spans="1:15" ht="15.75" customHeight="1">
+    <row r="493" ht="15.75" customHeight="1">
       <c r="A493" s="16"/>
       <c r="O493" s="2"/>
     </row>
-    <row r="494" spans="1:15" ht="15.75" customHeight="1">
+    <row r="494" ht="15.75" customHeight="1">
       <c r="A494" s="16"/>
       <c r="O494" s="2"/>
     </row>
-    <row r="495" spans="1:15" ht="15.75" customHeight="1">
+    <row r="495" ht="15.75" customHeight="1">
       <c r="A495" s="16"/>
       <c r="O495" s="2"/>
     </row>
-    <row r="496" spans="1:15" ht="15.75" customHeight="1">
+    <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="16"/>
       <c r="O496" s="2"/>
     </row>
-    <row r="497" spans="1:15" ht="15.75" customHeight="1">
+    <row r="497" ht="15.75" customHeight="1">
       <c r="A497" s="16"/>
       <c r="O497" s="2"/>
     </row>
-    <row r="498" spans="1:15" ht="15.75" customHeight="1">
+    <row r="498" ht="15.75" customHeight="1">
       <c r="A498" s="16"/>
       <c r="O498" s="2"/>
     </row>
-    <row r="499" spans="1:15" ht="15.75" customHeight="1">
+    <row r="499" ht="15.75" customHeight="1">
       <c r="A499" s="16"/>
       <c r="O499" s="2"/>
     </row>
-    <row r="500" spans="1:15" ht="15.75" customHeight="1">
+    <row r="500" ht="15.75" customHeight="1">
       <c r="A500" s="16"/>
       <c r="O500" s="2"/>
     </row>
-    <row r="501" spans="1:15" ht="15.75" customHeight="1">
+    <row r="501" ht="15.75" customHeight="1">
       <c r="A501" s="16"/>
       <c r="O501" s="2"/>
     </row>
-    <row r="502" spans="1:15" ht="15.75" customHeight="1">
+    <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="16"/>
       <c r="O502" s="2"/>
     </row>
-    <row r="503" spans="1:15" ht="15.75" customHeight="1">
+    <row r="503" ht="15.75" customHeight="1">
       <c r="A503" s="16"/>
       <c r="O503" s="2"/>
     </row>
-    <row r="504" spans="1:15" ht="15.75" customHeight="1">
+    <row r="504" ht="15.75" customHeight="1">
       <c r="A504" s="16"/>
       <c r="O504" s="2"/>
     </row>
-    <row r="505" spans="1:15" ht="15.75" customHeight="1">
+    <row r="505" ht="15.75" customHeight="1">
       <c r="A505" s="16"/>
       <c r="O505" s="2"/>
     </row>
-    <row r="506" spans="1:15" ht="15.75" customHeight="1">
+    <row r="506" ht="15.75" customHeight="1">
       <c r="A506" s="16"/>
       <c r="O506" s="2"/>
     </row>
-    <row r="507" spans="1:15" ht="15.75" customHeight="1">
+    <row r="507" ht="15.75" customHeight="1">
       <c r="A507" s="16"/>
       <c r="O507" s="2"/>
     </row>
-    <row r="508" spans="1:15" ht="15.75" customHeight="1">
+    <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="16"/>
       <c r="O508" s="2"/>
     </row>
-    <row r="509" spans="1:15" ht="15.75" customHeight="1">
+    <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="16"/>
       <c r="O509" s="2"/>
     </row>
-    <row r="510" spans="1:15" ht="15.75" customHeight="1">
+    <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="16"/>
       <c r="O510" s="2"/>
     </row>
-    <row r="511" spans="1:15" ht="15.75" customHeight="1">
+    <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="16"/>
       <c r="O511" s="2"/>
     </row>
-    <row r="512" spans="1:15" ht="15.75" customHeight="1">
+    <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="16"/>
       <c r="O512" s="2"/>
     </row>
-    <row r="513" spans="1:15" ht="15.75" customHeight="1">
+    <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="16"/>
       <c r="O513" s="2"/>
     </row>
-    <row r="514" spans="1:15" ht="15.75" customHeight="1">
+    <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="16"/>
       <c r="O514" s="2"/>
     </row>
-    <row r="515" spans="1:15" ht="15.75" customHeight="1">
+    <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="16"/>
       <c r="O515" s="2"/>
     </row>
-    <row r="516" spans="1:15" ht="15.75" customHeight="1">
+    <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="16"/>
       <c r="O516" s="2"/>
     </row>
-    <row r="517" spans="1:15" ht="15.75" customHeight="1">
+    <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="16"/>
       <c r="O517" s="2"/>
     </row>
-    <row r="518" spans="1:15" ht="15.75" customHeight="1">
+    <row r="518" ht="15.75" customHeight="1">
       <c r="A518" s="16"/>
       <c r="O518" s="2"/>
     </row>
-    <row r="519" spans="1:15" ht="15.75" customHeight="1">
+    <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="16"/>
       <c r="O519" s="2"/>
     </row>
-    <row r="520" spans="1:15" ht="15.75" customHeight="1">
+    <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="16"/>
       <c r="O520" s="2"/>
     </row>
-    <row r="521" spans="1:15" ht="15.75" customHeight="1">
+    <row r="521" ht="15.75" customHeight="1">
       <c r="A521" s="16"/>
       <c r="O521" s="2"/>
     </row>
-    <row r="522" spans="1:15" ht="15.75" customHeight="1">
+    <row r="522" ht="15.75" customHeight="1">
       <c r="A522" s="16"/>
       <c r="O522" s="2"/>
     </row>
-    <row r="523" spans="1:15" ht="15.75" customHeight="1">
+    <row r="523" ht="15.75" customHeight="1">
       <c r="A523" s="16"/>
       <c r="O523" s="2"/>
     </row>
-    <row r="524" spans="1:15" ht="15.75" customHeight="1">
+    <row r="524" ht="15.75" customHeight="1">
       <c r="A524" s="16"/>
       <c r="O524" s="2"/>
     </row>
-    <row r="525" spans="1:15" ht="15.75" customHeight="1">
+    <row r="525" ht="15.75" customHeight="1">
       <c r="A525" s="16"/>
       <c r="O525" s="2"/>
     </row>
-    <row r="526" spans="1:15" ht="15.75" customHeight="1">
+    <row r="526" ht="15.75" customHeight="1">
       <c r="A526" s="16"/>
       <c r="O526" s="2"/>
     </row>
-    <row r="527" spans="1:15" ht="15.75" customHeight="1">
+    <row r="527" ht="15.75" customHeight="1">
       <c r="A527" s="16"/>
       <c r="O527" s="2"/>
     </row>
-    <row r="528" spans="1:15" ht="15.75" customHeight="1">
+    <row r="528" ht="15.75" customHeight="1">
       <c r="A528" s="16"/>
       <c r="O528" s="2"/>
     </row>
-    <row r="529" spans="1:15" ht="15.75" customHeight="1">
+    <row r="529" ht="15.75" customHeight="1">
       <c r="A529" s="16"/>
       <c r="O529" s="2"/>
     </row>
-    <row r="530" spans="1:15" ht="15.75" customHeight="1">
+    <row r="530" ht="15.75" customHeight="1">
       <c r="A530" s="16"/>
       <c r="O530" s="2"/>
     </row>
-    <row r="531" spans="1:15" ht="15.75" customHeight="1">
+    <row r="531" ht="15.75" customHeight="1">
       <c r="A531" s="16"/>
       <c r="O531" s="2"/>
     </row>
-    <row r="532" spans="1:15" ht="15.75" customHeight="1">
+    <row r="532" ht="15.75" customHeight="1">
       <c r="A532" s="16"/>
       <c r="O532" s="2"/>
     </row>
-    <row r="533" spans="1:15" ht="15.75" customHeight="1">
+    <row r="533" ht="15.75" customHeight="1">
       <c r="A533" s="16"/>
       <c r="O533" s="2"/>
     </row>
-    <row r="534" spans="1:15" ht="15.75" customHeight="1">
+    <row r="534" ht="15.75" customHeight="1">
       <c r="A534" s="16"/>
       <c r="O534" s="2"/>
     </row>
-    <row r="535" spans="1:15" ht="15.75" customHeight="1">
+    <row r="535" ht="15.75" customHeight="1">
       <c r="A535" s="16"/>
       <c r="O535" s="2"/>
     </row>
-    <row r="536" spans="1:15" ht="15.75" customHeight="1">
+    <row r="536" ht="15.75" customHeight="1">
       <c r="A536" s="16"/>
       <c r="O536" s="2"/>
     </row>
-    <row r="537" spans="1:15" ht="15.75" customHeight="1">
+    <row r="537" ht="15.75" customHeight="1">
       <c r="A537" s="16"/>
       <c r="O537" s="2"/>
     </row>
-    <row r="538" spans="1:15" ht="15.75" customHeight="1">
+    <row r="538" ht="15.75" customHeight="1">
       <c r="A538" s="16"/>
       <c r="O538" s="2"/>
     </row>
-    <row r="539" spans="1:15" ht="15.75" customHeight="1">
+    <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="16"/>
       <c r="O539" s="2"/>
     </row>
-    <row r="540" spans="1:15" ht="15.75" customHeight="1">
+    <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="16"/>
       <c r="O540" s="2"/>
     </row>
-    <row r="541" spans="1:15" ht="15.75" customHeight="1">
+    <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="16"/>
       <c r="O541" s="2"/>
     </row>
-    <row r="542" spans="1:15" ht="15.75" customHeight="1">
+    <row r="542" ht="15.75" customHeight="1">
       <c r="A542" s="16"/>
       <c r="O542" s="2"/>
     </row>
-    <row r="543" spans="1:15" ht="15.75" customHeight="1">
+    <row r="543" ht="15.75" customHeight="1">
       <c r="A543" s="16"/>
       <c r="O543" s="2"/>
     </row>
-    <row r="544" spans="1:15" ht="15.75" customHeight="1">
+    <row r="544" ht="15.75" customHeight="1">
       <c r="A544" s="16"/>
       <c r="O544" s="2"/>
     </row>
-    <row r="545" spans="1:15" ht="15.75" customHeight="1">
+    <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="16"/>
       <c r="O545" s="2"/>
     </row>
-    <row r="546" spans="1:15" ht="15.75" customHeight="1">
+    <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="16"/>
       <c r="O546" s="2"/>
     </row>
-    <row r="547" spans="1:15" ht="15.75" customHeight="1">
+    <row r="547" ht="15.75" customHeight="1">
       <c r="A547" s="16"/>
       <c r="O547" s="2"/>
     </row>
-    <row r="548" spans="1:15" ht="15.75" customHeight="1">
+    <row r="548" ht="15.75" customHeight="1">
       <c r="A548" s="16"/>
       <c r="O548" s="2"/>
     </row>
-    <row r="549" spans="1:15" ht="15.75" customHeight="1">
+    <row r="549" ht="15.75" customHeight="1">
       <c r="A549" s="16"/>
       <c r="O549" s="2"/>
     </row>
-    <row r="550" spans="1:15" ht="15.75" customHeight="1">
+    <row r="550" ht="15.75" customHeight="1">
       <c r="A550" s="16"/>
       <c r="O550" s="2"/>
     </row>
-    <row r="551" spans="1:15" ht="15.75" customHeight="1">
+    <row r="551" ht="15.75" customHeight="1">
       <c r="A551" s="16"/>
       <c r="O551" s="2"/>
     </row>
-    <row r="552" spans="1:15" ht="15.75" customHeight="1">
+    <row r="552" ht="15.75" customHeight="1">
       <c r="A552" s="16"/>
       <c r="O552" s="2"/>
     </row>
-    <row r="553" spans="1:15" ht="15.75" customHeight="1">
+    <row r="553" ht="15.75" customHeight="1">
       <c r="A553" s="16"/>
       <c r="O553" s="2"/>
     </row>
-    <row r="554" spans="1:15" ht="15.75" customHeight="1">
+    <row r="554" ht="15.75" customHeight="1">
       <c r="A554" s="16"/>
       <c r="O554" s="2"/>
     </row>
-    <row r="555" spans="1:15" ht="15.75" customHeight="1">
+    <row r="555" ht="15.75" customHeight="1">
       <c r="A555" s="16"/>
       <c r="O555" s="2"/>
     </row>
-    <row r="556" spans="1:15" ht="15.75" customHeight="1">
+    <row r="556" ht="15.75" customHeight="1">
       <c r="A556" s="16"/>
       <c r="O556" s="2"/>
     </row>
-    <row r="557" spans="1:15" ht="15.75" customHeight="1">
+    <row r="557" ht="15.75" customHeight="1">
       <c r="A557" s="16"/>
       <c r="O557" s="2"/>
     </row>
-    <row r="558" spans="1:15" ht="15.75" customHeight="1">
+    <row r="558" ht="15.75" customHeight="1">
       <c r="A558" s="16"/>
       <c r="O558" s="2"/>
     </row>
-    <row r="559" spans="1:15" ht="15.75" customHeight="1">
+    <row r="559" ht="15.75" customHeight="1">
       <c r="A559" s="16"/>
       <c r="O559" s="2"/>
     </row>
-    <row r="560" spans="1:15" ht="15.75" customHeight="1">
+    <row r="560" ht="15.75" customHeight="1">
       <c r="A560" s="16"/>
       <c r="O560" s="2"/>
     </row>
-    <row r="561" spans="1:15" ht="15.75" customHeight="1">
+    <row r="561" ht="15.75" customHeight="1">
       <c r="A561" s="16"/>
       <c r="O561" s="2"/>
     </row>
-    <row r="562" spans="1:15" ht="15.75" customHeight="1">
+    <row r="562" ht="15.75" customHeight="1">
       <c r="A562" s="16"/>
       <c r="O562" s="2"/>
     </row>
-    <row r="563" spans="1:15" ht="15.75" customHeight="1">
+    <row r="563" ht="15.75" customHeight="1">
       <c r="A563" s="16"/>
       <c r="O563" s="2"/>
     </row>
-    <row r="564" spans="1:15" ht="15.75" customHeight="1">
+    <row r="564" ht="15.75" customHeight="1">
       <c r="A564" s="16"/>
       <c r="O564" s="2"/>
     </row>
-    <row r="565" spans="1:15" ht="15.75" customHeight="1">
+    <row r="565" ht="15.75" customHeight="1">
       <c r="A565" s="16"/>
       <c r="O565" s="2"/>
     </row>
-    <row r="566" spans="1:15" ht="15.75" customHeight="1">
+    <row r="566" ht="15.75" customHeight="1">
       <c r="A566" s="16"/>
       <c r="O566" s="2"/>
     </row>
-    <row r="567" spans="1:15" ht="15.75" customHeight="1">
+    <row r="567" ht="15.75" customHeight="1">
       <c r="A567" s="16"/>
       <c r="O567" s="2"/>
     </row>
-    <row r="568" spans="1:15" ht="15.75" customHeight="1">
+    <row r="568" ht="15.75" customHeight="1">
       <c r="A568" s="16"/>
       <c r="O568" s="2"/>
     </row>
-    <row r="569" spans="1:15" ht="15.75" customHeight="1">
+    <row r="569" ht="15.75" customHeight="1">
       <c r="A569" s="16"/>
       <c r="O569" s="2"/>
     </row>
-    <row r="570" spans="1:15" ht="15.75" customHeight="1">
+    <row r="570" ht="15.75" customHeight="1">
       <c r="A570" s="16"/>
       <c r="O570" s="2"/>
     </row>
-    <row r="571" spans="1:15" ht="15.75" customHeight="1">
+    <row r="571" ht="15.75" customHeight="1">
       <c r="A571" s="16"/>
       <c r="O571" s="2"/>
     </row>
-    <row r="572" spans="1:15" ht="15.75" customHeight="1">
+    <row r="572" ht="15.75" customHeight="1">
       <c r="A572" s="16"/>
       <c r="O572" s="2"/>
     </row>
-    <row r="573" spans="1:15" ht="15.75" customHeight="1">
+    <row r="573" ht="15.75" customHeight="1">
       <c r="A573" s="16"/>
       <c r="O573" s="2"/>
     </row>
-    <row r="574" spans="1:15" ht="15.75" customHeight="1">
+    <row r="574" ht="15.75" customHeight="1">
       <c r="A574" s="16"/>
       <c r="O574" s="2"/>
     </row>
-    <row r="575" spans="1:15" ht="15.75" customHeight="1">
+    <row r="575" ht="15.75" customHeight="1">
       <c r="A575" s="16"/>
       <c r="O575" s="2"/>
     </row>
-    <row r="576" spans="1:15" ht="15.75" customHeight="1">
+    <row r="576" ht="15.75" customHeight="1">
       <c r="A576" s="16"/>
       <c r="O576" s="2"/>
     </row>
-    <row r="577" spans="1:15" ht="15.75" customHeight="1">
+    <row r="577" ht="15.75" customHeight="1">
       <c r="A577" s="16"/>
       <c r="O577" s="2"/>
     </row>
-    <row r="578" spans="1:15" ht="15.75" customHeight="1">
+    <row r="578" ht="15.75" customHeight="1">
       <c r="A578" s="16"/>
       <c r="O578" s="2"/>
     </row>
-    <row r="579" spans="1:15" ht="15.75" customHeight="1">
+    <row r="579" ht="15.75" customHeight="1">
       <c r="A579" s="16"/>
       <c r="O579" s="2"/>
     </row>
-    <row r="580" spans="1:15" ht="15.75" customHeight="1">
+    <row r="580" ht="15.75" customHeight="1">
       <c r="A580" s="16"/>
       <c r="O580" s="2"/>
     </row>
-    <row r="581" spans="1:15" ht="15.75" customHeight="1">
+    <row r="581" ht="15.75" customHeight="1">
       <c r="A581" s="16"/>
       <c r="O581" s="2"/>
     </row>
-    <row r="582" spans="1:15" ht="15.75" customHeight="1">
+    <row r="582" ht="15.75" customHeight="1">
       <c r="A582" s="16"/>
       <c r="O582" s="2"/>
     </row>
-    <row r="583" spans="1:15" ht="15.75" customHeight="1">
+    <row r="583" ht="15.75" customHeight="1">
       <c r="A583" s="16"/>
       <c r="O583" s="2"/>
     </row>
-    <row r="584" spans="1:15" ht="15.75" customHeight="1">
+    <row r="584" ht="15.75" customHeight="1">
       <c r="A584" s="16"/>
       <c r="O584" s="2"/>
     </row>
-    <row r="585" spans="1:15" ht="15.75" customHeight="1">
+    <row r="585" ht="15.75" customHeight="1">
       <c r="A585" s="16"/>
       <c r="O585" s="2"/>
     </row>
-    <row r="586" spans="1:15" ht="15.75" customHeight="1">
+    <row r="586" ht="15.75" customHeight="1">
       <c r="A586" s="16"/>
       <c r="O586" s="2"/>
     </row>
-    <row r="587" spans="1:15" ht="15.75" customHeight="1">
+    <row r="587" ht="15.75" customHeight="1">
       <c r="A587" s="16"/>
       <c r="O587" s="2"/>
     </row>
-    <row r="588" spans="1:15" ht="15.75" customHeight="1">
+    <row r="588" ht="15.75" customHeight="1">
       <c r="A588" s="16"/>
       <c r="O588" s="2"/>
     </row>
-    <row r="589" spans="1:15" ht="15.75" customHeight="1">
+    <row r="589" ht="15.75" customHeight="1">
       <c r="A589" s="16"/>
       <c r="O589" s="2"/>
     </row>
-    <row r="590" spans="1:15" ht="15.75" customHeight="1">
+    <row r="590" ht="15.75" customHeight="1">
       <c r="A590" s="16"/>
       <c r="O590" s="2"/>
     </row>
-    <row r="591" spans="1:15" ht="15.75" customHeight="1">
+    <row r="591" ht="15.75" customHeight="1">
       <c r="A591" s="16"/>
       <c r="O591" s="2"/>
     </row>
-    <row r="592" spans="1:15" ht="15.75" customHeight="1">
+    <row r="592" ht="15.75" customHeight="1">
       <c r="A592" s="16"/>
       <c r="O592" s="2"/>
     </row>
-    <row r="593" spans="1:15" ht="15.75" customHeight="1">
+    <row r="593" ht="15.75" customHeight="1">
       <c r="A593" s="16"/>
       <c r="O593" s="2"/>
     </row>
-    <row r="594" spans="1:15" ht="15.75" customHeight="1">
+    <row r="594" ht="15.75" customHeight="1">
       <c r="A594" s="16"/>
       <c r="O594" s="2"/>
     </row>
-    <row r="595" spans="1:15" ht="15.75" customHeight="1">
+    <row r="595" ht="15.75" customHeight="1">
       <c r="A595" s="16"/>
       <c r="O595" s="2"/>
     </row>
-    <row r="596" spans="1:15" ht="15.75" customHeight="1">
+    <row r="596" ht="15.75" customHeight="1">
       <c r="A596" s="16"/>
       <c r="O596" s="2"/>
     </row>
-    <row r="597" spans="1:15" ht="15.75" customHeight="1">
+    <row r="597" ht="15.75" customHeight="1">
       <c r="A597" s="16"/>
       <c r="O597" s="2"/>
     </row>
-    <row r="598" spans="1:15" ht="15.75" customHeight="1">
+    <row r="598" ht="15.75" customHeight="1">
       <c r="A598" s="16"/>
       <c r="O598" s="2"/>
     </row>
-    <row r="599" spans="1:15" ht="15.75" customHeight="1">
+    <row r="599" ht="15.75" customHeight="1">
       <c r="A599" s="16"/>
       <c r="O599" s="2"/>
     </row>
-    <row r="600" spans="1:15" ht="15.75" customHeight="1">
+    <row r="600" ht="15.75" customHeight="1">
       <c r="A600" s="16"/>
       <c r="O600" s="2"/>
     </row>
-    <row r="601" spans="1:15" ht="15.75" customHeight="1">
+    <row r="601" ht="15.75" customHeight="1">
       <c r="A601" s="16"/>
       <c r="O601" s="2"/>
     </row>
-    <row r="602" spans="1:15" ht="15.75" customHeight="1">
+    <row r="602" ht="15.75" customHeight="1">
       <c r="A602" s="16"/>
       <c r="O602" s="2"/>
     </row>
-    <row r="603" spans="1:15" ht="15.75" customHeight="1">
+    <row r="603" ht="15.75" customHeight="1">
       <c r="A603" s="16"/>
       <c r="O603" s="2"/>
     </row>
-    <row r="604" spans="1:15" ht="15.75" customHeight="1">
+    <row r="604" ht="15.75" customHeight="1">
       <c r="A604" s="16"/>
       <c r="O604" s="2"/>
     </row>
-    <row r="605" spans="1:15" ht="15.75" customHeight="1">
+    <row r="605" ht="15.75" customHeight="1">
       <c r="A605" s="16"/>
       <c r="O605" s="2"/>
     </row>
-    <row r="606" spans="1:15" ht="15.75" customHeight="1">
+    <row r="606" ht="15.75" customHeight="1">
       <c r="A606" s="16"/>
       <c r="O606" s="2"/>
     </row>
-    <row r="607" spans="1:15" ht="15.75" customHeight="1">
+    <row r="607" ht="15.75" customHeight="1">
       <c r="A607" s="16"/>
       <c r="O607" s="2"/>
     </row>
-    <row r="608" spans="1:15" ht="15.75" customHeight="1">
+    <row r="608" ht="15.75" customHeight="1">
       <c r="A608" s="16"/>
       <c r="O608" s="2"/>
     </row>
-    <row r="609" spans="1:15" ht="15.75" customHeight="1">
+    <row r="609" ht="15.75" customHeight="1">
       <c r="A609" s="16"/>
       <c r="O609" s="2"/>
     </row>
-    <row r="610" spans="1:15" ht="15.75" customHeight="1">
+    <row r="610" ht="15.75" customHeight="1">
       <c r="A610" s="16"/>
       <c r="O610" s="2"/>
     </row>
-    <row r="611" spans="1:15" ht="15.75" customHeight="1">
+    <row r="611" ht="15.75" customHeight="1">
       <c r="A611" s="16"/>
       <c r="O611" s="2"/>
     </row>
-    <row r="612" spans="1:15" ht="15.75" customHeight="1">
+    <row r="612" ht="15.75" customHeight="1">
       <c r="A612" s="16"/>
       <c r="O612" s="2"/>
     </row>
-    <row r="613" spans="1:15" ht="15.75" customHeight="1">
+    <row r="613" ht="15.75" customHeight="1">
       <c r="A613" s="16"/>
       <c r="O613" s="2"/>
     </row>
-    <row r="614" spans="1:15" ht="15.75" customHeight="1">
+    <row r="614" ht="15.75" customHeight="1">
       <c r="A614" s="16"/>
       <c r="O614" s="2"/>
     </row>
-    <row r="615" spans="1:15" ht="15.75" customHeight="1">
+    <row r="615" ht="15.75" customHeight="1">
       <c r="A615" s="16"/>
       <c r="O615" s="2"/>
     </row>
-    <row r="616" spans="1:15" ht="15.75" customHeight="1">
+    <row r="616" ht="15.75" customHeight="1">
       <c r="A616" s="16"/>
       <c r="O616" s="2"/>
     </row>
-    <row r="617" spans="1:15" ht="15.75" customHeight="1">
+    <row r="617" ht="15.75" customHeight="1">
       <c r="A617" s="16"/>
       <c r="O617" s="2"/>
     </row>
-    <row r="618" spans="1:15" ht="15.75" customHeight="1">
+    <row r="618" ht="15.75" customHeight="1">
       <c r="A618" s="16"/>
       <c r="O618" s="2"/>
     </row>
-    <row r="619" spans="1:15" ht="15.75" customHeight="1">
+    <row r="619" ht="15.75" customHeight="1">
       <c r="A619" s="16"/>
       <c r="O619" s="2"/>
     </row>
-    <row r="620" spans="1:15" ht="15.75" customHeight="1">
+    <row r="620" ht="15.75" customHeight="1">
       <c r="A620" s="16"/>
       <c r="O620" s="2"/>
     </row>
-    <row r="621" spans="1:15" ht="15.75" customHeight="1">
+    <row r="621" ht="15.75" customHeight="1">
       <c r="A621" s="16"/>
       <c r="O621" s="2"/>
     </row>
-    <row r="622" spans="1:15" ht="15.75" customHeight="1">
+    <row r="622" ht="15.75" customHeight="1">
       <c r="A622" s="16"/>
       <c r="O622" s="2"/>
     </row>
-    <row r="623" spans="1:15" ht="15.75" customHeight="1">
+    <row r="623" ht="15.75" customHeight="1">
       <c r="A623" s="16"/>
       <c r="O623" s="2"/>
     </row>
-    <row r="624" spans="1:15" ht="15.75" customHeight="1">
+    <row r="624" ht="15.75" customHeight="1">
       <c r="A624" s="16"/>
       <c r="O624" s="2"/>
     </row>
-    <row r="625" spans="1:15" ht="15.75" customHeight="1">
+    <row r="625" ht="15.75" customHeight="1">
       <c r="A625" s="16"/>
       <c r="O625" s="2"/>
     </row>
-    <row r="626" spans="1:15" ht="15.75" customHeight="1">
+    <row r="626" ht="15.75" customHeight="1">
       <c r="A626" s="16"/>
       <c r="O626" s="2"/>
     </row>
-    <row r="627" spans="1:15" ht="15.75" customHeight="1">
+    <row r="627" ht="15.75" customHeight="1">
       <c r="A627" s="16"/>
       <c r="O627" s="2"/>
     </row>
-    <row r="628" spans="1:15" ht="15.75" customHeight="1">
+    <row r="628" ht="15.75" customHeight="1">
       <c r="A628" s="16"/>
       <c r="O628" s="2"/>
     </row>
-    <row r="629" spans="1:15" ht="15.75" customHeight="1">
+    <row r="629" ht="15.75" customHeight="1">
       <c r="A629" s="16"/>
       <c r="O629" s="2"/>
     </row>
-    <row r="630" spans="1:15" ht="15.75" customHeight="1">
+    <row r="630" ht="15.75" customHeight="1">
       <c r="A630" s="16"/>
       <c r="O630" s="2"/>
     </row>
-    <row r="631" spans="1:15" ht="15.75" customHeight="1">
+    <row r="631" ht="15.75" customHeight="1">
       <c r="A631" s="16"/>
       <c r="O631" s="2"/>
     </row>
-    <row r="632" spans="1:15" ht="15.75" customHeight="1">
+    <row r="632" ht="15.75" customHeight="1">
       <c r="A632" s="16"/>
       <c r="O632" s="2"/>
     </row>
-    <row r="633" spans="1:15" ht="15.75" customHeight="1">
+    <row r="633" ht="15.75" customHeight="1">
       <c r="A633" s="16"/>
       <c r="O633" s="2"/>
     </row>
-    <row r="634" spans="1:15" ht="15.75" customHeight="1">
+    <row r="634" ht="15.75" customHeight="1">
       <c r="A634" s="16"/>
       <c r="O634" s="2"/>
     </row>
-    <row r="635" spans="1:15" ht="15.75" customHeight="1">
+    <row r="635" ht="15.75" customHeight="1">
       <c r="A635" s="16"/>
       <c r="O635" s="2"/>
     </row>
-    <row r="636" spans="1:15" ht="15.75" customHeight="1">
+    <row r="636" ht="15.75" customHeight="1">
       <c r="A636" s="16"/>
       <c r="O636" s="2"/>
     </row>
-    <row r="637" spans="1:15" ht="15.75" customHeight="1">
+    <row r="637" ht="15.75" customHeight="1">
       <c r="A637" s="16"/>
       <c r="O637" s="2"/>
     </row>
-    <row r="638" spans="1:15" ht="15.75" customHeight="1">
+    <row r="638" ht="15.75" customHeight="1">
       <c r="A638" s="16"/>
       <c r="O638" s="2"/>
     </row>
-    <row r="639" spans="1:15" ht="15.75" customHeight="1">
+    <row r="639" ht="15.75" customHeight="1">
       <c r="A639" s="16"/>
       <c r="O639" s="2"/>
     </row>
-    <row r="640" spans="1:15" ht="15.75" customHeight="1">
+    <row r="640" ht="15.75" customHeight="1">
       <c r="A640" s="16"/>
       <c r="O640" s="2"/>
     </row>
-    <row r="641" spans="1:15" ht="15.75" customHeight="1">
+    <row r="641" ht="15.75" customHeight="1">
       <c r="A641" s="16"/>
       <c r="O641" s="2"/>
     </row>
-    <row r="642" spans="1:15" ht="15.75" customHeight="1">
+    <row r="642" ht="15.75" customHeight="1">
       <c r="A642" s="16"/>
       <c r="O642" s="2"/>
     </row>
-    <row r="643" spans="1:15" ht="15.75" customHeight="1">
+    <row r="643" ht="15.75" customHeight="1">
       <c r="A643" s="16"/>
       <c r="O643" s="2"/>
     </row>
-    <row r="644" spans="1:15" ht="15.75" customHeight="1">
+    <row r="644" ht="15.75" customHeight="1">
       <c r="A644" s="16"/>
       <c r="O644" s="2"/>
     </row>
-    <row r="645" spans="1:15" ht="15.75" customHeight="1">
+    <row r="645" ht="15.75" customHeight="1">
       <c r="A645" s="16"/>
       <c r="O645" s="2"/>
     </row>
-    <row r="646" spans="1:15" ht="15.75" customHeight="1">
+    <row r="646" ht="15.75" customHeight="1">
       <c r="A646" s="16"/>
       <c r="O646" s="2"/>
     </row>
-    <row r="647" spans="1:15" ht="15.75" customHeight="1">
+    <row r="647" ht="15.75" customHeight="1">
       <c r="A647" s="16"/>
       <c r="O647" s="2"/>
     </row>
-    <row r="648" spans="1:15" ht="15.75" customHeight="1">
+    <row r="648" ht="15.75" customHeight="1">
       <c r="A648" s="16"/>
       <c r="O648" s="2"/>
     </row>
-    <row r="649" spans="1:15" ht="15.75" customHeight="1">
+    <row r="649" ht="15.75" customHeight="1">
       <c r="A649" s="16"/>
       <c r="O649" s="2"/>
     </row>
-    <row r="650" spans="1:15" ht="15.75" customHeight="1">
+    <row r="650" ht="15.75" customHeight="1">
       <c r="A650" s="16"/>
       <c r="O650" s="2"/>
     </row>
-    <row r="651" spans="1:15" ht="15.75" customHeight="1">
+    <row r="651" ht="15.75" customHeight="1">
       <c r="A651" s="16"/>
       <c r="O651" s="2"/>
     </row>
-    <row r="652" spans="1:15" ht="15.75" customHeight="1">
+    <row r="652" ht="15.75" customHeight="1">
       <c r="A652" s="16"/>
       <c r="O652" s="2"/>
     </row>
-    <row r="653" spans="1:15" ht="15.75" customHeight="1">
+    <row r="653" ht="15.75" customHeight="1">
       <c r="A653" s="16"/>
       <c r="O653" s="2"/>
     </row>
-    <row r="654" spans="1:15" ht="15.75" customHeight="1">
+    <row r="654" ht="15.75" customHeight="1">
       <c r="A654" s="16"/>
       <c r="O654" s="2"/>
     </row>
-    <row r="655" spans="1:15" ht="15.75" customHeight="1">
+    <row r="655" ht="15.75" customHeight="1">
       <c r="A655" s="16"/>
       <c r="O655" s="2"/>
     </row>
-    <row r="656" spans="1:15" ht="15.75" customHeight="1">
+    <row r="656" ht="15.75" customHeight="1">
       <c r="A656" s="16"/>
       <c r="O656" s="2"/>
     </row>
-    <row r="657" spans="1:15" ht="15.75" customHeight="1">
+    <row r="657" ht="15.75" customHeight="1">
       <c r="A657" s="16"/>
       <c r="O657" s="2"/>
     </row>
-    <row r="658" spans="1:15" ht="15.75" customHeight="1">
+    <row r="658" ht="15.75" customHeight="1">
       <c r="A658" s="16"/>
       <c r="O658" s="2"/>
     </row>
-    <row r="659" spans="1:15" ht="15.75" customHeight="1">
+    <row r="659" ht="15.75" customHeight="1">
       <c r="A659" s="16"/>
       <c r="O659" s="2"/>
     </row>
-    <row r="660" spans="1:15" ht="15.75" customHeight="1">
+    <row r="660" ht="15.75" customHeight="1">
       <c r="A660" s="16"/>
       <c r="O660" s="2"/>
     </row>
-    <row r="661" spans="1:15" ht="15.75" customHeight="1">
+    <row r="661" ht="15.75" customHeight="1">
       <c r="A661" s="16"/>
       <c r="O661" s="2"/>
     </row>
-    <row r="662" spans="1:15" ht="15.75" customHeight="1">
+    <row r="662" ht="15.75" customHeight="1">
       <c r="A662" s="16"/>
       <c r="O662" s="2"/>
     </row>
-    <row r="663" spans="1:15" ht="15.75" customHeight="1">
+    <row r="663" ht="15.75" customHeight="1">
       <c r="A663" s="16"/>
       <c r="O663" s="2"/>
     </row>
-    <row r="664" spans="1:15" ht="15.75" customHeight="1">
+    <row r="664" ht="15.75" customHeight="1">
       <c r="A664" s="16"/>
       <c r="O664" s="2"/>
     </row>
-    <row r="665" spans="1:15" ht="15.75" customHeight="1">
+    <row r="665" ht="15.75" customHeight="1">
       <c r="A665" s="16"/>
       <c r="O665" s="2"/>
     </row>
-    <row r="666" spans="1:15" ht="15.75" customHeight="1">
+    <row r="666" ht="15.75" customHeight="1">
       <c r="A666" s="16"/>
       <c r="O666" s="2"/>
     </row>
-    <row r="667" spans="1:15" ht="15.75" customHeight="1">
+    <row r="667" ht="15.75" customHeight="1">
       <c r="A667" s="16"/>
       <c r="O667" s="2"/>
     </row>
-    <row r="668" spans="1:15" ht="15.75" customHeight="1">
+    <row r="668" ht="15.75" customHeight="1">
       <c r="A668" s="16"/>
       <c r="O668" s="2"/>
     </row>
-    <row r="669" spans="1:15" ht="15.75" customHeight="1">
+    <row r="669" ht="15.75" customHeight="1">
       <c r="A669" s="16"/>
       <c r="O669" s="2"/>
     </row>
-    <row r="670" spans="1:15" ht="15.75" customHeight="1">
+    <row r="670" ht="15.75" customHeight="1">
       <c r="A670" s="16"/>
       <c r="O670" s="2"/>
     </row>
-    <row r="671" spans="1:15" ht="15.75" customHeight="1">
+    <row r="671" ht="15.75" customHeight="1">
       <c r="A671" s="16"/>
       <c r="O671" s="2"/>
     </row>
-    <row r="672" spans="1:15" ht="15.75" customHeight="1">
+    <row r="672" ht="15.75" customHeight="1">
       <c r="A672" s="16"/>
       <c r="O672" s="2"/>
     </row>
-    <row r="673" spans="1:15" ht="15.75" customHeight="1">
+    <row r="673" ht="15.75" customHeight="1">
       <c r="A673" s="16"/>
       <c r="O673" s="2"/>
     </row>
-    <row r="674" spans="1:15" ht="15.75" customHeight="1">
+    <row r="674" ht="15.75" customHeight="1">
       <c r="A674" s="16"/>
       <c r="O674" s="2"/>
     </row>
-    <row r="675" spans="1:15" ht="15.75" customHeight="1">
+    <row r="675" ht="15.75" customHeight="1">
       <c r="A675" s="16"/>
       <c r="O675" s="2"/>
     </row>
-    <row r="676" spans="1:15" ht="15.75" customHeight="1">
+    <row r="676" ht="15.75" customHeight="1">
       <c r="A676" s="16"/>
       <c r="O676" s="2"/>
     </row>
-    <row r="677" spans="1:15" ht="15.75" customHeight="1">
+    <row r="677" ht="15.75" customHeight="1">
       <c r="A677" s="16"/>
       <c r="O677" s="2"/>
     </row>
-    <row r="678" spans="1:15" ht="15.75" customHeight="1">
+    <row r="678" ht="15.75" customHeight="1">
       <c r="A678" s="16"/>
       <c r="O678" s="2"/>
     </row>
-    <row r="679" spans="1:15" ht="15.75" customHeight="1">
+    <row r="679" ht="15.75" customHeight="1">
       <c r="A679" s="16"/>
       <c r="O679" s="2"/>
     </row>
-    <row r="680" spans="1:15" ht="15.75" customHeight="1">
+    <row r="680" ht="15.75" customHeight="1">
       <c r="A680" s="16"/>
       <c r="O680" s="2"/>
     </row>
-    <row r="681" spans="1:15" ht="15.75" customHeight="1">
+    <row r="681" ht="15.75" customHeight="1">
       <c r="A681" s="16"/>
       <c r="O681" s="2"/>
     </row>
-    <row r="682" spans="1:15" ht="15.75" customHeight="1">
+    <row r="682" ht="15.75" customHeight="1">
       <c r="A682" s="16"/>
       <c r="O682" s="2"/>
     </row>
-    <row r="683" spans="1:15" ht="15.75" customHeight="1">
+    <row r="683" ht="15.75" customHeight="1">
       <c r="A683" s="16"/>
       <c r="O683" s="2"/>
     </row>
-    <row r="684" spans="1:15" ht="15.75" customHeight="1">
+    <row r="684" ht="15.75" customHeight="1">
       <c r="A684" s="16"/>
       <c r="O684" s="2"/>
     </row>
-    <row r="685" spans="1:15" ht="15.75" customHeight="1">
+    <row r="685" ht="15.75" customHeight="1">
       <c r="A685" s="16"/>
       <c r="O685" s="2"/>
     </row>
-    <row r="686" spans="1:15" ht="15.75" customHeight="1">
+    <row r="686" ht="15.75" customHeight="1">
       <c r="A686" s="16"/>
       <c r="O686" s="2"/>
     </row>
-    <row r="687" spans="1:15" ht="15.75" customHeight="1">
+    <row r="687" ht="15.75" customHeight="1">
       <c r="A687" s="16"/>
       <c r="O687" s="2"/>
     </row>
-    <row r="688" spans="1:15" ht="15.75" customHeight="1">
+    <row r="688" ht="15.75" customHeight="1">
       <c r="A688" s="16"/>
       <c r="O688" s="2"/>
     </row>
-    <row r="689" spans="1:15" ht="15.75" customHeight="1">
+    <row r="689" ht="15.75" customHeight="1">
       <c r="A689" s="16"/>
       <c r="O689" s="2"/>
     </row>
-    <row r="690" spans="1:15" ht="15.75" customHeight="1">
+    <row r="690" ht="15.75" customHeight="1">
       <c r="A690" s="16"/>
       <c r="O690" s="2"/>
     </row>
-    <row r="691" spans="1:15" ht="15.75" customHeight="1">
+    <row r="691" ht="15.75" customHeight="1">
       <c r="A691" s="16"/>
       <c r="O691" s="2"/>
     </row>
-    <row r="692" spans="1:15" ht="15.75" customHeight="1">
+    <row r="692" ht="15.75" customHeight="1">
       <c r="A692" s="16"/>
       <c r="O692" s="2"/>
     </row>
-    <row r="693" spans="1:15" ht="15.75" customHeight="1">
+    <row r="693" ht="15.75" customHeight="1">
       <c r="A693" s="16"/>
       <c r="O693" s="2"/>
     </row>
-    <row r="694" spans="1:15" ht="15.75" customHeight="1">
+    <row r="694" ht="15.75" customHeight="1">
       <c r="A694" s="16"/>
       <c r="O694" s="2"/>
     </row>
-    <row r="695" spans="1:15" ht="15.75" customHeight="1">
+    <row r="695" ht="15.75" customHeight="1">
       <c r="A695" s="16"/>
       <c r="O695" s="2"/>
     </row>
-    <row r="696" spans="1:15" ht="15.75" customHeight="1">
+    <row r="696" ht="15.75" customHeight="1">
       <c r="A696" s="16"/>
       <c r="O696" s="2"/>
     </row>
-    <row r="697" spans="1:15" ht="15.75" customHeight="1">
+    <row r="697" ht="15.75" customHeight="1">
       <c r="A697" s="16"/>
       <c r="O697" s="2"/>
     </row>
-    <row r="698" spans="1:15" ht="15.75" customHeight="1">
+    <row r="698" ht="15.75" customHeight="1">
       <c r="A698" s="16"/>
       <c r="O698" s="2"/>
     </row>
-    <row r="699" spans="1:15" ht="15.75" customHeight="1">
+    <row r="699" ht="15.75" customHeight="1">
       <c r="A699" s="16"/>
       <c r="O699" s="2"/>
     </row>
-    <row r="700" spans="1:15" ht="15.75" customHeight="1">
+    <row r="700" ht="15.75" customHeight="1">
       <c r="A700" s="16"/>
       <c r="O700" s="2"/>
     </row>
-    <row r="701" spans="1:15" ht="15.75" customHeight="1">
+    <row r="701" ht="15.75" customHeight="1">
       <c r="A701" s="16"/>
       <c r="O701" s="2"/>
     </row>
-    <row r="702" spans="1:15" ht="15.75" customHeight="1">
+    <row r="702" ht="15.75" customHeight="1">
       <c r="A702" s="16"/>
       <c r="O702" s="2"/>
     </row>
-    <row r="703" spans="1:15" ht="15.75" customHeight="1">
+    <row r="703" ht="15.75" customHeight="1">
       <c r="A703" s="16"/>
       <c r="O703" s="2"/>
     </row>
-    <row r="704" spans="1:15" ht="15.75" customHeight="1">
+    <row r="704" ht="15.75" customHeight="1">
       <c r="A704" s="16"/>
       <c r="O704" s="2"/>
     </row>
-    <row r="705" spans="1:15" ht="15.75" customHeight="1">
+    <row r="705" ht="15.75" customHeight="1">
       <c r="A705" s="16"/>
       <c r="O705" s="2"/>
     </row>
-    <row r="706" spans="1:15" ht="15.75" customHeight="1">
+    <row r="706" ht="15.75" customHeight="1">
       <c r="A706" s="16"/>
       <c r="O706" s="2"/>
     </row>
-    <row r="707" spans="1:15" ht="15.75" customHeight="1">
+    <row r="707" ht="15.75" customHeight="1">
       <c r="A707" s="16"/>
       <c r="O707" s="2"/>
     </row>
-    <row r="708" spans="1:15" ht="15.75" customHeight="1">
+    <row r="708" ht="15.75" customHeight="1">
       <c r="A708" s="16"/>
       <c r="O708" s="2"/>
     </row>
-    <row r="709" spans="1:15" ht="15.75" customHeight="1">
+    <row r="709" ht="15.75" customHeight="1">
       <c r="A709" s="16"/>
       <c r="O709" s="2"/>
     </row>
-    <row r="710" spans="1:15" ht="15.75" customHeight="1">
+    <row r="710" ht="15.75" customHeight="1">
       <c r="A710" s="16"/>
       <c r="O710" s="2"/>
     </row>
-    <row r="711" spans="1:15" ht="15.75" customHeight="1">
+    <row r="711" ht="15.75" customHeight="1">
       <c r="A711" s="16"/>
       <c r="O711" s="2"/>
     </row>
-    <row r="712" spans="1:15" ht="15.75" customHeight="1">
+    <row r="712" ht="15.75" customHeight="1">
       <c r="A712" s="16"/>
       <c r="O712" s="2"/>
     </row>
-    <row r="713" spans="1:15" ht="15.75" customHeight="1">
+    <row r="713" ht="15.75" customHeight="1">
       <c r="A713" s="16"/>
       <c r="O713" s="2"/>
     </row>
-    <row r="714" spans="1:15" ht="15.75" customHeight="1">
+    <row r="714" ht="15.75" customHeight="1">
       <c r="A714" s="16"/>
       <c r="O714" s="2"/>
     </row>
-    <row r="715" spans="1:15" ht="15.75" customHeight="1">
+    <row r="715" ht="15.75" customHeight="1">
       <c r="A715" s="16"/>
       <c r="O715" s="2"/>
     </row>
-    <row r="716" spans="1:15" ht="15.75" customHeight="1">
+    <row r="716" ht="15.75" customHeight="1">
       <c r="A716" s="16"/>
       <c r="O716" s="2"/>
     </row>
-    <row r="717" spans="1:15" ht="15.75" customHeight="1">
+    <row r="717" ht="15.75" customHeight="1">
       <c r="A717" s="16"/>
       <c r="O717" s="2"/>
     </row>
-    <row r="718" spans="1:15" ht="15.75" customHeight="1">
+    <row r="718" ht="15.75" customHeight="1">
       <c r="A718" s="16"/>
       <c r="O718" s="2"/>
     </row>
-    <row r="719" spans="1:15" ht="15.75" customHeight="1">
+    <row r="719" ht="15.75" customHeight="1">
       <c r="A719" s="16"/>
       <c r="O719" s="2"/>
     </row>
-    <row r="720" spans="1:15" ht="15.75" customHeight="1">
+    <row r="720" ht="15.75" customHeight="1">
       <c r="A720" s="16"/>
       <c r="O720" s="2"/>
     </row>
-    <row r="721" spans="1:15" ht="15.75" customHeight="1">
+    <row r="721" ht="15.75" customHeight="1">
       <c r="A721" s="16"/>
       <c r="O721" s="2"/>
     </row>
-    <row r="722" spans="1:15" ht="15.75" customHeight="1">
+    <row r="722" ht="15.75" customHeight="1">
       <c r="A722" s="16"/>
       <c r="O722" s="2"/>
     </row>
-    <row r="723" spans="1:15" ht="15.75" customHeight="1">
+    <row r="723" ht="15.75" customHeight="1">
       <c r="A723" s="16"/>
       <c r="O723" s="2"/>
     </row>
-    <row r="724" spans="1:15" ht="15.75" customHeight="1">
+    <row r="724" ht="15.75" customHeight="1">
       <c r="A724" s="16"/>
       <c r="O724" s="2"/>
     </row>
-    <row r="725" spans="1:15" ht="15.75" customHeight="1">
+    <row r="725" ht="15.75" customHeight="1">
       <c r="A725" s="16"/>
       <c r="O725" s="2"/>
     </row>
-    <row r="726" spans="1:15" ht="15.75" customHeight="1">
+    <row r="726" ht="15.75" customHeight="1">
       <c r="A726" s="16"/>
       <c r="O726" s="2"/>
     </row>
-    <row r="727" spans="1:15" ht="15.75" customHeight="1">
+    <row r="727" ht="15.75" customHeight="1">
       <c r="A727" s="16"/>
       <c r="O727" s="2"/>
     </row>
-    <row r="728" spans="1:15" ht="15.75" customHeight="1">
+    <row r="728" ht="15.75" customHeight="1">
       <c r="A728" s="16"/>
       <c r="O728" s="2"/>
     </row>
-    <row r="729" spans="1:15" ht="15.75" customHeight="1">
+    <row r="729" ht="15.75" customHeight="1">
       <c r="A729" s="16"/>
       <c r="O729" s="2"/>
     </row>
-    <row r="730" spans="1:15" ht="15.75" customHeight="1">
+    <row r="730" ht="15.75" customHeight="1">
       <c r="A730" s="16"/>
       <c r="O730" s="2"/>
     </row>
-    <row r="731" spans="1:15" ht="15.75" customHeight="1">
+    <row r="731" ht="15.75" customHeight="1">
       <c r="A731" s="16"/>
       <c r="O731" s="2"/>
     </row>
-    <row r="732" spans="1:15" ht="15.75" customHeight="1">
+    <row r="732" ht="15.75" customHeight="1">
       <c r="A732" s="16"/>
       <c r="O732" s="2"/>
     </row>
-    <row r="733" spans="1:15" ht="15.75" customHeight="1">
+    <row r="733" ht="15.75" customHeight="1">
       <c r="A733" s="16"/>
       <c r="O733" s="2"/>
     </row>
-    <row r="734" spans="1:15" ht="15.75" customHeight="1">
+    <row r="734" ht="15.75" customHeight="1">
       <c r="A734" s="16"/>
       <c r="O734" s="2"/>
     </row>
-    <row r="735" spans="1:15" ht="15.75" customHeight="1">
+    <row r="735" ht="15.75" customHeight="1">
       <c r="A735" s="16"/>
       <c r="O735" s="2"/>
     </row>
-    <row r="736" spans="1:15" ht="15.75" customHeight="1">
+    <row r="736" ht="15.75" customHeight="1">
       <c r="A736" s="16"/>
       <c r="O736" s="2"/>
     </row>
-    <row r="737" spans="1:15" ht="15.75" customHeight="1">
+    <row r="737" ht="15.75" customHeight="1">
       <c r="A737" s="16"/>
       <c r="O737" s="2"/>
     </row>
-    <row r="738" spans="1:15" ht="15.75" customHeight="1">
+    <row r="738" ht="15.75" customHeight="1">
       <c r="A738" s="16"/>
       <c r="O738" s="2"/>
     </row>
-    <row r="739" spans="1:15" ht="15.75" customHeight="1">
+    <row r="739" ht="15.75" customHeight="1">
       <c r="A739" s="16"/>
       <c r="O739" s="2"/>
     </row>
-    <row r="740" spans="1:15" ht="15.75" customHeight="1">
+    <row r="740" ht="15.75" customHeight="1">
       <c r="A740" s="16"/>
       <c r="O740" s="2"/>
     </row>
-    <row r="741" spans="1:15" ht="15.75" customHeight="1">
+    <row r="741" ht="15.75" customHeight="1">
       <c r="A741" s="16"/>
       <c r="O741" s="2"/>
     </row>
-    <row r="742" spans="1:15" ht="15.75" customHeight="1">
+    <row r="742" ht="15.75" customHeight="1">
       <c r="A742" s="16"/>
       <c r="O742" s="2"/>
     </row>
-    <row r="743" spans="1:15" ht="15.75" customHeight="1">
+    <row r="743" ht="15.75" customHeight="1">
       <c r="A743" s="16"/>
       <c r="O743" s="2"/>
     </row>
-    <row r="744" spans="1:15" ht="15.75" customHeight="1">
+    <row r="744" ht="15.75" customHeight="1">
       <c r="A744" s="16"/>
       <c r="O744" s="2"/>
     </row>
-    <row r="745" spans="1:15" ht="15.75" customHeight="1">
+    <row r="745" ht="15.75" customHeight="1">
       <c r="A745" s="16"/>
       <c r="O745" s="2"/>
     </row>
-    <row r="746" spans="1:15" ht="15.75" customHeight="1">
+    <row r="746" ht="15.75" customHeight="1">
       <c r="A746" s="16"/>
       <c r="O746" s="2"/>
     </row>
-    <row r="747" spans="1:15" ht="15.75" customHeight="1">
+    <row r="747" ht="15.75" customHeight="1">
       <c r="A747" s="16"/>
       <c r="O747" s="2"/>
     </row>
-    <row r="748" spans="1:15" ht="15.75" customHeight="1">
+    <row r="748" ht="15.75" customHeight="1">
       <c r="A748" s="16"/>
       <c r="O748" s="2"/>
     </row>
-    <row r="749" spans="1:15" ht="15.75" customHeight="1">
+    <row r="749" ht="15.75" customHeight="1">
       <c r="A749" s="16"/>
       <c r="O749" s="2"/>
     </row>
-    <row r="750" spans="1:15" ht="15.75" customHeight="1">
+    <row r="750" ht="15.75" customHeight="1">
       <c r="A750" s="16"/>
       <c r="O750" s="2"/>
     </row>
-    <row r="751" spans="1:15" ht="15.75" customHeight="1">
+    <row r="751" ht="15.75" customHeight="1">
       <c r="A751" s="16"/>
       <c r="O751" s="2"/>
     </row>
-    <row r="752" spans="1:15" ht="15.75" customHeight="1">
+    <row r="752" ht="15.75" customHeight="1">
       <c r="A752" s="16"/>
       <c r="O752" s="2"/>
     </row>
-    <row r="753" spans="1:15" ht="15.75" customHeight="1">
+    <row r="753" ht="15.75" customHeight="1">
       <c r="A753" s="16"/>
       <c r="O753" s="2"/>
     </row>
-    <row r="754" spans="1:15" ht="15.75" customHeight="1">
+    <row r="754" ht="15.75" customHeight="1">
       <c r="A754" s="16"/>
       <c r="O754" s="2"/>
     </row>
-    <row r="755" spans="1:15" ht="15.75" customHeight="1">
+    <row r="755" ht="15.75" customHeight="1">
       <c r="A755" s="16"/>
       <c r="O755" s="2"/>
     </row>
-    <row r="756" spans="1:15" ht="15.75" customHeight="1">
+    <row r="756" ht="15.75" customHeight="1">
       <c r="A756" s="16"/>
       <c r="O756" s="2"/>
     </row>
-    <row r="757" spans="1:15" ht="15.75" customHeight="1">
+    <row r="757" ht="15.75" customHeight="1">
       <c r="A757" s="16"/>
       <c r="O757" s="2"/>
     </row>
-    <row r="758" spans="1:15" ht="15.75" customHeight="1">
+    <row r="758" ht="15.75" customHeight="1">
       <c r="A758" s="16"/>
       <c r="O758" s="2"/>
     </row>
-    <row r="759" spans="1:15" ht="15.75" customHeight="1">
+    <row r="759" ht="15.75" customHeight="1">
       <c r="A759" s="16"/>
       <c r="O759" s="2"/>
     </row>
-    <row r="760" spans="1:15" ht="15.75" customHeight="1">
+    <row r="760" ht="15.75" customHeight="1">
       <c r="A760" s="16"/>
       <c r="O760" s="2"/>
     </row>
-    <row r="761" spans="1:15" ht="15.75" customHeight="1">
+    <row r="761" ht="15.75" customHeight="1">
       <c r="A761" s="16"/>
       <c r="O761" s="2"/>
     </row>
-    <row r="762" spans="1:15" ht="15.75" customHeight="1">
+    <row r="762" ht="15.75" customHeight="1">
       <c r="A762" s="16"/>
       <c r="O762" s="2"/>
     </row>
-    <row r="763" spans="1:15" ht="15.75" customHeight="1">
+    <row r="763" ht="15.75" customHeight="1">
       <c r="A763" s="16"/>
       <c r="O763" s="2"/>
     </row>
-    <row r="764" spans="1:15" ht="15.75" customHeight="1">
+    <row r="764" ht="15.75" customHeight="1">
       <c r="A764" s="16"/>
       <c r="O764" s="2"/>
     </row>
-    <row r="765" spans="1:15" ht="15.75" customHeight="1">
+    <row r="765" ht="15.75" customHeight="1">
       <c r="A765" s="16"/>
       <c r="O765" s="2"/>
     </row>
-    <row r="766" spans="1:15" ht="15.75" customHeight="1">
+    <row r="766" ht="15.75" customHeight="1">
       <c r="A766" s="16"/>
       <c r="O766" s="2"/>
     </row>
-    <row r="767" spans="1:15" ht="15.75" customHeight="1">
+    <row r="767" ht="15.75" customHeight="1">
       <c r="A767" s="16"/>
       <c r="O767" s="2"/>
     </row>
-    <row r="768" spans="1:15" ht="15.75" customHeight="1">
+    <row r="768" ht="15.75" customHeight="1">
       <c r="A768" s="16"/>
       <c r="O768" s="2"/>
     </row>
-    <row r="769" spans="1:15" ht="15.75" customHeight="1">
+    <row r="769" ht="15.75" customHeight="1">
       <c r="A769" s="16"/>
       <c r="O769" s="2"/>
     </row>
-    <row r="770" spans="1:15" ht="15.75" customHeight="1">
+    <row r="770" ht="15.75" customHeight="1">
       <c r="A770" s="16"/>
       <c r="O770" s="2"/>
     </row>
-    <row r="771" spans="1:15" ht="15.75" customHeight="1">
+    <row r="771" ht="15.75" customHeight="1">
       <c r="A771" s="16"/>
       <c r="O771" s="2"/>
     </row>
-    <row r="772" spans="1:15" ht="15.75" customHeight="1">
+    <row r="772" ht="15.75" customHeight="1">
       <c r="A772" s="16"/>
       <c r="O772" s="2"/>
     </row>
-    <row r="773" spans="1:15" ht="15.75" customHeight="1">
+    <row r="773" ht="15.75" customHeight="1">
       <c r="A773" s="16"/>
       <c r="O773" s="2"/>
     </row>
-    <row r="774" spans="1:15" ht="15.75" customHeight="1">
+    <row r="774" ht="15.75" customHeight="1">
       <c r="A774" s="16"/>
       <c r="O774" s="2"/>
     </row>
-    <row r="775" spans="1:15" ht="15.75" customHeight="1">
+    <row r="775" ht="15.75" customHeight="1">
       <c r="A775" s="16"/>
       <c r="O775" s="2"/>
     </row>
-    <row r="776" spans="1:15" ht="15.75" customHeight="1">
+    <row r="776" ht="15.75" customHeight="1">
       <c r="A776" s="16"/>
       <c r="O776" s="2"/>
     </row>
-    <row r="777" spans="1:15" ht="15.75" customHeight="1">
+    <row r="777" ht="15.75" customHeight="1">
       <c r="A777" s="16"/>
       <c r="O777" s="2"/>
     </row>
-    <row r="778" spans="1:15" ht="15.75" customHeight="1">
+    <row r="778" ht="15.75" customHeight="1">
       <c r="A778" s="16"/>
       <c r="O778" s="2"/>
     </row>
-    <row r="779" spans="1:15" ht="15.75" customHeight="1">
+    <row r="779" ht="15.75" customHeight="1">
       <c r="A779" s="16"/>
       <c r="O779" s="2"/>
     </row>
-    <row r="780" spans="1:15" ht="15.75" customHeight="1">
+    <row r="780" ht="15.75" customHeight="1">
       <c r="A780" s="16"/>
       <c r="O780" s="2"/>
     </row>
-    <row r="781" spans="1:15" ht="15.75" customHeight="1">
+    <row r="781" ht="15.75" customHeight="1">
       <c r="A781" s="16"/>
       <c r="O781" s="2"/>
     </row>
-    <row r="782" spans="1:15" ht="15.75" customHeight="1">
+    <row r="782" ht="15.75" customHeight="1">
       <c r="A782" s="16"/>
       <c r="O782" s="2"/>
     </row>
-    <row r="783" spans="1:15" ht="15.75" customHeight="1">
+    <row r="783" ht="15.75" customHeight="1">
       <c r="A783" s="16"/>
       <c r="O783" s="2"/>
     </row>
-    <row r="784" spans="1:15" ht="15.75" customHeight="1">
+    <row r="784" ht="15.75" customHeight="1">
       <c r="A784" s="16"/>
       <c r="O784" s="2"/>
     </row>
-    <row r="785" spans="1:15" ht="15.75" customHeight="1">
+    <row r="785" ht="15.75" customHeight="1">
       <c r="A785" s="16"/>
       <c r="O785" s="2"/>
     </row>
-    <row r="786" spans="1:15" ht="15.75" customHeight="1">
+    <row r="786" ht="15.75" customHeight="1">
       <c r="A786" s="16"/>
       <c r="O786" s="2"/>
     </row>
-    <row r="787" spans="1:15" ht="15.75" customHeight="1">
+    <row r="787" ht="15.75" customHeight="1">
       <c r="A787" s="16"/>
       <c r="O787" s="2"/>
     </row>
-    <row r="788" spans="1:15" ht="15.75" customHeight="1">
+    <row r="788" ht="15.75" customHeight="1">
       <c r="A788" s="16"/>
       <c r="O788" s="2"/>
     </row>
-    <row r="789" spans="1:15" ht="15.75" customHeight="1">
+    <row r="789" ht="15.75" customHeight="1">
       <c r="A789" s="16"/>
       <c r="O789" s="2"/>
     </row>
-    <row r="790" spans="1:15" ht="15.75" customHeight="1">
+    <row r="790" ht="15.75" customHeight="1">
       <c r="A790" s="16"/>
       <c r="O790" s="2"/>
     </row>
-    <row r="791" spans="1:15" ht="15.75" customHeight="1">
+    <row r="791" ht="15.75" customHeight="1">
       <c r="A791" s="16"/>
       <c r="O791" s="2"/>
     </row>
-    <row r="792" spans="1:15" ht="15.75" customHeight="1">
+    <row r="792" ht="15.75" customHeight="1">
       <c r="A792" s="16"/>
       <c r="O792" s="2"/>
     </row>
-    <row r="793" spans="1:15" ht="15.75" customHeight="1">
+    <row r="793" ht="15.75" customHeight="1">
       <c r="A793" s="16"/>
       <c r="O793" s="2"/>
     </row>
-    <row r="794" spans="1:15" ht="15.75" customHeight="1">
+    <row r="794" ht="15.75" customHeight="1">
       <c r="A794" s="16"/>
       <c r="O794" s="2"/>
     </row>
-    <row r="795" spans="1:15" ht="15.75" customHeight="1">
+    <row r="795" ht="15.75" customHeight="1">
       <c r="A795" s="16"/>
       <c r="O795" s="2"/>
     </row>
-    <row r="796" spans="1:15" ht="15.75" customHeight="1">
+    <row r="796" ht="15.75" customHeight="1">
       <c r="A796" s="16"/>
       <c r="O796" s="2"/>
     </row>
-    <row r="797" spans="1:15" ht="15.75" customHeight="1">
+    <row r="797" ht="15.75" customHeight="1">
       <c r="A797" s="16"/>
       <c r="O797" s="2"/>
     </row>
-    <row r="798" spans="1:15" ht="15.75" customHeight="1">
+    <row r="798" ht="15.75" customHeight="1">
       <c r="A798" s="16"/>
       <c r="O798" s="2"/>
     </row>
-    <row r="799" spans="1:15" ht="15.75" customHeight="1">
+    <row r="799" ht="15.75" customHeight="1">
       <c r="A799" s="16"/>
       <c r="O799" s="2"/>
     </row>
-    <row r="800" spans="1:15" ht="15.75" customHeight="1">
+    <row r="800" ht="15.75" customHeight="1">
       <c r="A800" s="16"/>
       <c r="O800" s="2"/>
     </row>
-    <row r="801" spans="1:15" ht="15.75" customHeight="1">
+    <row r="801" ht="15.75" customHeight="1">
       <c r="A801" s="16"/>
       <c r="O801" s="2"/>
     </row>
-    <row r="802" spans="1:15" ht="15.75" customHeight="1">
+    <row r="802" ht="15.75" customHeight="1">
       <c r="A802" s="16"/>
       <c r="O802" s="2"/>
     </row>
-    <row r="803" spans="1:15" ht="15.75" customHeight="1">
+    <row r="803" ht="15.75" customHeight="1">
       <c r="A803" s="16"/>
       <c r="O803" s="2"/>
     </row>
-    <row r="804" spans="1:15" ht="15.75" customHeight="1">
+    <row r="804" ht="15.75" customHeight="1">
       <c r="A804" s="16"/>
       <c r="O804" s="2"/>
     </row>
-    <row r="805" spans="1:15" ht="15.75" customHeight="1">
+    <row r="805" ht="15.75" customHeight="1">
       <c r="A805" s="16"/>
       <c r="O805" s="2"/>
     </row>
-    <row r="806" spans="1:15" ht="15.75" customHeight="1">
+    <row r="806" ht="15.75" customHeight="1">
       <c r="A806" s="16"/>
       <c r="O806" s="2"/>
     </row>
-    <row r="807" spans="1:15" ht="15.75" customHeight="1">
+    <row r="807" ht="15.75" customHeight="1">
       <c r="A807" s="16"/>
       <c r="O807" s="2"/>
     </row>
-    <row r="808" spans="1:15" ht="15.75" customHeight="1">
+    <row r="808" ht="15.75" customHeight="1">
       <c r="A808" s="16"/>
       <c r="O808" s="2"/>
     </row>
-    <row r="809" spans="1:15" ht="15.75" customHeight="1">
+    <row r="809" ht="15.75" customHeight="1">
       <c r="A809" s="16"/>
       <c r="O809" s="2"/>
     </row>
-    <row r="810" spans="1:15" ht="15.75" customHeight="1">
+    <row r="810" ht="15.75" customHeight="1">
       <c r="A810" s="16"/>
       <c r="O810" s="2"/>
     </row>
-    <row r="811" spans="1:15" ht="15.75" customHeight="1">
+    <row r="811" ht="15.75" customHeight="1">
       <c r="A811" s="16"/>
       <c r="O811" s="2"/>
     </row>
-    <row r="812" spans="1:15" ht="15.75" customHeight="1">
+    <row r="812" ht="15.75" customHeight="1">
       <c r="A812" s="16"/>
       <c r="O812" s="2"/>
     </row>
-    <row r="813" spans="1:15" ht="15.75" customHeight="1">
+    <row r="813" ht="15.75" customHeight="1">
       <c r="A813" s="16"/>
       <c r="O813" s="2"/>
     </row>
-    <row r="814" spans="1:15" ht="15.75" customHeight="1">
+    <row r="814" ht="15.75" customHeight="1">
       <c r="A814" s="16"/>
       <c r="O814" s="2"/>
     </row>
-    <row r="815" spans="1:15" ht="15.75" customHeight="1">
+    <row r="815" ht="15.75" customHeight="1">
       <c r="A815" s="16"/>
       <c r="O815" s="2"/>
     </row>
-    <row r="816" spans="1:15" ht="15.75" customHeight="1">
+    <row r="816" ht="15.75" customHeight="1">
       <c r="A816" s="16"/>
       <c r="O816" s="2"/>
     </row>
-    <row r="817" spans="1:15" ht="15.75" customHeight="1">
+    <row r="817" ht="15.75" customHeight="1">
       <c r="A817" s="16"/>
       <c r="O817" s="2"/>
     </row>
-    <row r="818" spans="1:15" ht="15.75" customHeight="1">
+    <row r="818" ht="15.75" customHeight="1">
       <c r="A818" s="16"/>
       <c r="O818" s="2"/>
     </row>
-    <row r="819" spans="1:15" ht="15.75" customHeight="1">
+    <row r="819" ht="15.75" customHeight="1">
       <c r="A819" s="16"/>
       <c r="O819" s="2"/>
     </row>
-    <row r="820" spans="1:15" ht="15.75" customHeight="1">
+    <row r="820" ht="15.75" customHeight="1">
       <c r="A820" s="16"/>
       <c r="O820" s="2"/>
     </row>
-    <row r="821" spans="1:15" ht="15.75" customHeight="1">
+    <row r="821" ht="15.75" customHeight="1">
       <c r="A821" s="16"/>
       <c r="O821" s="2"/>
     </row>
-    <row r="822" spans="1:15" ht="15.75" customHeight="1">
+    <row r="822" ht="15.75" customHeight="1">
       <c r="A822" s="16"/>
       <c r="O822" s="2"/>
     </row>
-    <row r="823" spans="1:15" ht="15.75" customHeight="1">
+    <row r="823" ht="15.75" customHeight="1">
       <c r="A823" s="16"/>
       <c r="O823" s="2"/>
     </row>
-    <row r="824" spans="1:15" ht="15.75" customHeight="1">
+    <row r="824" ht="15.75" customHeight="1">
       <c r="A824" s="16"/>
       <c r="O824" s="2"/>
     </row>
-    <row r="825" spans="1:15" ht="15.75" customHeight="1">
+    <row r="825" ht="15.75" customHeight="1">
       <c r="A825" s="16"/>
       <c r="O825" s="2"/>
     </row>
-    <row r="826" spans="1:15" ht="15.75" customHeight="1">
+    <row r="826" ht="15.75" customHeight="1">
       <c r="A826" s="16"/>
       <c r="O826" s="2"/>
     </row>
-    <row r="827" spans="1:15" ht="15.75" customHeight="1">
+    <row r="827" ht="15.75" customHeight="1">
       <c r="A827" s="16"/>
       <c r="O827" s="2"/>
     </row>
-    <row r="828" spans="1:15" ht="15.75" customHeight="1">
+    <row r="828" ht="15.75" customHeight="1">
       <c r="A828" s="16"/>
       <c r="O828" s="2"/>
     </row>
-    <row r="829" spans="1:15" ht="15.75" customHeight="1">
+    <row r="829" ht="15.75" customHeight="1">
       <c r="A829" s="16"/>
       <c r="O829" s="2"/>
     </row>
-    <row r="830" spans="1:15" ht="15.75" customHeight="1">
+    <row r="830" ht="15.75" customHeight="1">
       <c r="A830" s="16"/>
       <c r="O830" s="2"/>
     </row>
-    <row r="831" spans="1:15" ht="15.75" customHeight="1">
+    <row r="831" ht="15.75" customHeight="1">
       <c r="A831" s="16"/>
       <c r="O831" s="2"/>
     </row>
-    <row r="832" spans="1:15" ht="15.75" customHeight="1">
+    <row r="832" ht="15.75" customHeight="1">
       <c r="A832" s="16"/>
       <c r="O832" s="2"/>
     </row>
-    <row r="833" spans="1:15" ht="15.75" customHeight="1">
+    <row r="833" ht="15.75" customHeight="1">
       <c r="A833" s="16"/>
       <c r="O833" s="2"/>
     </row>
-    <row r="834" spans="1:15" ht="15.75" customHeight="1">
+    <row r="834" ht="15.75" customHeight="1">
       <c r="A834" s="16"/>
       <c r="O834" s="2"/>
     </row>
-    <row r="835" spans="1:15" ht="15.75" customHeight="1">
+    <row r="835" ht="15.75" customHeight="1">
       <c r="A835" s="16"/>
       <c r="O835" s="2"/>
     </row>
-    <row r="836" spans="1:15" ht="15.75" customHeight="1">
+    <row r="836" ht="15.75" customHeight="1">
       <c r="A836" s="16"/>
       <c r="O836" s="2"/>
     </row>
-    <row r="837" spans="1:15" ht="15.75" customHeight="1">
+    <row r="837" ht="15.75" customHeight="1">
       <c r="A837" s="16"/>
       <c r="O837" s="2"/>
     </row>
-    <row r="838" spans="1:15" ht="15.75" customHeight="1">
+    <row r="838" ht="15.75" customHeight="1">
       <c r="A838" s="16"/>
       <c r="O838" s="2"/>
     </row>
-    <row r="839" spans="1:15" ht="15.75" customHeight="1">
+    <row r="839" ht="15.75" customHeight="1">
       <c r="A839" s="16"/>
       <c r="O839" s="2"/>
     </row>
-    <row r="840" spans="1:15" ht="15.75" customHeight="1">
+    <row r="840" ht="15.75" customHeight="1">
       <c r="A840" s="16"/>
       <c r="O840" s="2"/>
     </row>
-    <row r="841" spans="1:15" ht="15.75" customHeight="1">
+    <row r="841" ht="15.75" customHeight="1">
       <c r="A841" s="16"/>
       <c r="O841" s="2"/>
     </row>
-    <row r="842" spans="1:15" ht="15.75" customHeight="1">
+    <row r="842" ht="15.75" customHeight="1">
       <c r="A842" s="16"/>
       <c r="O842" s="2"/>
     </row>
-    <row r="843" spans="1:15" ht="15.75" customHeight="1">
+    <row r="843" ht="15.75" customHeight="1">
       <c r="A843" s="16"/>
       <c r="O843" s="2"/>
     </row>
-    <row r="844" spans="1:15" ht="15.75" customHeight="1">
+    <row r="844" ht="15.75" customHeight="1">
       <c r="A844" s="16"/>
       <c r="O844" s="2"/>
     </row>
-    <row r="845" spans="1:15" ht="15.75" customHeight="1">
+    <row r="845" ht="15.75" customHeight="1">
       <c r="A845" s="16"/>
       <c r="O845" s="2"/>
     </row>
-    <row r="846" spans="1:15" ht="15.75" customHeight="1">
+    <row r="846" ht="15.75" customHeight="1">
       <c r="A846" s="16"/>
       <c r="O846" s="2"/>
     </row>
-    <row r="847" spans="1:15" ht="15.75" customHeight="1">
+    <row r="847" ht="15.75" customHeight="1">
       <c r="A847" s="16"/>
       <c r="O847" s="2"/>
     </row>
-    <row r="848" spans="1:15" ht="15.75" customHeight="1">
+    <row r="848" ht="15.75" customHeight="1">
       <c r="A848" s="16"/>
       <c r="O848" s="2"/>
     </row>
-    <row r="849" spans="1:15" ht="15.75" customHeight="1">
+    <row r="849" ht="15.75" customHeight="1">
       <c r="A849" s="16"/>
       <c r="O849" s="2"/>
     </row>
-    <row r="850" spans="1:15" ht="15.75" customHeight="1">
+    <row r="850" ht="15.75" customHeight="1">
       <c r="A850" s="16"/>
       <c r="O850" s="2"/>
     </row>
-    <row r="851" spans="1:15" ht="15.75" customHeight="1">
+    <row r="851" ht="15.75" customHeight="1">
       <c r="A851" s="16"/>
       <c r="O851" s="2"/>
     </row>
-    <row r="852" spans="1:15" ht="15.75" customHeight="1">
+    <row r="852" ht="15.75" customHeight="1">
       <c r="A852" s="16"/>
       <c r="O852" s="2"/>
     </row>
-    <row r="853" spans="1:15" ht="15.75" customHeight="1">
+    <row r="853" ht="15.75" customHeight="1">
       <c r="A853" s="16"/>
       <c r="O853" s="2"/>
     </row>
-    <row r="854" spans="1:15" ht="15.75" customHeight="1">
+    <row r="854" ht="15.75" customHeight="1">
       <c r="A854" s="16"/>
       <c r="O854" s="2"/>
     </row>
-    <row r="855" spans="1:15" ht="15.75" customHeight="1">
+    <row r="855" ht="15.75" customHeight="1">
       <c r="A855" s="16"/>
       <c r="O855" s="2"/>
     </row>
-    <row r="856" spans="1:15" ht="15.75" customHeight="1">
+    <row r="856" ht="15.75" customHeight="1">
       <c r="A856" s="16"/>
       <c r="O856" s="2"/>
     </row>
-    <row r="857" spans="1:15" ht="15.75" customHeight="1">
+    <row r="857" ht="15.75" customHeight="1">
       <c r="A857" s="16"/>
       <c r="O857" s="2"/>
     </row>
-    <row r="858" spans="1:15" ht="15.75" customHeight="1">
+    <row r="858" ht="15.75" customHeight="1">
       <c r="A858" s="16"/>
       <c r="O858" s="2"/>
     </row>
-    <row r="859" spans="1:15" ht="15.75" customHeight="1">
+    <row r="859" ht="15.75" customHeight="1">
       <c r="A859" s="16"/>
       <c r="O859" s="2"/>
     </row>
-    <row r="860" spans="1:15" ht="15.75" customHeight="1">
+    <row r="860" ht="15.75" customHeight="1">
       <c r="A860" s="16"/>
       <c r="O860" s="2"/>
     </row>
-    <row r="861" spans="1:15" ht="15.75" customHeight="1">
+    <row r="861" ht="15.75" customHeight="1">
       <c r="A861" s="16"/>
       <c r="O861" s="2"/>
     </row>
-    <row r="862" spans="1:15" ht="15.75" customHeight="1">
+    <row r="862" ht="15.75" customHeight="1">
       <c r="A862" s="16"/>
       <c r="O862" s="2"/>
     </row>
-    <row r="863" spans="1:15" ht="15.75" customHeight="1">
+    <row r="863" ht="15.75" customHeight="1">
       <c r="A863" s="16"/>
       <c r="O863" s="2"/>
     </row>
-    <row r="864" spans="1:15" ht="15.75" customHeight="1">
+    <row r="864" ht="15.75" customHeight="1">
       <c r="A864" s="16"/>
       <c r="O864" s="2"/>
     </row>
-    <row r="865" spans="1:15" ht="15.75" customHeight="1">
+    <row r="865" ht="15.75" customHeight="1">
       <c r="A865" s="16"/>
       <c r="O865" s="2"/>
     </row>
-    <row r="866" spans="1:15" ht="15.75" customHeight="1">
+    <row r="866" ht="15.75" customHeight="1">
       <c r="A866" s="16"/>
       <c r="O866" s="2"/>
     </row>
-    <row r="867" spans="1:15" ht="15.75" customHeight="1">
+    <row r="867" ht="15.75" customHeight="1">
       <c r="A867" s="16"/>
       <c r="O867" s="2"/>
     </row>
-    <row r="868" spans="1:15" ht="15.75" customHeight="1">
+    <row r="868" ht="15.75" customHeight="1">
       <c r="A868" s="16"/>
       <c r="O868" s="2"/>
     </row>
-    <row r="869" spans="1:15" ht="15.75" customHeight="1">
+    <row r="869" ht="15.75" customHeight="1">
       <c r="A869" s="16"/>
       <c r="O869" s="2"/>
     </row>
-    <row r="870" spans="1:15" ht="15.75" customHeight="1">
+    <row r="870" ht="15.75" customHeight="1">
       <c r="A870" s="16"/>
       <c r="O870" s="2"/>
     </row>
-    <row r="871" spans="1:15" ht="15.75" customHeight="1">
+    <row r="871" ht="15.75" customHeight="1">
       <c r="A871" s="16"/>
       <c r="O871" s="2"/>
     </row>
-    <row r="872" spans="1:15" ht="15.75" customHeight="1">
+    <row r="872" ht="15.75" customHeight="1">
       <c r="A872" s="16"/>
       <c r="O872" s="2"/>
     </row>
-    <row r="873" spans="1:15" ht="15.75" customHeight="1">
+    <row r="873" ht="15.75" customHeight="1">
       <c r="A873" s="16"/>
       <c r="O873" s="2"/>
     </row>
-    <row r="874" spans="1:15" ht="15.75" customHeight="1">
+    <row r="874" ht="15.75" customHeight="1">
       <c r="A874" s="16"/>
       <c r="O874" s="2"/>
     </row>
-    <row r="875" spans="1:15" ht="15.75" customHeight="1">
+    <row r="875" ht="15.75" customHeight="1">
       <c r="A875" s="16"/>
       <c r="O875" s="2"/>
     </row>
-    <row r="876" spans="1:15" ht="15.75" customHeight="1">
+    <row r="876" ht="15.75" customHeight="1">
       <c r="A876" s="16"/>
       <c r="O876" s="2"/>
     </row>
-    <row r="877" spans="1:15" ht="15.75" customHeight="1">
+    <row r="877" ht="15.75" customHeight="1">
       <c r="A877" s="16"/>
       <c r="O877" s="2"/>
     </row>
-    <row r="878" spans="1:15" ht="15.75" customHeight="1">
+    <row r="878" ht="15.75" customHeight="1">
       <c r="A878" s="16"/>
       <c r="O878" s="2"/>
     </row>
-    <row r="879" spans="1:15" ht="15.75" customHeight="1">
+    <row r="879" ht="15.75" customHeight="1">
       <c r="A879" s="16"/>
       <c r="O879" s="2"/>
     </row>
-    <row r="880" spans="1:15" ht="15.75" customHeight="1">
+    <row r="880" ht="15.75" customHeight="1">
       <c r="A880" s="16"/>
       <c r="O880" s="2"/>
     </row>
-    <row r="881" spans="1:15" ht="15.75" customHeight="1">
+    <row r="881" ht="15.75" customHeight="1">
       <c r="A881" s="16"/>
       <c r="O881" s="2"/>
     </row>
-    <row r="882" spans="1:15" ht="15.75" customHeight="1">
+    <row r="882" ht="15.75" customHeight="1">
       <c r="A882" s="16"/>
       <c r="O882" s="2"/>
     </row>
-    <row r="883" spans="1:15" ht="15.75" customHeight="1">
+    <row r="883" ht="15.75" customHeight="1">
       <c r="A883" s="16"/>
       <c r="O883" s="2"/>
     </row>
-    <row r="884" spans="1:15" ht="15.75" customHeight="1">
+    <row r="884" ht="15.75" customHeight="1">
       <c r="A884" s="16"/>
       <c r="O884" s="2"/>
     </row>
-    <row r="885" spans="1:15" ht="15.75" customHeight="1">
+    <row r="885" ht="15.75" customHeight="1">
       <c r="A885" s="16"/>
       <c r="O885" s="2"/>
     </row>
-    <row r="886" spans="1:15" ht="15.75" customHeight="1">
+    <row r="886" ht="15.75" customHeight="1">
       <c r="A886" s="16"/>
       <c r="O886" s="2"/>
     </row>
-    <row r="887" spans="1:15" ht="15.75" customHeight="1">
+    <row r="887" ht="15.75" customHeight="1">
       <c r="A887" s="16"/>
       <c r="O887" s="2"/>
     </row>
-    <row r="888" spans="1:15" ht="15.75" customHeight="1">
+    <row r="888" ht="15.75" customHeight="1">
       <c r="A888" s="16"/>
       <c r="O888" s="2"/>
     </row>
-    <row r="889" spans="1:15" ht="15.75" customHeight="1">
+    <row r="889" ht="15.75" customHeight="1">
       <c r="A889" s="16"/>
       <c r="O889" s="2"/>
     </row>
-    <row r="890" spans="1:15" ht="15.75" customHeight="1">
+    <row r="890" ht="15.75" customHeight="1">
       <c r="A890" s="16"/>
       <c r="O890" s="2"/>
     </row>
-    <row r="891" spans="1:15" ht="15.75" customHeight="1">
+    <row r="891" ht="15.75" customHeight="1">
       <c r="A891" s="16"/>
       <c r="O891" s="2"/>
     </row>
-    <row r="892" spans="1:15" ht="15.75" customHeight="1">
+    <row r="892" ht="15.75" customHeight="1">
       <c r="A892" s="16"/>
       <c r="O892" s="2"/>
     </row>
-    <row r="893" spans="1:15" ht="15.75" customHeight="1">
+    <row r="893" ht="15.75" customHeight="1">
       <c r="A893" s="16"/>
       <c r="O893" s="2"/>
     </row>
-    <row r="894" spans="1:15" ht="15.75" customHeight="1">
+    <row r="894" ht="15.75" customHeight="1">
       <c r="A894" s="16"/>
       <c r="O894" s="2"/>
     </row>
-    <row r="895" spans="1:15" ht="15.75" customHeight="1">
+    <row r="895" ht="15.75" customHeight="1">
       <c r="A895" s="16"/>
       <c r="O895" s="2"/>
     </row>
-    <row r="896" spans="1:15" ht="15.75" customHeight="1">
+    <row r="896" ht="15.75" customHeight="1">
       <c r="A896" s="16"/>
       <c r="O896" s="2"/>
     </row>
-    <row r="897" spans="1:15" ht="15.75" customHeight="1">
+    <row r="897" ht="15.75" customHeight="1">
       <c r="A897" s="16"/>
       <c r="O897" s="2"/>
     </row>
-    <row r="898" spans="1:15" ht="15.75" customHeight="1">
+    <row r="898" ht="15.75" customHeight="1">
       <c r="A898" s="16"/>
       <c r="O898" s="2"/>
     </row>
-    <row r="899" spans="1:15" ht="15.75" customHeight="1">
+    <row r="899" ht="15.75" customHeight="1">
       <c r="A899" s="16"/>
       <c r="O899" s="2"/>
     </row>
-    <row r="900" spans="1:15" ht="15.75" customHeight="1">
+    <row r="900" ht="15.75" customHeight="1">
       <c r="A900" s="16"/>
       <c r="O900" s="2"/>
     </row>
-    <row r="901" spans="1:15" ht="15.75" customHeight="1">
+    <row r="901" ht="15.75" customHeight="1">
       <c r="A901" s="16"/>
       <c r="O901" s="2"/>
     </row>
-    <row r="902" spans="1:15" ht="15.75" customHeight="1">
+    <row r="902" ht="15.75" customHeight="1">
       <c r="A902" s="16"/>
       <c r="O902" s="2"/>
     </row>
-    <row r="903" spans="1:15" ht="15.75" customHeight="1">
+    <row r="903" ht="15.75" customHeight="1">
       <c r="A903" s="16"/>
       <c r="O903" s="2"/>
     </row>
-    <row r="904" spans="1:15" ht="15.75" customHeight="1">
+    <row r="904" ht="15.75" customHeight="1">
       <c r="A904" s="16"/>
       <c r="O904" s="2"/>
     </row>
-    <row r="905" spans="1:15" ht="15.75" customHeight="1">
+    <row r="905" ht="15.75" customHeight="1">
       <c r="A905" s="16"/>
       <c r="O905" s="2"/>
     </row>
-    <row r="906" spans="1:15" ht="15.75" customHeight="1">
+    <row r="906" ht="15.75" customHeight="1">
       <c r="A906" s="16"/>
       <c r="O906" s="2"/>
     </row>
-    <row r="907" spans="1:15" ht="15.75" customHeight="1">
+    <row r="907" ht="15.75" customHeight="1">
       <c r="A907" s="16"/>
       <c r="O907" s="2"/>
     </row>
-    <row r="908" spans="1:15" ht="15.75" customHeight="1">
+    <row r="908" ht="15.75" customHeight="1">
       <c r="A908" s="16"/>
       <c r="O908" s="2"/>
     </row>
-    <row r="909" spans="1:15" ht="15.75" customHeight="1">
+    <row r="909" ht="15.75" customHeight="1">
       <c r="A909" s="16"/>
       <c r="O909" s="2"/>
     </row>
-    <row r="910" spans="1:15" ht="15.75" customHeight="1">
+    <row r="910" ht="15.75" customHeight="1">
       <c r="A910" s="16"/>
       <c r="O910" s="2"/>
     </row>
-    <row r="911" spans="1:15" ht="15.75" customHeight="1">
+    <row r="911" ht="15.75" customHeight="1">
       <c r="A911" s="16"/>
       <c r="O911" s="2"/>
     </row>
-    <row r="912" spans="1:15" ht="15.75" customHeight="1">
+    <row r="912" ht="15.75" customHeight="1">
       <c r="A912" s="16"/>
       <c r="O912" s="2"/>
     </row>
-    <row r="913" spans="1:15" ht="15.75" customHeight="1">
+    <row r="913" ht="15.75" customHeight="1">
       <c r="A913" s="16"/>
       <c r="O913" s="2"/>
     </row>
-    <row r="914" spans="1:15" ht="15.75" customHeight="1">
+    <row r="914" ht="15.75" customHeight="1">
       <c r="A914" s="16"/>
       <c r="O914" s="2"/>
     </row>
-    <row r="915" spans="1:15" ht="15.75" customHeight="1">
+    <row r="915" ht="15.75" customHeight="1">
       <c r="A915" s="16"/>
       <c r="O915" s="2"/>
     </row>
-    <row r="916" spans="1:15" ht="15.75" customHeight="1">
+    <row r="916" ht="15.75" customHeight="1">
       <c r="A916" s="16"/>
       <c r="O916" s="2"/>
     </row>
-    <row r="917" spans="1:15" ht="15.75" customHeight="1">
+    <row r="917" ht="15.75" customHeight="1">
       <c r="A917" s="16"/>
       <c r="O917" s="2"/>
     </row>
-    <row r="918" spans="1:15" ht="15.75" customHeight="1">
+    <row r="918" ht="15.75" customHeight="1">
       <c r="A918" s="16"/>
       <c r="O918" s="2"/>
     </row>
-    <row r="919" spans="1:15" ht="15.75" customHeight="1">
+    <row r="919" ht="15.75" customHeight="1">
       <c r="A919" s="16"/>
       <c r="O919" s="2"/>
     </row>
-    <row r="920" spans="1:15" ht="15.75" customHeight="1">
+    <row r="920" ht="15.75" customHeight="1">
       <c r="A920" s="16"/>
       <c r="O920" s="2"/>
     </row>
-    <row r="921" spans="1:15" ht="15.75" customHeight="1">
+    <row r="921" ht="15.75" customHeight="1">
       <c r="A921" s="16"/>
       <c r="O921" s="2"/>
     </row>
-    <row r="922" spans="1:15" ht="15.75" customHeight="1">
+    <row r="922" ht="15.75" customHeight="1">
       <c r="A922" s="16"/>
       <c r="O922" s="2"/>
     </row>
-    <row r="923" spans="1:15" ht="15.75" customHeight="1">
+    <row r="923" ht="15.75" customHeight="1">
       <c r="A923" s="16"/>
       <c r="O923" s="2"/>
     </row>
-    <row r="924" spans="1:15" ht="15.75" customHeight="1">
+    <row r="924" ht="15.75" customHeight="1">
       <c r="A924" s="16"/>
       <c r="O924" s="2"/>
     </row>
-    <row r="925" spans="1:15" ht="15.75" customHeight="1">
+    <row r="925" ht="15.75" customHeight="1">
       <c r="A925" s="16"/>
       <c r="O925" s="2"/>
     </row>
-    <row r="926" spans="1:15" ht="15.75" customHeight="1">
+    <row r="926" ht="15.75" customHeight="1">
       <c r="A926" s="16"/>
       <c r="O926" s="2"/>
     </row>
-    <row r="927" spans="1:15" ht="15.75" customHeight="1">
+    <row r="927" ht="15.75" customHeight="1">
       <c r="A927" s="16"/>
       <c r="O927" s="2"/>
     </row>
-    <row r="928" spans="1:15" ht="15.75" customHeight="1">
+    <row r="928" ht="15.75" customHeight="1">
       <c r="A928" s="16"/>
       <c r="O928" s="2"/>
     </row>
-    <row r="929" spans="1:15" ht="15.75" customHeight="1">
+    <row r="929" ht="15.75" customHeight="1">
       <c r="A929" s="16"/>
       <c r="O929" s="2"/>
     </row>
-    <row r="930" spans="1:15" ht="15.75" customHeight="1">
+    <row r="930" ht="15.75" customHeight="1">
       <c r="A930" s="16"/>
       <c r="O930" s="2"/>
     </row>
-    <row r="931" spans="1:15" ht="15.75" customHeight="1">
+    <row r="931" ht="15.75" customHeight="1">
       <c r="A931" s="16"/>
       <c r="O931" s="2"/>
     </row>
-    <row r="932" spans="1:15" ht="15.75" customHeight="1">
+    <row r="932" ht="15.75" customHeight="1">
       <c r="A932" s="16"/>
       <c r="O932" s="2"/>
     </row>
-    <row r="933" spans="1:15" ht="15.75" customHeight="1">
+    <row r="933" ht="15.75" customHeight="1">
       <c r="A933" s="16"/>
       <c r="O933" s="2"/>
     </row>
-    <row r="934" spans="1:15" ht="15.75" customHeight="1">
+    <row r="934" ht="15.75" customHeight="1">
       <c r="A934" s="16"/>
       <c r="O934" s="2"/>
     </row>
-    <row r="935" spans="1:15" ht="15.75" customHeight="1">
+    <row r="935" ht="15.75" customHeight="1">
       <c r="A935" s="16"/>
       <c r="O935" s="2"/>
     </row>
-    <row r="936" spans="1:15" ht="15.75" customHeight="1">
+    <row r="936" ht="15.75" customHeight="1">
       <c r="A936" s="16"/>
       <c r="O936" s="2"/>
     </row>
-    <row r="937" spans="1:15" ht="15.75" customHeight="1">
+    <row r="937" ht="15.75" customHeight="1">
       <c r="A937" s="16"/>
       <c r="O937" s="2"/>
     </row>
-    <row r="938" spans="1:15" ht="15.75" customHeight="1">
+    <row r="938" ht="15.75" customHeight="1">
       <c r="A938" s="16"/>
       <c r="O938" s="2"/>
     </row>
-    <row r="939" spans="1:15" ht="15.75" customHeight="1">
+    <row r="939" ht="15.75" customHeight="1">
       <c r="A939" s="16"/>
       <c r="O939" s="2"/>
     </row>
@@ -5850,7 +5782,9 @@
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="A44:I44"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/VGPs_NAM/4.xlsx
+++ b/data/VGPs_NAM/4.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mghw0cPCfUtqhZaFwQ965SCwvNfQQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjpsdrWGTLGQbM/wsZEDKb2Z9y2zw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="78">
   <si>
     <t>Study level data</t>
   </si>
@@ -83,6 +83,9 @@
     <t>age</t>
   </si>
   <si>
+    <t>2_sigma</t>
+  </si>
+  <si>
     <t>min_age</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
     <t>Q</t>
   </si>
   <si>
+    <t>kept_by_auth</t>
+  </si>
+  <si>
     <t>ref</t>
   </si>
   <si>
@@ -110,16 +116,19 @@
     <t>Trans Mexican Volcanic Belt</t>
   </si>
   <si>
+    <t>uniform</t>
+  </si>
+  <si>
     <t>volcanic</t>
   </si>
   <si>
     <t>Ruiz-Martínez et al. (2010)</t>
   </si>
   <si>
-    <t>Ferrari et al., 1999 /GSA database</t>
-  </si>
-  <si>
-    <t>Quaternary samples from the study</t>
+    <t>Gibbard and Head, 2020</t>
+  </si>
+  <si>
+    <t>VGPs are all of 'Quaternary' age</t>
   </si>
   <si>
     <t>Site level data</t>
@@ -160,10 +169,13 @@
     <t>qwnTEQ</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>qcnAGU</t>
   </si>
   <si>
-    <t>Gaussian</t>
+    <t>normal</t>
   </si>
   <si>
     <t>Ferrari et al., 1999 /GSA database sample HKA 1023</t>
@@ -214,6 +226,9 @@
     <t>Ferrari et al., 1999 /GSA database sample Hz 26</t>
   </si>
   <si>
+    <t>site rejected because VGP latitude below 44 degrees</t>
+  </si>
+  <si>
     <t>TO1</t>
   </si>
   <si>
@@ -251,6 +266,9 @@
   </si>
   <si>
     <t>SM11</t>
+  </si>
+  <si>
+    <t>site assumed rejected because VGP latitude below 44 degrees</t>
   </si>
   <si>
     <t>SM13</t>
@@ -272,11 +290,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="m/d"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -292,29 +309,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font/>
-    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -323,11 +331,14 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF2E2E2E"/>
     </font>
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF2E2E2E"/>
     </font>
     <font>
       <b/>
@@ -345,8 +356,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -356,33 +367,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border/>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -398,38 +389,20 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -437,53 +410,60 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -703,10 +683,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.38"/>
-    <col customWidth="1" min="2" max="2" width="14.5"/>
-    <col customWidth="1" min="3" max="20" width="9.38"/>
-    <col customWidth="1" min="21" max="21" width="17.0"/>
-    <col customWidth="1" min="22" max="28" width="9.38"/>
+    <col customWidth="1" min="2" max="2" width="10.38"/>
+    <col customWidth="1" min="3" max="21" width="9.38"/>
+    <col customWidth="1" min="22" max="22" width="12.25"/>
+    <col customWidth="1" min="23" max="23" width="17.0"/>
+    <col customWidth="1" min="24" max="30" width="9.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -761,7 +742,7 @@
       <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="Q2" s="3" t="s">
@@ -779,92 +760,101 @@
       <c r="U2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="X2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
+      <c r="A3" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="6">
         <v>19.4</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>260.1</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>24.0</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>359.5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>33.6</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>47.3</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>4.3</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="6">
         <v>-89.2</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="6">
         <v>310.9</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>70.7</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="6">
         <v>3.5</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="6">
         <v>3.5</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="6">
         <v>3.5</v>
       </c>
-      <c r="O3" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="P3" s="6">
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="6">
         <v>0.0</v>
       </c>
-      <c r="Q3" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="8">
+      <c r="R3" s="9">
+        <v>2.58</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="6">
         <v>5.0</v>
       </c>
-      <c r="U3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="3"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="16"/>
+      <c r="A4" s="10"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="O5" s="2"/>
     </row>
@@ -879,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
@@ -891,13 +881,13 @@
         <v>7</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>11</v>
@@ -914,7 +904,7 @@
       <c r="O6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="3" t="s">
@@ -932,590 +922,672 @@
       <c r="U6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="V6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="X6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6">
         <v>20.87</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="12">
         <v>-103.84</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>9.0</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>5.5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>29.8</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>47.4</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>7.6</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>82.8</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="6">
         <v>28.4</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="S7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y7" s="3"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="13"/>
+      <c r="V7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="6">
         <v>19.38</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>-102.24</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>9.0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>10.3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>31.5</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>30.1</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>8.5</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>79.9</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="6">
         <v>359.6</v>
       </c>
-      <c r="O8" s="21">
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="17">
         <v>0.55</v>
       </c>
-      <c r="P8" s="22">
-        <f>0.55-0.06</f>
-        <v>0.49</v>
-      </c>
-      <c r="Q8" s="22">
-        <f>0.55+0.06</f>
-        <v>0.61</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>38</v>
+      <c r="P8" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="13"/>
+      <c r="V8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="6">
+        <v>20.26</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-102.09</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>171.9</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-43.1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>225.0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="I9" s="6">
+        <v>81.1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>202.2</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="13"/>
+      <c r="V9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9">
-        <v>20.26</v>
-      </c>
-      <c r="C9" s="9">
-        <v>-102.09</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="W9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <v>19.35</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-102.07</v>
+      </c>
+      <c r="D10" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>44.4</v>
+      </c>
+      <c r="G10" s="6">
+        <v>330.0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I10" s="6">
+        <v>82.4</v>
+      </c>
+      <c r="J10" s="6">
+        <v>284.7</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="13"/>
+      <c r="V10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="6">
+        <v>19.54</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-101.61</v>
+      </c>
+      <c r="D11" s="6">
         <v>8.0</v>
       </c>
-      <c r="E9" s="9">
-        <v>171.9</v>
-      </c>
-      <c r="F9" s="9">
-        <v>-43.1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>225.0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="E11" s="6">
+        <v>175.9</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-45.6</v>
+      </c>
+      <c r="G11" s="6">
+        <v>148.9</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4.6</v>
+      </c>
+      <c r="I11" s="6">
+        <v>81.6</v>
+      </c>
+      <c r="J11" s="6">
+        <v>232.5</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="13"/>
+      <c r="V11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="6">
+        <v>19.59</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-101.58</v>
+      </c>
+      <c r="D12" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>189.1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-43.2</v>
+      </c>
+      <c r="G12" s="6">
+        <v>46.4</v>
+      </c>
+      <c r="H12" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="I12" s="6">
+        <v>79.9</v>
+      </c>
+      <c r="J12" s="6">
+        <v>313.3</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="17">
+        <v>0.54</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.07</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="13"/>
+      <c r="V12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6">
+        <v>19.63</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-101.44</v>
+      </c>
+      <c r="D13" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>179.0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>-23.1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>291.3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="I13" s="6">
+        <v>82.3</v>
+      </c>
+      <c r="J13" s="6">
+        <v>85.9</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="17">
+        <v>0.87</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="13"/>
+      <c r="V13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="19">
+        <v>19.29</v>
+      </c>
+      <c r="C14" s="19">
+        <v>-100.35</v>
+      </c>
+      <c r="D14" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>357.2</v>
+      </c>
+      <c r="F14" s="19">
+        <v>20.9</v>
+      </c>
+      <c r="G14" s="19">
+        <v>399.9</v>
+      </c>
+      <c r="H14" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="I14" s="19">
         <v>81.1</v>
       </c>
-      <c r="J9" s="9">
-        <v>202.2</v>
-      </c>
-      <c r="O9" s="21">
+      <c r="J14" s="19">
+        <v>97.7</v>
+      </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="13"/>
+      <c r="V14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="19">
+        <v>19.31</v>
+      </c>
+      <c r="C15" s="19">
+        <v>-100.35</v>
+      </c>
+      <c r="D15" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>348.0</v>
+      </c>
+      <c r="F15" s="19">
+        <v>46.5</v>
+      </c>
+      <c r="G15" s="19">
+        <v>556.8</v>
+      </c>
+      <c r="H15" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="I15" s="19">
+        <v>76.1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>209.5</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="13"/>
+      <c r="V15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="19">
+        <v>19.38</v>
+      </c>
+      <c r="C16" s="19">
+        <v>-100.34</v>
+      </c>
+      <c r="D16" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="E16" s="19">
+        <v>28.1</v>
+      </c>
+      <c r="F16" s="19">
+        <v>42.2</v>
+      </c>
+      <c r="G16" s="19">
+        <v>204.7</v>
+      </c>
+      <c r="H16" s="19">
+        <v>3.4</v>
+      </c>
+      <c r="I16" s="19">
+        <v>63.5</v>
+      </c>
+      <c r="J16" s="19">
+        <v>333.7</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="19">
         <v>1.6</v>
       </c>
-      <c r="P9" s="22">
-        <f>O9-0.1</f>
-        <v>1.5</v>
-      </c>
-      <c r="Q9" s="22">
-        <f>O9+0.1</f>
-        <v>1.7</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="17" t="s">
+      <c r="P16" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="9">
-        <v>19.35</v>
-      </c>
-      <c r="C10" s="9">
-        <v>-102.07</v>
-      </c>
-      <c r="D10" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>3.8</v>
-      </c>
-      <c r="F10" s="9">
-        <v>44.4</v>
-      </c>
-      <c r="G10" s="9">
-        <v>330.0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="I10" s="9">
-        <v>82.4</v>
-      </c>
-      <c r="J10" s="9">
-        <v>284.7</v>
-      </c>
-      <c r="O10" s="19"/>
-      <c r="S10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U10" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="9">
-        <v>19.54</v>
-      </c>
-      <c r="C11" s="9">
-        <v>-101.61</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="T16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="13"/>
+      <c r="V16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="19">
+        <v>19.36</v>
+      </c>
+      <c r="C17" s="19">
+        <v>-100.32</v>
+      </c>
+      <c r="D17" s="19">
         <v>8.0</v>
       </c>
-      <c r="E11" s="9">
-        <v>175.9</v>
-      </c>
-      <c r="F11" s="9">
-        <v>-45.6</v>
-      </c>
-      <c r="G11" s="9">
-        <v>148.9</v>
-      </c>
-      <c r="H11" s="9">
-        <v>4.6</v>
-      </c>
-      <c r="I11" s="9">
-        <v>81.6</v>
-      </c>
-      <c r="J11" s="9">
-        <v>232.5</v>
-      </c>
-      <c r="O11" s="19"/>
-      <c r="S11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U11" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="9">
-        <v>19.59</v>
-      </c>
-      <c r="C12" s="9">
-        <v>-101.58</v>
-      </c>
-      <c r="D12" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>189.1</v>
-      </c>
-      <c r="F12" s="9">
-        <v>-43.2</v>
-      </c>
-      <c r="G12" s="9">
-        <v>46.4</v>
-      </c>
-      <c r="H12" s="9">
-        <v>6.5</v>
-      </c>
-      <c r="I12" s="9">
-        <v>79.9</v>
-      </c>
-      <c r="J12" s="9">
-        <v>313.3</v>
-      </c>
-      <c r="O12" s="21">
-        <v>0.54</v>
-      </c>
-      <c r="P12" s="22">
-        <f>0.54-0.07</f>
-        <v>0.47</v>
-      </c>
-      <c r="Q12" s="22">
-        <f>0.54+0.07</f>
-        <v>0.61</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="9">
-        <v>19.63</v>
-      </c>
-      <c r="C13" s="9">
-        <v>-101.44</v>
-      </c>
-      <c r="D13" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>179.0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>-23.1</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="E17" s="19">
+        <v>313.0</v>
+      </c>
+      <c r="F17" s="19">
+        <v>19.4</v>
+      </c>
+      <c r="G17" s="19">
         <v>291.3</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H17" s="19">
         <v>2.9</v>
       </c>
-      <c r="I13" s="9">
-        <v>82.3</v>
-      </c>
-      <c r="J13" s="9">
-        <v>85.9</v>
-      </c>
-      <c r="O13" s="21">
-        <v>0.87</v>
-      </c>
-      <c r="P13" s="9">
-        <v>0.82</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>0.92</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="24">
-        <v>19.29</v>
-      </c>
-      <c r="C14" s="24">
-        <v>-100.35</v>
-      </c>
-      <c r="D14" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E14" s="24">
-        <v>357.2</v>
-      </c>
-      <c r="F14" s="24">
-        <v>20.9</v>
-      </c>
-      <c r="G14" s="24">
-        <v>399.9</v>
-      </c>
-      <c r="H14" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="I14" s="24">
-        <v>81.1</v>
-      </c>
-      <c r="J14" s="24">
-        <v>97.7</v>
-      </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="P14" s="24">
-        <v>1.2</v>
-      </c>
-      <c r="Q14" s="24">
-        <v>1.8</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="24">
-        <v>19.31</v>
-      </c>
-      <c r="C15" s="24">
-        <v>-100.35</v>
-      </c>
-      <c r="D15" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="E15" s="24">
-        <v>348.0</v>
-      </c>
-      <c r="F15" s="24">
-        <v>46.5</v>
-      </c>
-      <c r="G15" s="24">
-        <v>556.8</v>
-      </c>
-      <c r="H15" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="I15" s="24">
-        <v>76.1</v>
-      </c>
-      <c r="J15" s="24">
-        <v>209.5</v>
-      </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="S15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U15" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="24">
-        <v>19.38</v>
-      </c>
-      <c r="C16" s="24">
-        <v>-100.34</v>
-      </c>
-      <c r="D16" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="E16" s="24">
-        <v>28.1</v>
-      </c>
-      <c r="F16" s="24">
-        <v>42.2</v>
-      </c>
-      <c r="G16" s="24">
-        <v>204.7</v>
-      </c>
-      <c r="H16" s="24">
-        <v>3.4</v>
-      </c>
-      <c r="I16" s="24">
-        <v>63.5</v>
-      </c>
-      <c r="J16" s="24">
-        <v>333.7</v>
-      </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="24">
-        <v>1.6</v>
-      </c>
-      <c r="P16" s="24">
-        <v>1.3</v>
-      </c>
-      <c r="Q16" s="24">
-        <v>1.9</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="24">
-        <v>19.36</v>
-      </c>
-      <c r="C17" s="24">
-        <v>-100.32</v>
-      </c>
-      <c r="D17" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E17" s="24">
-        <v>313.0</v>
-      </c>
-      <c r="F17" s="24">
-        <v>19.4</v>
-      </c>
-      <c r="G17" s="24">
-        <v>291.3</v>
-      </c>
-      <c r="H17" s="24">
-        <v>2.9</v>
-      </c>
-      <c r="I17" s="24">
+      <c r="I17" s="19">
         <v>43.7</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="19">
         <v>165.0</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="24">
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="19">
         <v>0.67</v>
       </c>
-      <c r="P17" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="Q17" s="24">
-        <v>0.74</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U17" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>53</v>
+      <c r="P17" s="19">
+        <v>0.07</v>
+      </c>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="21"/>
+      <c r="V17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="25">
+      <c r="A18" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="23">
         <f>round(19+(17.75/60),2)</f>
         <v>19.3</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="23">
         <f>-round(99+(23.95/60),2)</f>
         <v>-99.4</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="19">
         <v>10.0</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="19">
         <v>167.3</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="24">
         <v>-26.7</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="24">
         <v>130.5</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="24">
         <v>4.2</v>
       </c>
       <c r="I18" s="25"/>
@@ -1524,41 +1596,47 @@
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
-      <c r="O18" s="28"/>
+      <c r="O18" s="25"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
-      <c r="S18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U18" s="30" t="s">
-        <v>55</v>
+      <c r="R18" s="25"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="13"/>
+      <c r="V18" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="25">
+      <c r="A19" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="23">
         <f>round(19+(19/60),2)</f>
         <v>19.32</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="23">
         <f>-round(99+(19.52/60),2)</f>
         <v>-99.33</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="19">
         <v>10.0</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="19">
         <v>177.0</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="24">
         <v>-53.9</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="24">
         <v>80.1</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="24">
         <v>5.4</v>
       </c>
       <c r="I19" s="25"/>
@@ -1567,636 +1645,836 @@
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
-      <c r="O19" s="28"/>
+      <c r="O19" s="25"/>
       <c r="P19" s="25"/>
       <c r="Q19" s="25"/>
-      <c r="S19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U19" s="30" t="s">
-        <v>55</v>
+      <c r="R19" s="25"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" s="13"/>
+      <c r="V19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="25">
+      <c r="A20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="23">
         <f>round(19+(17.67/60),2)</f>
         <v>19.29</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="23">
         <f>-round(99+(20.45/60),2)</f>
         <v>-99.34</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>9.0</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="24">
         <v>362.2</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="24">
         <v>32.2</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="24">
         <v>170.4</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="24">
         <v>4.0</v>
       </c>
-      <c r="O20" s="21">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="17">
         <v>0.679</v>
       </c>
-      <c r="P20" s="22">
-        <f>O20-0.28</f>
-        <v>0.399</v>
-      </c>
-      <c r="Q20" s="22">
-        <f>O20+0.28</f>
-        <v>0.959</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="P20" s="6">
+        <v>0.28</v>
+      </c>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
       <c r="S20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U20" s="30" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="13"/>
+      <c r="V20" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="25">
+      <c r="A21" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="23">
         <f>round(19+(18.42/60),2)</f>
         <v>19.31</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="23">
         <f>-round(99+(20.67/60),2)</f>
         <v>-99.34</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="6">
         <v>8.0</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="24">
         <v>352.1</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="24">
         <v>45.6</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="24">
         <v>337.7</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="24">
         <v>3.0</v>
       </c>
-      <c r="O21" s="19"/>
-      <c r="S21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U21" s="30" t="s">
-        <v>55</v>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" s="13"/>
+      <c r="V21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="25">
+      <c r="A22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="23">
         <f>round(19+(19.9/60),2)</f>
         <v>19.33</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="23">
         <f>-round(98+(47/60),2)</f>
         <v>-98.78</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="6">
         <v>10.0</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="24">
         <v>358.3</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="24">
         <v>33.8</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="24">
         <v>108.8</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="24">
         <v>4.7</v>
       </c>
-      <c r="O22" s="28"/>
-      <c r="S22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U22" s="30" t="s">
-        <v>60</v>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" s="13"/>
+      <c r="V22" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W22" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="25">
+      <c r="A23" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="23">
         <f>round(19+(20.37/60),2)</f>
         <v>19.34</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="23">
         <f>-round(98+(42.83/60),2)</f>
         <v>-98.71</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>11.0</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="24">
         <v>324.6</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="24">
         <v>36.3</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="24">
         <v>93.0</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="24">
         <v>4.8</v>
       </c>
-      <c r="O23" s="28"/>
-      <c r="S23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U23" s="30" t="s">
-        <v>60</v>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23" s="13"/>
+      <c r="V23" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="25">
+      <c r="A24" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="23">
         <f>round(19+(19.35/60),2)</f>
         <v>19.32</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="23">
         <f>-round(98+(43.72/60),2)</f>
         <v>-98.73</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="6">
         <v>10.0</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="24">
         <v>191.0</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="24">
         <v>-32.0</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="24">
         <v>389.1</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="24">
         <v>2.5</v>
       </c>
-      <c r="O24" s="28"/>
-      <c r="S24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U24" s="30" t="s">
-        <v>60</v>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" s="13"/>
+      <c r="V24" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="25">
+      <c r="A25" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="23">
         <f>round(19+(20.63/60),2)</f>
         <v>19.34</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="23">
         <f>-round(98+(41.58/60),2)</f>
         <v>-98.69</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="6">
         <v>11.0</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="24">
         <v>343.7</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="24">
         <v>34.0</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="24">
         <v>35.1</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="24">
         <v>7.8</v>
       </c>
-      <c r="O25" s="28"/>
-      <c r="S25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U25" s="30" t="s">
-        <v>60</v>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" s="13"/>
+      <c r="V25" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W25" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="25">
+      <c r="A26" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="23">
         <f>round(19+(17.57/60),2)</f>
         <v>19.29</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="23">
         <f>-round(98+(40.65/60),2)</f>
         <v>-98.68</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="6">
         <v>13.0</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="24">
         <v>356.5</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="24">
         <v>38.2</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="24">
         <v>112.7</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="24">
         <v>3.9</v>
       </c>
-      <c r="O26" s="28"/>
-      <c r="S26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U26" s="30" t="s">
-        <v>60</v>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U26" s="13"/>
+      <c r="V26" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="25">
+      <c r="A27" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="23">
         <f>round(19+(16.83/60),2)</f>
         <v>19.28</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="23">
         <f>-round(98+(43.22/60),2)</f>
         <v>-98.72</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="6">
         <v>10.0</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="24">
         <v>6.2</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="24">
         <v>34.6</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="24">
         <v>84.4</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="24">
         <v>5.3</v>
       </c>
-      <c r="O27" s="28"/>
-      <c r="S27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U27" s="30" t="s">
-        <v>60</v>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27" s="13"/>
+      <c r="V27" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W27" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="25">
+      <c r="A28" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="23">
         <f>round(19+(3.55/60),2)</f>
         <v>19.06</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="23">
         <f>-round(98+(22.5/60),2)</f>
         <v>-98.38</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="6">
         <v>10.0</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="24">
         <v>5.8</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="24">
         <v>16.7</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="24">
         <v>48.4</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="24">
         <v>7.0</v>
       </c>
-      <c r="O28" s="28"/>
-      <c r="S28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U28" s="30" t="s">
-        <v>60</v>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U28" s="13"/>
+      <c r="V28" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="W28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="25">
+      <c r="A29" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="23">
         <f>round(19+(5.17/60),2)</f>
         <v>19.09</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="23">
         <f>-round(98+(35.35/60),2)</f>
         <v>-98.59</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="6">
         <v>13.0</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="24">
         <v>2.1</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="24">
         <v>32.9</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="24">
         <v>116.0</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="24">
         <v>3.9</v>
       </c>
-      <c r="O29" s="28"/>
-      <c r="S29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U29" s="30" t="s">
-        <v>60</v>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U29" s="13"/>
+      <c r="V29" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W29" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="25">
+      <c r="A30" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="23">
         <f>round(19+(5.57/60),2)</f>
         <v>19.09</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="23">
         <f>-round(98+(37.15/60),2)</f>
         <v>-98.62</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>9.0</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="24">
         <v>0.9</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="24">
         <v>19.7</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="24">
         <v>117.5</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="24">
         <v>3.9</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="S30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U30" s="30" t="s">
-        <v>60</v>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U30" s="13"/>
+      <c r="V30" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W30" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="25">
+      <c r="A31" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="23">
         <f>round(19+(8.15/ 60),2)</f>
         <v>19.14</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="23">
         <f>-round(98+(38.93/60),2)</f>
         <v>-98.65</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="6">
         <v>11.0</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="24">
         <v>4.4</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="24">
         <v>32.4</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="24">
         <v>84.1</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="24">
         <v>5.0</v>
       </c>
-      <c r="O31" s="28"/>
-      <c r="S31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U31" s="31" t="s">
-        <v>60</v>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U31" s="13"/>
+      <c r="V31" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W31" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="25">
+      <c r="A32" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="23">
         <f>round(19+(12.63/60),2)</f>
         <v>19.21</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="23">
         <f>-round(98+(44.43/60),2)</f>
         <v>-98.74</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="24">
         <v>11.0</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="24">
         <v>180.8</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="24">
         <v>-16.5</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="24">
         <v>357.2</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="24">
         <v>2.4</v>
       </c>
       <c r="I32" s="27"/>
-      <c r="O32" s="28"/>
-      <c r="S32" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U32" s="30" t="s">
-        <v>60</v>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U32" s="13"/>
+      <c r="V32" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="W32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y32" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="25">
+      <c r="A33" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="23">
         <f>round(19+(11.68/60),2)</f>
         <v>19.19</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="23">
         <f>-round(98+(347.78/60),2)</f>
         <v>-103.8</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="24">
         <v>11.0</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="24">
         <v>355.2</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="24">
         <v>24.4</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="24">
         <v>98.6</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="24">
         <v>4.6</v>
       </c>
-      <c r="I33" s="29"/>
-      <c r="O33" s="28"/>
-      <c r="S33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U33" s="30" t="s">
-        <v>60</v>
+      <c r="I33" s="28"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U33" s="13"/>
+      <c r="V33" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W33" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="27"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
       <c r="O34" s="2"/>
-      <c r="U34" s="31"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="27"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
       <c r="O35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
       <c r="O36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="33"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
       <c r="O37" s="2"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="27"/>
+      <c r="A38" s="22"/>
       <c r="O38" s="2"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="27"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
       <c r="O39" s="2"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="27"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
       <c r="O40" s="2"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="27"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
       <c r="O41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="27"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
       <c r="O42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="27"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
       <c r="O43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="16"/>
+      <c r="A44" s="10"/>
       <c r="O44" s="2"/>
     </row>
     <row r="45">
@@ -2212,3567 +2490,3567 @@
       <c r="O48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="16"/>
+      <c r="A49" s="10"/>
       <c r="O49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="16"/>
+      <c r="A50" s="10"/>
       <c r="O50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="16"/>
+      <c r="A51" s="10"/>
       <c r="O51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="16"/>
+      <c r="A52" s="10"/>
       <c r="O52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="16"/>
+      <c r="A53" s="10"/>
       <c r="O53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="16"/>
+      <c r="A54" s="10"/>
       <c r="O54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="16"/>
+      <c r="A55" s="10"/>
       <c r="O55" s="2"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="16"/>
+      <c r="A56" s="10"/>
       <c r="O56" s="2"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="16"/>
+      <c r="A57" s="10"/>
       <c r="O57" s="2"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="16"/>
+      <c r="A58" s="10"/>
       <c r="O58" s="2"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="16"/>
+      <c r="A59" s="10"/>
       <c r="O59" s="2"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="16"/>
+      <c r="A60" s="10"/>
       <c r="O60" s="2"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="16"/>
+      <c r="A61" s="10"/>
       <c r="O61" s="2"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="16"/>
+      <c r="A62" s="10"/>
       <c r="O62" s="2"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="16"/>
+      <c r="A63" s="10"/>
       <c r="O63" s="2"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="16"/>
+      <c r="A64" s="10"/>
       <c r="O64" s="2"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="16"/>
+      <c r="A65" s="10"/>
       <c r="O65" s="2"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="16"/>
+      <c r="A66" s="10"/>
       <c r="O66" s="2"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="16"/>
+      <c r="A67" s="10"/>
       <c r="O67" s="2"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="16"/>
+      <c r="A68" s="10"/>
       <c r="O68" s="2"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="16"/>
+      <c r="A69" s="10"/>
       <c r="O69" s="2"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="16"/>
+      <c r="A70" s="10"/>
       <c r="O70" s="2"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="16"/>
+      <c r="A71" s="10"/>
       <c r="O71" s="2"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="16"/>
+      <c r="A72" s="10"/>
       <c r="O72" s="2"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="16"/>
+      <c r="A73" s="10"/>
       <c r="O73" s="2"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="16"/>
+      <c r="A74" s="10"/>
       <c r="O74" s="2"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="16"/>
+      <c r="A75" s="10"/>
       <c r="O75" s="2"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="16"/>
+      <c r="A76" s="10"/>
       <c r="O76" s="2"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="16"/>
+      <c r="A77" s="10"/>
       <c r="O77" s="2"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="16"/>
+      <c r="A78" s="10"/>
       <c r="O78" s="2"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="16"/>
+      <c r="A79" s="10"/>
       <c r="O79" s="2"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="16"/>
+      <c r="A80" s="10"/>
       <c r="O80" s="2"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="16"/>
+      <c r="A81" s="10"/>
       <c r="O81" s="2"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="16"/>
+      <c r="A82" s="10"/>
       <c r="O82" s="2"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="16"/>
+      <c r="A83" s="10"/>
       <c r="O83" s="2"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="16"/>
+      <c r="A84" s="10"/>
       <c r="O84" s="2"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="16"/>
+      <c r="A85" s="10"/>
       <c r="O85" s="2"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="16"/>
+      <c r="A86" s="10"/>
       <c r="O86" s="2"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="16"/>
+      <c r="A87" s="10"/>
       <c r="O87" s="2"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="16"/>
+      <c r="A88" s="10"/>
       <c r="O88" s="2"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="16"/>
+      <c r="A89" s="10"/>
       <c r="O89" s="2"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="16"/>
+      <c r="A90" s="10"/>
       <c r="O90" s="2"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="16"/>
+      <c r="A91" s="10"/>
       <c r="O91" s="2"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="16"/>
+      <c r="A92" s="10"/>
       <c r="O92" s="2"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="16"/>
+      <c r="A93" s="10"/>
       <c r="O93" s="2"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="16"/>
+      <c r="A94" s="10"/>
       <c r="O94" s="2"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="16"/>
+      <c r="A95" s="10"/>
       <c r="O95" s="2"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="16"/>
+      <c r="A96" s="10"/>
       <c r="O96" s="2"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="16"/>
+      <c r="A97" s="10"/>
       <c r="O97" s="2"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="16"/>
+      <c r="A98" s="10"/>
       <c r="O98" s="2"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="16"/>
+      <c r="A99" s="10"/>
       <c r="O99" s="2"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="16"/>
+      <c r="A100" s="10"/>
       <c r="O100" s="2"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="16"/>
+      <c r="A101" s="10"/>
       <c r="O101" s="2"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="16"/>
+      <c r="A102" s="10"/>
       <c r="O102" s="2"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="16"/>
+      <c r="A103" s="10"/>
       <c r="O103" s="2"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="16"/>
+      <c r="A104" s="10"/>
       <c r="O104" s="2"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="16"/>
+      <c r="A105" s="10"/>
       <c r="O105" s="2"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="16"/>
+      <c r="A106" s="10"/>
       <c r="O106" s="2"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="16"/>
+      <c r="A107" s="10"/>
       <c r="O107" s="2"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="16"/>
+      <c r="A108" s="10"/>
       <c r="O108" s="2"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="16"/>
+      <c r="A109" s="10"/>
       <c r="O109" s="2"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="16"/>
+      <c r="A110" s="10"/>
       <c r="O110" s="2"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="16"/>
+      <c r="A111" s="10"/>
       <c r="O111" s="2"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="16"/>
+      <c r="A112" s="10"/>
       <c r="O112" s="2"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="16"/>
+      <c r="A113" s="10"/>
       <c r="O113" s="2"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="16"/>
+      <c r="A114" s="10"/>
       <c r="O114" s="2"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="16"/>
+      <c r="A115" s="10"/>
       <c r="O115" s="2"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="16"/>
+      <c r="A116" s="10"/>
       <c r="O116" s="2"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="16"/>
+      <c r="A117" s="10"/>
       <c r="O117" s="2"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="16"/>
+      <c r="A118" s="10"/>
       <c r="O118" s="2"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="16"/>
+      <c r="A119" s="10"/>
       <c r="O119" s="2"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="16"/>
+      <c r="A120" s="10"/>
       <c r="O120" s="2"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="16"/>
+      <c r="A121" s="10"/>
       <c r="O121" s="2"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="16"/>
+      <c r="A122" s="10"/>
       <c r="O122" s="2"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="16"/>
+      <c r="A123" s="10"/>
       <c r="O123" s="2"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="16"/>
+      <c r="A124" s="10"/>
       <c r="O124" s="2"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="16"/>
+      <c r="A125" s="10"/>
       <c r="O125" s="2"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="16"/>
+      <c r="A126" s="10"/>
       <c r="O126" s="2"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="16"/>
+      <c r="A127" s="10"/>
       <c r="O127" s="2"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="16"/>
+      <c r="A128" s="10"/>
       <c r="O128" s="2"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="16"/>
+      <c r="A129" s="10"/>
       <c r="O129" s="2"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="16"/>
+      <c r="A130" s="10"/>
       <c r="O130" s="2"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="16"/>
+      <c r="A131" s="10"/>
       <c r="O131" s="2"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="16"/>
+      <c r="A132" s="10"/>
       <c r="O132" s="2"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="16"/>
+      <c r="A133" s="10"/>
       <c r="O133" s="2"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="16"/>
+      <c r="A134" s="10"/>
       <c r="O134" s="2"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="16"/>
+      <c r="A135" s="10"/>
       <c r="O135" s="2"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="16"/>
+      <c r="A136" s="10"/>
       <c r="O136" s="2"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="16"/>
+      <c r="A137" s="10"/>
       <c r="O137" s="2"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="16"/>
+      <c r="A138" s="10"/>
       <c r="O138" s="2"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="16"/>
+      <c r="A139" s="10"/>
       <c r="O139" s="2"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="16"/>
+      <c r="A140" s="10"/>
       <c r="O140" s="2"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="16"/>
+      <c r="A141" s="10"/>
       <c r="O141" s="2"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="16"/>
+      <c r="A142" s="10"/>
       <c r="O142" s="2"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="16"/>
+      <c r="A143" s="10"/>
       <c r="O143" s="2"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="16"/>
+      <c r="A144" s="10"/>
       <c r="O144" s="2"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="16"/>
+      <c r="A145" s="10"/>
       <c r="O145" s="2"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="16"/>
+      <c r="A146" s="10"/>
       <c r="O146" s="2"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="16"/>
+      <c r="A147" s="10"/>
       <c r="O147" s="2"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="16"/>
+      <c r="A148" s="10"/>
       <c r="O148" s="2"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="16"/>
+      <c r="A149" s="10"/>
       <c r="O149" s="2"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="16"/>
+      <c r="A150" s="10"/>
       <c r="O150" s="2"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="16"/>
+      <c r="A151" s="10"/>
       <c r="O151" s="2"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="16"/>
+      <c r="A152" s="10"/>
       <c r="O152" s="2"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="16"/>
+      <c r="A153" s="10"/>
       <c r="O153" s="2"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="16"/>
+      <c r="A154" s="10"/>
       <c r="O154" s="2"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="16"/>
+      <c r="A155" s="10"/>
       <c r="O155" s="2"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="16"/>
+      <c r="A156" s="10"/>
       <c r="O156" s="2"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="16"/>
+      <c r="A157" s="10"/>
       <c r="O157" s="2"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="16"/>
+      <c r="A158" s="10"/>
       <c r="O158" s="2"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="16"/>
+      <c r="A159" s="10"/>
       <c r="O159" s="2"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="16"/>
+      <c r="A160" s="10"/>
       <c r="O160" s="2"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="16"/>
+      <c r="A161" s="10"/>
       <c r="O161" s="2"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="16"/>
+      <c r="A162" s="10"/>
       <c r="O162" s="2"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="16"/>
+      <c r="A163" s="10"/>
       <c r="O163" s="2"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="16"/>
+      <c r="A164" s="10"/>
       <c r="O164" s="2"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="16"/>
+      <c r="A165" s="10"/>
       <c r="O165" s="2"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="16"/>
+      <c r="A166" s="10"/>
       <c r="O166" s="2"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="16"/>
+      <c r="A167" s="10"/>
       <c r="O167" s="2"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="16"/>
+      <c r="A168" s="10"/>
       <c r="O168" s="2"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="16"/>
+      <c r="A169" s="10"/>
       <c r="O169" s="2"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="16"/>
+      <c r="A170" s="10"/>
       <c r="O170" s="2"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="16"/>
+      <c r="A171" s="10"/>
       <c r="O171" s="2"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="16"/>
+      <c r="A172" s="10"/>
       <c r="O172" s="2"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="16"/>
+      <c r="A173" s="10"/>
       <c r="O173" s="2"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="16"/>
+      <c r="A174" s="10"/>
       <c r="O174" s="2"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="16"/>
+      <c r="A175" s="10"/>
       <c r="O175" s="2"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="16"/>
+      <c r="A176" s="10"/>
       <c r="O176" s="2"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="16"/>
+      <c r="A177" s="10"/>
       <c r="O177" s="2"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="16"/>
+      <c r="A178" s="10"/>
       <c r="O178" s="2"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="16"/>
+      <c r="A179" s="10"/>
       <c r="O179" s="2"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="16"/>
+      <c r="A180" s="10"/>
       <c r="O180" s="2"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="16"/>
+      <c r="A181" s="10"/>
       <c r="O181" s="2"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="16"/>
+      <c r="A182" s="10"/>
       <c r="O182" s="2"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="16"/>
+      <c r="A183" s="10"/>
       <c r="O183" s="2"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="16"/>
+      <c r="A184" s="10"/>
       <c r="O184" s="2"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="16"/>
+      <c r="A185" s="10"/>
       <c r="O185" s="2"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="16"/>
+      <c r="A186" s="10"/>
       <c r="O186" s="2"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="16"/>
+      <c r="A187" s="10"/>
       <c r="O187" s="2"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="16"/>
+      <c r="A188" s="10"/>
       <c r="O188" s="2"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="16"/>
+      <c r="A189" s="10"/>
       <c r="O189" s="2"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="16"/>
+      <c r="A190" s="10"/>
       <c r="O190" s="2"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="16"/>
+      <c r="A191" s="10"/>
       <c r="O191" s="2"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="16"/>
+      <c r="A192" s="10"/>
       <c r="O192" s="2"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="16"/>
+      <c r="A193" s="10"/>
       <c r="O193" s="2"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="16"/>
+      <c r="A194" s="10"/>
       <c r="O194" s="2"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="16"/>
+      <c r="A195" s="10"/>
       <c r="O195" s="2"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="16"/>
+      <c r="A196" s="10"/>
       <c r="O196" s="2"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="16"/>
+      <c r="A197" s="10"/>
       <c r="O197" s="2"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="16"/>
+      <c r="A198" s="10"/>
       <c r="O198" s="2"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="16"/>
+      <c r="A199" s="10"/>
       <c r="O199" s="2"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="16"/>
+      <c r="A200" s="10"/>
       <c r="O200" s="2"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="16"/>
+      <c r="A201" s="10"/>
       <c r="O201" s="2"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="16"/>
+      <c r="A202" s="10"/>
       <c r="O202" s="2"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="16"/>
+      <c r="A203" s="10"/>
       <c r="O203" s="2"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="16"/>
+      <c r="A204" s="10"/>
       <c r="O204" s="2"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="16"/>
+      <c r="A205" s="10"/>
       <c r="O205" s="2"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="16"/>
+      <c r="A206" s="10"/>
       <c r="O206" s="2"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="16"/>
+      <c r="A207" s="10"/>
       <c r="O207" s="2"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="16"/>
+      <c r="A208" s="10"/>
       <c r="O208" s="2"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="16"/>
+      <c r="A209" s="10"/>
       <c r="O209" s="2"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="16"/>
+      <c r="A210" s="10"/>
       <c r="O210" s="2"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="16"/>
+      <c r="A211" s="10"/>
       <c r="O211" s="2"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="16"/>
+      <c r="A212" s="10"/>
       <c r="O212" s="2"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="16"/>
+      <c r="A213" s="10"/>
       <c r="O213" s="2"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="16"/>
+      <c r="A214" s="10"/>
       <c r="O214" s="2"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="16"/>
+      <c r="A215" s="10"/>
       <c r="O215" s="2"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="16"/>
+      <c r="A216" s="10"/>
       <c r="O216" s="2"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="16"/>
+      <c r="A217" s="10"/>
       <c r="O217" s="2"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="16"/>
+      <c r="A218" s="10"/>
       <c r="O218" s="2"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="16"/>
+      <c r="A219" s="10"/>
       <c r="O219" s="2"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="16"/>
+      <c r="A220" s="10"/>
       <c r="O220" s="2"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="16"/>
+      <c r="A221" s="10"/>
       <c r="O221" s="2"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="16"/>
+      <c r="A222" s="10"/>
       <c r="O222" s="2"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="16"/>
+      <c r="A223" s="10"/>
       <c r="O223" s="2"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="16"/>
+      <c r="A224" s="10"/>
       <c r="O224" s="2"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="16"/>
+      <c r="A225" s="10"/>
       <c r="O225" s="2"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="16"/>
+      <c r="A226" s="10"/>
       <c r="O226" s="2"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="16"/>
+      <c r="A227" s="10"/>
       <c r="O227" s="2"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="16"/>
+      <c r="A228" s="10"/>
       <c r="O228" s="2"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="16"/>
+      <c r="A229" s="10"/>
       <c r="O229" s="2"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="16"/>
+      <c r="A230" s="10"/>
       <c r="O230" s="2"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="16"/>
+      <c r="A231" s="10"/>
       <c r="O231" s="2"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="16"/>
+      <c r="A232" s="10"/>
       <c r="O232" s="2"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="16"/>
+      <c r="A233" s="10"/>
       <c r="O233" s="2"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="16"/>
+      <c r="A234" s="10"/>
       <c r="O234" s="2"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="16"/>
+      <c r="A235" s="10"/>
       <c r="O235" s="2"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="16"/>
+      <c r="A236" s="10"/>
       <c r="O236" s="2"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="16"/>
+      <c r="A237" s="10"/>
       <c r="O237" s="2"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="16"/>
+      <c r="A238" s="10"/>
       <c r="O238" s="2"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="16"/>
+      <c r="A239" s="10"/>
       <c r="O239" s="2"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="16"/>
+      <c r="A240" s="10"/>
       <c r="O240" s="2"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="16"/>
+      <c r="A241" s="10"/>
       <c r="O241" s="2"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="16"/>
+      <c r="A242" s="10"/>
       <c r="O242" s="2"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="16"/>
+      <c r="A243" s="10"/>
       <c r="O243" s="2"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="16"/>
+      <c r="A244" s="10"/>
       <c r="O244" s="2"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="16"/>
+      <c r="A245" s="10"/>
       <c r="O245" s="2"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="16"/>
+      <c r="A246" s="10"/>
       <c r="O246" s="2"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="16"/>
+      <c r="A247" s="10"/>
       <c r="O247" s="2"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="16"/>
+      <c r="A248" s="10"/>
       <c r="O248" s="2"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="16"/>
+      <c r="A249" s="10"/>
       <c r="O249" s="2"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="16"/>
+      <c r="A250" s="10"/>
       <c r="O250" s="2"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="16"/>
+      <c r="A251" s="10"/>
       <c r="O251" s="2"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="16"/>
+      <c r="A252" s="10"/>
       <c r="O252" s="2"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="16"/>
+      <c r="A253" s="10"/>
       <c r="O253" s="2"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="16"/>
+      <c r="A254" s="10"/>
       <c r="O254" s="2"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="16"/>
+      <c r="A255" s="10"/>
       <c r="O255" s="2"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="16"/>
+      <c r="A256" s="10"/>
       <c r="O256" s="2"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="16"/>
+      <c r="A257" s="10"/>
       <c r="O257" s="2"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="16"/>
+      <c r="A258" s="10"/>
       <c r="O258" s="2"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="16"/>
+      <c r="A259" s="10"/>
       <c r="O259" s="2"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="16"/>
+      <c r="A260" s="10"/>
       <c r="O260" s="2"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="16"/>
+      <c r="A261" s="10"/>
       <c r="O261" s="2"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="16"/>
+      <c r="A262" s="10"/>
       <c r="O262" s="2"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="16"/>
+      <c r="A263" s="10"/>
       <c r="O263" s="2"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="16"/>
+      <c r="A264" s="10"/>
       <c r="O264" s="2"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="16"/>
+      <c r="A265" s="10"/>
       <c r="O265" s="2"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="16"/>
+      <c r="A266" s="10"/>
       <c r="O266" s="2"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="16"/>
+      <c r="A267" s="10"/>
       <c r="O267" s="2"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="16"/>
+      <c r="A268" s="10"/>
       <c r="O268" s="2"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="16"/>
+      <c r="A269" s="10"/>
       <c r="O269" s="2"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="16"/>
+      <c r="A270" s="10"/>
       <c r="O270" s="2"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="16"/>
+      <c r="A271" s="10"/>
       <c r="O271" s="2"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="16"/>
+      <c r="A272" s="10"/>
       <c r="O272" s="2"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="16"/>
+      <c r="A273" s="10"/>
       <c r="O273" s="2"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="16"/>
+      <c r="A274" s="10"/>
       <c r="O274" s="2"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="16"/>
+      <c r="A275" s="10"/>
       <c r="O275" s="2"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="16"/>
+      <c r="A276" s="10"/>
       <c r="O276" s="2"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="16"/>
+      <c r="A277" s="10"/>
       <c r="O277" s="2"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="16"/>
+      <c r="A278" s="10"/>
       <c r="O278" s="2"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="16"/>
+      <c r="A279" s="10"/>
       <c r="O279" s="2"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="16"/>
+      <c r="A280" s="10"/>
       <c r="O280" s="2"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="16"/>
+      <c r="A281" s="10"/>
       <c r="O281" s="2"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="16"/>
+      <c r="A282" s="10"/>
       <c r="O282" s="2"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="16"/>
+      <c r="A283" s="10"/>
       <c r="O283" s="2"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="16"/>
+      <c r="A284" s="10"/>
       <c r="O284" s="2"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="16"/>
+      <c r="A285" s="10"/>
       <c r="O285" s="2"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="16"/>
+      <c r="A286" s="10"/>
       <c r="O286" s="2"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="16"/>
+      <c r="A287" s="10"/>
       <c r="O287" s="2"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="16"/>
+      <c r="A288" s="10"/>
       <c r="O288" s="2"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="16"/>
+      <c r="A289" s="10"/>
       <c r="O289" s="2"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="16"/>
+      <c r="A290" s="10"/>
       <c r="O290" s="2"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="16"/>
+      <c r="A291" s="10"/>
       <c r="O291" s="2"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="16"/>
+      <c r="A292" s="10"/>
       <c r="O292" s="2"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="16"/>
+      <c r="A293" s="10"/>
       <c r="O293" s="2"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="16"/>
+      <c r="A294" s="10"/>
       <c r="O294" s="2"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="16"/>
+      <c r="A295" s="10"/>
       <c r="O295" s="2"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="16"/>
+      <c r="A296" s="10"/>
       <c r="O296" s="2"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="16"/>
+      <c r="A297" s="10"/>
       <c r="O297" s="2"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="16"/>
+      <c r="A298" s="10"/>
       <c r="O298" s="2"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="16"/>
+      <c r="A299" s="10"/>
       <c r="O299" s="2"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="16"/>
+      <c r="A300" s="10"/>
       <c r="O300" s="2"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="16"/>
+      <c r="A301" s="10"/>
       <c r="O301" s="2"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="16"/>
+      <c r="A302" s="10"/>
       <c r="O302" s="2"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="16"/>
+      <c r="A303" s="10"/>
       <c r="O303" s="2"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="16"/>
+      <c r="A304" s="10"/>
       <c r="O304" s="2"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="16"/>
+      <c r="A305" s="10"/>
       <c r="O305" s="2"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="16"/>
+      <c r="A306" s="10"/>
       <c r="O306" s="2"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="16"/>
+      <c r="A307" s="10"/>
       <c r="O307" s="2"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="16"/>
+      <c r="A308" s="10"/>
       <c r="O308" s="2"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="16"/>
+      <c r="A309" s="10"/>
       <c r="O309" s="2"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="16"/>
+      <c r="A310" s="10"/>
       <c r="O310" s="2"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="16"/>
+      <c r="A311" s="10"/>
       <c r="O311" s="2"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="16"/>
+      <c r="A312" s="10"/>
       <c r="O312" s="2"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="16"/>
+      <c r="A313" s="10"/>
       <c r="O313" s="2"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="16"/>
+      <c r="A314" s="10"/>
       <c r="O314" s="2"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="16"/>
+      <c r="A315" s="10"/>
       <c r="O315" s="2"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="16"/>
+      <c r="A316" s="10"/>
       <c r="O316" s="2"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="16"/>
+      <c r="A317" s="10"/>
       <c r="O317" s="2"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="16"/>
+      <c r="A318" s="10"/>
       <c r="O318" s="2"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="16"/>
+      <c r="A319" s="10"/>
       <c r="O319" s="2"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="16"/>
+      <c r="A320" s="10"/>
       <c r="O320" s="2"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="16"/>
+      <c r="A321" s="10"/>
       <c r="O321" s="2"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="16"/>
+      <c r="A322" s="10"/>
       <c r="O322" s="2"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="16"/>
+      <c r="A323" s="10"/>
       <c r="O323" s="2"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="16"/>
+      <c r="A324" s="10"/>
       <c r="O324" s="2"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="16"/>
+      <c r="A325" s="10"/>
       <c r="O325" s="2"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="16"/>
+      <c r="A326" s="10"/>
       <c r="O326" s="2"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="16"/>
+      <c r="A327" s="10"/>
       <c r="O327" s="2"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="16"/>
+      <c r="A328" s="10"/>
       <c r="O328" s="2"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="16"/>
+      <c r="A329" s="10"/>
       <c r="O329" s="2"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="16"/>
+      <c r="A330" s="10"/>
       <c r="O330" s="2"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="16"/>
+      <c r="A331" s="10"/>
       <c r="O331" s="2"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="16"/>
+      <c r="A332" s="10"/>
       <c r="O332" s="2"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="16"/>
+      <c r="A333" s="10"/>
       <c r="O333" s="2"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="16"/>
+      <c r="A334" s="10"/>
       <c r="O334" s="2"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="16"/>
+      <c r="A335" s="10"/>
       <c r="O335" s="2"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="16"/>
+      <c r="A336" s="10"/>
       <c r="O336" s="2"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="16"/>
+      <c r="A337" s="10"/>
       <c r="O337" s="2"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="16"/>
+      <c r="A338" s="10"/>
       <c r="O338" s="2"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="16"/>
+      <c r="A339" s="10"/>
       <c r="O339" s="2"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="16"/>
+      <c r="A340" s="10"/>
       <c r="O340" s="2"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="16"/>
+      <c r="A341" s="10"/>
       <c r="O341" s="2"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="16"/>
+      <c r="A342" s="10"/>
       <c r="O342" s="2"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="16"/>
+      <c r="A343" s="10"/>
       <c r="O343" s="2"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="16"/>
+      <c r="A344" s="10"/>
       <c r="O344" s="2"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="16"/>
+      <c r="A345" s="10"/>
       <c r="O345" s="2"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="16"/>
+      <c r="A346" s="10"/>
       <c r="O346" s="2"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="16"/>
+      <c r="A347" s="10"/>
       <c r="O347" s="2"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="16"/>
+      <c r="A348" s="10"/>
       <c r="O348" s="2"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="16"/>
+      <c r="A349" s="10"/>
       <c r="O349" s="2"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="16"/>
+      <c r="A350" s="10"/>
       <c r="O350" s="2"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="16"/>
+      <c r="A351" s="10"/>
       <c r="O351" s="2"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="16"/>
+      <c r="A352" s="10"/>
       <c r="O352" s="2"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="16"/>
+      <c r="A353" s="10"/>
       <c r="O353" s="2"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="16"/>
+      <c r="A354" s="10"/>
       <c r="O354" s="2"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="16"/>
+      <c r="A355" s="10"/>
       <c r="O355" s="2"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="16"/>
+      <c r="A356" s="10"/>
       <c r="O356" s="2"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="16"/>
+      <c r="A357" s="10"/>
       <c r="O357" s="2"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="16"/>
+      <c r="A358" s="10"/>
       <c r="O358" s="2"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="16"/>
+      <c r="A359" s="10"/>
       <c r="O359" s="2"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="16"/>
+      <c r="A360" s="10"/>
       <c r="O360" s="2"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="16"/>
+      <c r="A361" s="10"/>
       <c r="O361" s="2"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="16"/>
+      <c r="A362" s="10"/>
       <c r="O362" s="2"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="16"/>
+      <c r="A363" s="10"/>
       <c r="O363" s="2"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="16"/>
+      <c r="A364" s="10"/>
       <c r="O364" s="2"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="16"/>
+      <c r="A365" s="10"/>
       <c r="O365" s="2"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="16"/>
+      <c r="A366" s="10"/>
       <c r="O366" s="2"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="16"/>
+      <c r="A367" s="10"/>
       <c r="O367" s="2"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="16"/>
+      <c r="A368" s="10"/>
       <c r="O368" s="2"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="16"/>
+      <c r="A369" s="10"/>
       <c r="O369" s="2"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="16"/>
+      <c r="A370" s="10"/>
       <c r="O370" s="2"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="16"/>
+      <c r="A371" s="10"/>
       <c r="O371" s="2"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="16"/>
+      <c r="A372" s="10"/>
       <c r="O372" s="2"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="16"/>
+      <c r="A373" s="10"/>
       <c r="O373" s="2"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="16"/>
+      <c r="A374" s="10"/>
       <c r="O374" s="2"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="16"/>
+      <c r="A375" s="10"/>
       <c r="O375" s="2"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="16"/>
+      <c r="A376" s="10"/>
       <c r="O376" s="2"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="16"/>
+      <c r="A377" s="10"/>
       <c r="O377" s="2"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="16"/>
+      <c r="A378" s="10"/>
       <c r="O378" s="2"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="16"/>
+      <c r="A379" s="10"/>
       <c r="O379" s="2"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="16"/>
+      <c r="A380" s="10"/>
       <c r="O380" s="2"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="16"/>
+      <c r="A381" s="10"/>
       <c r="O381" s="2"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="16"/>
+      <c r="A382" s="10"/>
       <c r="O382" s="2"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="16"/>
+      <c r="A383" s="10"/>
       <c r="O383" s="2"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="16"/>
+      <c r="A384" s="10"/>
       <c r="O384" s="2"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="16"/>
+      <c r="A385" s="10"/>
       <c r="O385" s="2"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="16"/>
+      <c r="A386" s="10"/>
       <c r="O386" s="2"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="16"/>
+      <c r="A387" s="10"/>
       <c r="O387" s="2"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="16"/>
+      <c r="A388" s="10"/>
       <c r="O388" s="2"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="16"/>
+      <c r="A389" s="10"/>
       <c r="O389" s="2"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="16"/>
+      <c r="A390" s="10"/>
       <c r="O390" s="2"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="16"/>
+      <c r="A391" s="10"/>
       <c r="O391" s="2"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="16"/>
+      <c r="A392" s="10"/>
       <c r="O392" s="2"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="16"/>
+      <c r="A393" s="10"/>
       <c r="O393" s="2"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="16"/>
+      <c r="A394" s="10"/>
       <c r="O394" s="2"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="16"/>
+      <c r="A395" s="10"/>
       <c r="O395" s="2"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="16"/>
+      <c r="A396" s="10"/>
       <c r="O396" s="2"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="16"/>
+      <c r="A397" s="10"/>
       <c r="O397" s="2"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="16"/>
+      <c r="A398" s="10"/>
       <c r="O398" s="2"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="16"/>
+      <c r="A399" s="10"/>
       <c r="O399" s="2"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="16"/>
+      <c r="A400" s="10"/>
       <c r="O400" s="2"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="16"/>
+      <c r="A401" s="10"/>
       <c r="O401" s="2"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="16"/>
+      <c r="A402" s="10"/>
       <c r="O402" s="2"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="16"/>
+      <c r="A403" s="10"/>
       <c r="O403" s="2"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="16"/>
+      <c r="A404" s="10"/>
       <c r="O404" s="2"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="16"/>
+      <c r="A405" s="10"/>
       <c r="O405" s="2"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="16"/>
+      <c r="A406" s="10"/>
       <c r="O406" s="2"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="16"/>
+      <c r="A407" s="10"/>
       <c r="O407" s="2"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="16"/>
+      <c r="A408" s="10"/>
       <c r="O408" s="2"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="16"/>
+      <c r="A409" s="10"/>
       <c r="O409" s="2"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="16"/>
+      <c r="A410" s="10"/>
       <c r="O410" s="2"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="16"/>
+      <c r="A411" s="10"/>
       <c r="O411" s="2"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="16"/>
+      <c r="A412" s="10"/>
       <c r="O412" s="2"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="16"/>
+      <c r="A413" s="10"/>
       <c r="O413" s="2"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="16"/>
+      <c r="A414" s="10"/>
       <c r="O414" s="2"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="16"/>
+      <c r="A415" s="10"/>
       <c r="O415" s="2"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="16"/>
+      <c r="A416" s="10"/>
       <c r="O416" s="2"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="16"/>
+      <c r="A417" s="10"/>
       <c r="O417" s="2"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="16"/>
+      <c r="A418" s="10"/>
       <c r="O418" s="2"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="16"/>
+      <c r="A419" s="10"/>
       <c r="O419" s="2"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="16"/>
+      <c r="A420" s="10"/>
       <c r="O420" s="2"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="16"/>
+      <c r="A421" s="10"/>
       <c r="O421" s="2"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="16"/>
+      <c r="A422" s="10"/>
       <c r="O422" s="2"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="16"/>
+      <c r="A423" s="10"/>
       <c r="O423" s="2"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="16"/>
+      <c r="A424" s="10"/>
       <c r="O424" s="2"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="16"/>
+      <c r="A425" s="10"/>
       <c r="O425" s="2"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="16"/>
+      <c r="A426" s="10"/>
       <c r="O426" s="2"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="16"/>
+      <c r="A427" s="10"/>
       <c r="O427" s="2"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="16"/>
+      <c r="A428" s="10"/>
       <c r="O428" s="2"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="16"/>
+      <c r="A429" s="10"/>
       <c r="O429" s="2"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="16"/>
+      <c r="A430" s="10"/>
       <c r="O430" s="2"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="16"/>
+      <c r="A431" s="10"/>
       <c r="O431" s="2"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="16"/>
+      <c r="A432" s="10"/>
       <c r="O432" s="2"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="16"/>
+      <c r="A433" s="10"/>
       <c r="O433" s="2"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="16"/>
+      <c r="A434" s="10"/>
       <c r="O434" s="2"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="16"/>
+      <c r="A435" s="10"/>
       <c r="O435" s="2"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="16"/>
+      <c r="A436" s="10"/>
       <c r="O436" s="2"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="16"/>
+      <c r="A437" s="10"/>
       <c r="O437" s="2"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="16"/>
+      <c r="A438" s="10"/>
       <c r="O438" s="2"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="16"/>
+      <c r="A439" s="10"/>
       <c r="O439" s="2"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="16"/>
+      <c r="A440" s="10"/>
       <c r="O440" s="2"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="16"/>
+      <c r="A441" s="10"/>
       <c r="O441" s="2"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="16"/>
+      <c r="A442" s="10"/>
       <c r="O442" s="2"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="16"/>
+      <c r="A443" s="10"/>
       <c r="O443" s="2"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="16"/>
+      <c r="A444" s="10"/>
       <c r="O444" s="2"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="16"/>
+      <c r="A445" s="10"/>
       <c r="O445" s="2"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="16"/>
+      <c r="A446" s="10"/>
       <c r="O446" s="2"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="16"/>
+      <c r="A447" s="10"/>
       <c r="O447" s="2"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="16"/>
+      <c r="A448" s="10"/>
       <c r="O448" s="2"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="16"/>
+      <c r="A449" s="10"/>
       <c r="O449" s="2"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="16"/>
+      <c r="A450" s="10"/>
       <c r="O450" s="2"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="16"/>
+      <c r="A451" s="10"/>
       <c r="O451" s="2"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="16"/>
+      <c r="A452" s="10"/>
       <c r="O452" s="2"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="16"/>
+      <c r="A453" s="10"/>
       <c r="O453" s="2"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="16"/>
+      <c r="A454" s="10"/>
       <c r="O454" s="2"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="16"/>
+      <c r="A455" s="10"/>
       <c r="O455" s="2"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="16"/>
+      <c r="A456" s="10"/>
       <c r="O456" s="2"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="16"/>
+      <c r="A457" s="10"/>
       <c r="O457" s="2"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="16"/>
+      <c r="A458" s="10"/>
       <c r="O458" s="2"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="16"/>
+      <c r="A459" s="10"/>
       <c r="O459" s="2"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="16"/>
+      <c r="A460" s="10"/>
       <c r="O460" s="2"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="16"/>
+      <c r="A461" s="10"/>
       <c r="O461" s="2"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="16"/>
+      <c r="A462" s="10"/>
       <c r="O462" s="2"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="16"/>
+      <c r="A463" s="10"/>
       <c r="O463" s="2"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="16"/>
+      <c r="A464" s="10"/>
       <c r="O464" s="2"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="16"/>
+      <c r="A465" s="10"/>
       <c r="O465" s="2"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="16"/>
+      <c r="A466" s="10"/>
       <c r="O466" s="2"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="16"/>
+      <c r="A467" s="10"/>
       <c r="O467" s="2"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="16"/>
+      <c r="A468" s="10"/>
       <c r="O468" s="2"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="16"/>
+      <c r="A469" s="10"/>
       <c r="O469" s="2"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="16"/>
+      <c r="A470" s="10"/>
       <c r="O470" s="2"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="16"/>
+      <c r="A471" s="10"/>
       <c r="O471" s="2"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="16"/>
+      <c r="A472" s="10"/>
       <c r="O472" s="2"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="16"/>
+      <c r="A473" s="10"/>
       <c r="O473" s="2"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="16"/>
+      <c r="A474" s="10"/>
       <c r="O474" s="2"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="16"/>
+      <c r="A475" s="10"/>
       <c r="O475" s="2"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="16"/>
+      <c r="A476" s="10"/>
       <c r="O476" s="2"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="16"/>
+      <c r="A477" s="10"/>
       <c r="O477" s="2"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="16"/>
+      <c r="A478" s="10"/>
       <c r="O478" s="2"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="16"/>
+      <c r="A479" s="10"/>
       <c r="O479" s="2"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="16"/>
+      <c r="A480" s="10"/>
       <c r="O480" s="2"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="16"/>
+      <c r="A481" s="10"/>
       <c r="O481" s="2"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="16"/>
+      <c r="A482" s="10"/>
       <c r="O482" s="2"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="16"/>
+      <c r="A483" s="10"/>
       <c r="O483" s="2"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="16"/>
+      <c r="A484" s="10"/>
       <c r="O484" s="2"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="16"/>
+      <c r="A485" s="10"/>
       <c r="O485" s="2"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="16"/>
+      <c r="A486" s="10"/>
       <c r="O486" s="2"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="16"/>
+      <c r="A487" s="10"/>
       <c r="O487" s="2"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="16"/>
+      <c r="A488" s="10"/>
       <c r="O488" s="2"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="16"/>
+      <c r="A489" s="10"/>
       <c r="O489" s="2"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="16"/>
+      <c r="A490" s="10"/>
       <c r="O490" s="2"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="16"/>
+      <c r="A491" s="10"/>
       <c r="O491" s="2"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="16"/>
+      <c r="A492" s="10"/>
       <c r="O492" s="2"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="16"/>
+      <c r="A493" s="10"/>
       <c r="O493" s="2"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="16"/>
+      <c r="A494" s="10"/>
       <c r="O494" s="2"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="16"/>
+      <c r="A495" s="10"/>
       <c r="O495" s="2"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="16"/>
+      <c r="A496" s="10"/>
       <c r="O496" s="2"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="16"/>
+      <c r="A497" s="10"/>
       <c r="O497" s="2"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="16"/>
+      <c r="A498" s="10"/>
       <c r="O498" s="2"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="16"/>
+      <c r="A499" s="10"/>
       <c r="O499" s="2"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="16"/>
+      <c r="A500" s="10"/>
       <c r="O500" s="2"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="16"/>
+      <c r="A501" s="10"/>
       <c r="O501" s="2"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="16"/>
+      <c r="A502" s="10"/>
       <c r="O502" s="2"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="16"/>
+      <c r="A503" s="10"/>
       <c r="O503" s="2"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="16"/>
+      <c r="A504" s="10"/>
       <c r="O504" s="2"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="16"/>
+      <c r="A505" s="10"/>
       <c r="O505" s="2"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="16"/>
+      <c r="A506" s="10"/>
       <c r="O506" s="2"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="16"/>
+      <c r="A507" s="10"/>
       <c r="O507" s="2"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="16"/>
+      <c r="A508" s="10"/>
       <c r="O508" s="2"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="16"/>
+      <c r="A509" s="10"/>
       <c r="O509" s="2"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="16"/>
+      <c r="A510" s="10"/>
       <c r="O510" s="2"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="16"/>
+      <c r="A511" s="10"/>
       <c r="O511" s="2"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="16"/>
+      <c r="A512" s="10"/>
       <c r="O512" s="2"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="16"/>
+      <c r="A513" s="10"/>
       <c r="O513" s="2"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="16"/>
+      <c r="A514" s="10"/>
       <c r="O514" s="2"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="16"/>
+      <c r="A515" s="10"/>
       <c r="O515" s="2"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="16"/>
+      <c r="A516" s="10"/>
       <c r="O516" s="2"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="16"/>
+      <c r="A517" s="10"/>
       <c r="O517" s="2"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="16"/>
+      <c r="A518" s="10"/>
       <c r="O518" s="2"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="16"/>
+      <c r="A519" s="10"/>
       <c r="O519" s="2"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="16"/>
+      <c r="A520" s="10"/>
       <c r="O520" s="2"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="16"/>
+      <c r="A521" s="10"/>
       <c r="O521" s="2"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="16"/>
+      <c r="A522" s="10"/>
       <c r="O522" s="2"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="16"/>
+      <c r="A523" s="10"/>
       <c r="O523" s="2"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="16"/>
+      <c r="A524" s="10"/>
       <c r="O524" s="2"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="16"/>
+      <c r="A525" s="10"/>
       <c r="O525" s="2"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="16"/>
+      <c r="A526" s="10"/>
       <c r="O526" s="2"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="16"/>
+      <c r="A527" s="10"/>
       <c r="O527" s="2"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="16"/>
+      <c r="A528" s="10"/>
       <c r="O528" s="2"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="16"/>
+      <c r="A529" s="10"/>
       <c r="O529" s="2"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="16"/>
+      <c r="A530" s="10"/>
       <c r="O530" s="2"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="16"/>
+      <c r="A531" s="10"/>
       <c r="O531" s="2"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="16"/>
+      <c r="A532" s="10"/>
       <c r="O532" s="2"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="16"/>
+      <c r="A533" s="10"/>
       <c r="O533" s="2"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="16"/>
+      <c r="A534" s="10"/>
       <c r="O534" s="2"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="16"/>
+      <c r="A535" s="10"/>
       <c r="O535" s="2"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="16"/>
+      <c r="A536" s="10"/>
       <c r="O536" s="2"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="16"/>
+      <c r="A537" s="10"/>
       <c r="O537" s="2"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="16"/>
+      <c r="A538" s="10"/>
       <c r="O538" s="2"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="16"/>
+      <c r="A539" s="10"/>
       <c r="O539" s="2"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="16"/>
+      <c r="A540" s="10"/>
       <c r="O540" s="2"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="16"/>
+      <c r="A541" s="10"/>
       <c r="O541" s="2"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="16"/>
+      <c r="A542" s="10"/>
       <c r="O542" s="2"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="16"/>
+      <c r="A543" s="10"/>
       <c r="O543" s="2"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="16"/>
+      <c r="A544" s="10"/>
       <c r="O544" s="2"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="16"/>
+      <c r="A545" s="10"/>
       <c r="O545" s="2"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="16"/>
+      <c r="A546" s="10"/>
       <c r="O546" s="2"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="16"/>
+      <c r="A547" s="10"/>
       <c r="O547" s="2"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="16"/>
+      <c r="A548" s="10"/>
       <c r="O548" s="2"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="16"/>
+      <c r="A549" s="10"/>
       <c r="O549" s="2"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="16"/>
+      <c r="A550" s="10"/>
       <c r="O550" s="2"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="16"/>
+      <c r="A551" s="10"/>
       <c r="O551" s="2"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="16"/>
+      <c r="A552" s="10"/>
       <c r="O552" s="2"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="16"/>
+      <c r="A553" s="10"/>
       <c r="O553" s="2"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="16"/>
+      <c r="A554" s="10"/>
       <c r="O554" s="2"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="16"/>
+      <c r="A555" s="10"/>
       <c r="O555" s="2"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="16"/>
+      <c r="A556" s="10"/>
       <c r="O556" s="2"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="16"/>
+      <c r="A557" s="10"/>
       <c r="O557" s="2"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="16"/>
+      <c r="A558" s="10"/>
       <c r="O558" s="2"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="16"/>
+      <c r="A559" s="10"/>
       <c r="O559" s="2"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="16"/>
+      <c r="A560" s="10"/>
       <c r="O560" s="2"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="16"/>
+      <c r="A561" s="10"/>
       <c r="O561" s="2"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="16"/>
+      <c r="A562" s="10"/>
       <c r="O562" s="2"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="16"/>
+      <c r="A563" s="10"/>
       <c r="O563" s="2"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="16"/>
+      <c r="A564" s="10"/>
       <c r="O564" s="2"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="16"/>
+      <c r="A565" s="10"/>
       <c r="O565" s="2"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="16"/>
+      <c r="A566" s="10"/>
       <c r="O566" s="2"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="16"/>
+      <c r="A567" s="10"/>
       <c r="O567" s="2"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="16"/>
+      <c r="A568" s="10"/>
       <c r="O568" s="2"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="16"/>
+      <c r="A569" s="10"/>
       <c r="O569" s="2"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="16"/>
+      <c r="A570" s="10"/>
       <c r="O570" s="2"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="16"/>
+      <c r="A571" s="10"/>
       <c r="O571" s="2"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="16"/>
+      <c r="A572" s="10"/>
       <c r="O572" s="2"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="16"/>
+      <c r="A573" s="10"/>
       <c r="O573" s="2"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="16"/>
+      <c r="A574" s="10"/>
       <c r="O574" s="2"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="16"/>
+      <c r="A575" s="10"/>
       <c r="O575" s="2"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="16"/>
+      <c r="A576" s="10"/>
       <c r="O576" s="2"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="16"/>
+      <c r="A577" s="10"/>
       <c r="O577" s="2"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="16"/>
+      <c r="A578" s="10"/>
       <c r="O578" s="2"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="16"/>
+      <c r="A579" s="10"/>
       <c r="O579" s="2"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="16"/>
+      <c r="A580" s="10"/>
       <c r="O580" s="2"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="16"/>
+      <c r="A581" s="10"/>
       <c r="O581" s="2"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="16"/>
+      <c r="A582" s="10"/>
       <c r="O582" s="2"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="16"/>
+      <c r="A583" s="10"/>
       <c r="O583" s="2"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="16"/>
+      <c r="A584" s="10"/>
       <c r="O584" s="2"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="16"/>
+      <c r="A585" s="10"/>
       <c r="O585" s="2"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="16"/>
+      <c r="A586" s="10"/>
       <c r="O586" s="2"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="16"/>
+      <c r="A587" s="10"/>
       <c r="O587" s="2"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="16"/>
+      <c r="A588" s="10"/>
       <c r="O588" s="2"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="16"/>
+      <c r="A589" s="10"/>
       <c r="O589" s="2"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="16"/>
+      <c r="A590" s="10"/>
       <c r="O590" s="2"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="16"/>
+      <c r="A591" s="10"/>
       <c r="O591" s="2"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="16"/>
+      <c r="A592" s="10"/>
       <c r="O592" s="2"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="16"/>
+      <c r="A593" s="10"/>
       <c r="O593" s="2"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="16"/>
+      <c r="A594" s="10"/>
       <c r="O594" s="2"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="16"/>
+      <c r="A595" s="10"/>
       <c r="O595" s="2"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="16"/>
+      <c r="A596" s="10"/>
       <c r="O596" s="2"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="16"/>
+      <c r="A597" s="10"/>
       <c r="O597" s="2"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="16"/>
+      <c r="A598" s="10"/>
       <c r="O598" s="2"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="16"/>
+      <c r="A599" s="10"/>
       <c r="O599" s="2"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="16"/>
+      <c r="A600" s="10"/>
       <c r="O600" s="2"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="16"/>
+      <c r="A601" s="10"/>
       <c r="O601" s="2"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="16"/>
+      <c r="A602" s="10"/>
       <c r="O602" s="2"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="16"/>
+      <c r="A603" s="10"/>
       <c r="O603" s="2"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="16"/>
+      <c r="A604" s="10"/>
       <c r="O604" s="2"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="16"/>
+      <c r="A605" s="10"/>
       <c r="O605" s="2"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="16"/>
+      <c r="A606" s="10"/>
       <c r="O606" s="2"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="16"/>
+      <c r="A607" s="10"/>
       <c r="O607" s="2"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="16"/>
+      <c r="A608" s="10"/>
       <c r="O608" s="2"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="16"/>
+      <c r="A609" s="10"/>
       <c r="O609" s="2"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="16"/>
+      <c r="A610" s="10"/>
       <c r="O610" s="2"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="16"/>
+      <c r="A611" s="10"/>
       <c r="O611" s="2"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="16"/>
+      <c r="A612" s="10"/>
       <c r="O612" s="2"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="16"/>
+      <c r="A613" s="10"/>
       <c r="O613" s="2"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="16"/>
+      <c r="A614" s="10"/>
       <c r="O614" s="2"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="16"/>
+      <c r="A615" s="10"/>
       <c r="O615" s="2"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="16"/>
+      <c r="A616" s="10"/>
       <c r="O616" s="2"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="16"/>
+      <c r="A617" s="10"/>
       <c r="O617" s="2"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="16"/>
+      <c r="A618" s="10"/>
       <c r="O618" s="2"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="16"/>
+      <c r="A619" s="10"/>
       <c r="O619" s="2"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="16"/>
+      <c r="A620" s="10"/>
       <c r="O620" s="2"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="16"/>
+      <c r="A621" s="10"/>
       <c r="O621" s="2"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="16"/>
+      <c r="A622" s="10"/>
       <c r="O622" s="2"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="16"/>
+      <c r="A623" s="10"/>
       <c r="O623" s="2"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="16"/>
+      <c r="A624" s="10"/>
       <c r="O624" s="2"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="16"/>
+      <c r="A625" s="10"/>
       <c r="O625" s="2"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="16"/>
+      <c r="A626" s="10"/>
       <c r="O626" s="2"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="16"/>
+      <c r="A627" s="10"/>
       <c r="O627" s="2"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="16"/>
+      <c r="A628" s="10"/>
       <c r="O628" s="2"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="16"/>
+      <c r="A629" s="10"/>
       <c r="O629" s="2"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="16"/>
+      <c r="A630" s="10"/>
       <c r="O630" s="2"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="16"/>
+      <c r="A631" s="10"/>
       <c r="O631" s="2"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="16"/>
+      <c r="A632" s="10"/>
       <c r="O632" s="2"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="16"/>
+      <c r="A633" s="10"/>
       <c r="O633" s="2"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="16"/>
+      <c r="A634" s="10"/>
       <c r="O634" s="2"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="16"/>
+      <c r="A635" s="10"/>
       <c r="O635" s="2"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="16"/>
+      <c r="A636" s="10"/>
       <c r="O636" s="2"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="16"/>
+      <c r="A637" s="10"/>
       <c r="O637" s="2"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="16"/>
+      <c r="A638" s="10"/>
       <c r="O638" s="2"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="16"/>
+      <c r="A639" s="10"/>
       <c r="O639" s="2"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="16"/>
+      <c r="A640" s="10"/>
       <c r="O640" s="2"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="16"/>
+      <c r="A641" s="10"/>
       <c r="O641" s="2"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="16"/>
+      <c r="A642" s="10"/>
       <c r="O642" s="2"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="16"/>
+      <c r="A643" s="10"/>
       <c r="O643" s="2"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="16"/>
+      <c r="A644" s="10"/>
       <c r="O644" s="2"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="16"/>
+      <c r="A645" s="10"/>
       <c r="O645" s="2"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="16"/>
+      <c r="A646" s="10"/>
       <c r="O646" s="2"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="16"/>
+      <c r="A647" s="10"/>
       <c r="O647" s="2"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="16"/>
+      <c r="A648" s="10"/>
       <c r="O648" s="2"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="16"/>
+      <c r="A649" s="10"/>
       <c r="O649" s="2"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="16"/>
+      <c r="A650" s="10"/>
       <c r="O650" s="2"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="16"/>
+      <c r="A651" s="10"/>
       <c r="O651" s="2"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="16"/>
+      <c r="A652" s="10"/>
       <c r="O652" s="2"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="16"/>
+      <c r="A653" s="10"/>
       <c r="O653" s="2"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="16"/>
+      <c r="A654" s="10"/>
       <c r="O654" s="2"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="16"/>
+      <c r="A655" s="10"/>
       <c r="O655" s="2"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="16"/>
+      <c r="A656" s="10"/>
       <c r="O656" s="2"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="16"/>
+      <c r="A657" s="10"/>
       <c r="O657" s="2"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="16"/>
+      <c r="A658" s="10"/>
       <c r="O658" s="2"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="16"/>
+      <c r="A659" s="10"/>
       <c r="O659" s="2"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="16"/>
+      <c r="A660" s="10"/>
       <c r="O660" s="2"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="16"/>
+      <c r="A661" s="10"/>
       <c r="O661" s="2"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="16"/>
+      <c r="A662" s="10"/>
       <c r="O662" s="2"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="16"/>
+      <c r="A663" s="10"/>
       <c r="O663" s="2"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="16"/>
+      <c r="A664" s="10"/>
       <c r="O664" s="2"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="16"/>
+      <c r="A665" s="10"/>
       <c r="O665" s="2"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="16"/>
+      <c r="A666" s="10"/>
       <c r="O666" s="2"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="16"/>
+      <c r="A667" s="10"/>
       <c r="O667" s="2"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="16"/>
+      <c r="A668" s="10"/>
       <c r="O668" s="2"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="16"/>
+      <c r="A669" s="10"/>
       <c r="O669" s="2"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="16"/>
+      <c r="A670" s="10"/>
       <c r="O670" s="2"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="16"/>
+      <c r="A671" s="10"/>
       <c r="O671" s="2"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="16"/>
+      <c r="A672" s="10"/>
       <c r="O672" s="2"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="16"/>
+      <c r="A673" s="10"/>
       <c r="O673" s="2"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="16"/>
+      <c r="A674" s="10"/>
       <c r="O674" s="2"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="16"/>
+      <c r="A675" s="10"/>
       <c r="O675" s="2"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="16"/>
+      <c r="A676" s="10"/>
       <c r="O676" s="2"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="16"/>
+      <c r="A677" s="10"/>
       <c r="O677" s="2"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="16"/>
+      <c r="A678" s="10"/>
       <c r="O678" s="2"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="16"/>
+      <c r="A679" s="10"/>
       <c r="O679" s="2"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="16"/>
+      <c r="A680" s="10"/>
       <c r="O680" s="2"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="16"/>
+      <c r="A681" s="10"/>
       <c r="O681" s="2"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="16"/>
+      <c r="A682" s="10"/>
       <c r="O682" s="2"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="16"/>
+      <c r="A683" s="10"/>
       <c r="O683" s="2"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="16"/>
+      <c r="A684" s="10"/>
       <c r="O684" s="2"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="16"/>
+      <c r="A685" s="10"/>
       <c r="O685" s="2"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="16"/>
+      <c r="A686" s="10"/>
       <c r="O686" s="2"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="16"/>
+      <c r="A687" s="10"/>
       <c r="O687" s="2"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="16"/>
+      <c r="A688" s="10"/>
       <c r="O688" s="2"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="16"/>
+      <c r="A689" s="10"/>
       <c r="O689" s="2"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="16"/>
+      <c r="A690" s="10"/>
       <c r="O690" s="2"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="16"/>
+      <c r="A691" s="10"/>
       <c r="O691" s="2"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="16"/>
+      <c r="A692" s="10"/>
       <c r="O692" s="2"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="16"/>
+      <c r="A693" s="10"/>
       <c r="O693" s="2"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="16"/>
+      <c r="A694" s="10"/>
       <c r="O694" s="2"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="16"/>
+      <c r="A695" s="10"/>
       <c r="O695" s="2"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="16"/>
+      <c r="A696" s="10"/>
       <c r="O696" s="2"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="16"/>
+      <c r="A697" s="10"/>
       <c r="O697" s="2"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="16"/>
+      <c r="A698" s="10"/>
       <c r="O698" s="2"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="16"/>
+      <c r="A699" s="10"/>
       <c r="O699" s="2"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="16"/>
+      <c r="A700" s="10"/>
       <c r="O700" s="2"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="16"/>
+      <c r="A701" s="10"/>
       <c r="O701" s="2"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="16"/>
+      <c r="A702" s="10"/>
       <c r="O702" s="2"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="16"/>
+      <c r="A703" s="10"/>
       <c r="O703" s="2"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="16"/>
+      <c r="A704" s="10"/>
       <c r="O704" s="2"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="16"/>
+      <c r="A705" s="10"/>
       <c r="O705" s="2"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="16"/>
+      <c r="A706" s="10"/>
       <c r="O706" s="2"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="16"/>
+      <c r="A707" s="10"/>
       <c r="O707" s="2"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="16"/>
+      <c r="A708" s="10"/>
       <c r="O708" s="2"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="16"/>
+      <c r="A709" s="10"/>
       <c r="O709" s="2"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="16"/>
+      <c r="A710" s="10"/>
       <c r="O710" s="2"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="16"/>
+      <c r="A711" s="10"/>
       <c r="O711" s="2"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="16"/>
+      <c r="A712" s="10"/>
       <c r="O712" s="2"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="16"/>
+      <c r="A713" s="10"/>
       <c r="O713" s="2"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="16"/>
+      <c r="A714" s="10"/>
       <c r="O714" s="2"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="16"/>
+      <c r="A715" s="10"/>
       <c r="O715" s="2"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="16"/>
+      <c r="A716" s="10"/>
       <c r="O716" s="2"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="16"/>
+      <c r="A717" s="10"/>
       <c r="O717" s="2"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="16"/>
+      <c r="A718" s="10"/>
       <c r="O718" s="2"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="16"/>
+      <c r="A719" s="10"/>
       <c r="O719" s="2"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="16"/>
+      <c r="A720" s="10"/>
       <c r="O720" s="2"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="16"/>
+      <c r="A721" s="10"/>
       <c r="O721" s="2"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="16"/>
+      <c r="A722" s="10"/>
       <c r="O722" s="2"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="16"/>
+      <c r="A723" s="10"/>
       <c r="O723" s="2"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="16"/>
+      <c r="A724" s="10"/>
       <c r="O724" s="2"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="16"/>
+      <c r="A725" s="10"/>
       <c r="O725" s="2"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="16"/>
+      <c r="A726" s="10"/>
       <c r="O726" s="2"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="16"/>
+      <c r="A727" s="10"/>
       <c r="O727" s="2"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="16"/>
+      <c r="A728" s="10"/>
       <c r="O728" s="2"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="16"/>
+      <c r="A729" s="10"/>
       <c r="O729" s="2"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="16"/>
+      <c r="A730" s="10"/>
       <c r="O730" s="2"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="16"/>
+      <c r="A731" s="10"/>
       <c r="O731" s="2"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="16"/>
+      <c r="A732" s="10"/>
       <c r="O732" s="2"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="16"/>
+      <c r="A733" s="10"/>
       <c r="O733" s="2"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="16"/>
+      <c r="A734" s="10"/>
       <c r="O734" s="2"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="16"/>
+      <c r="A735" s="10"/>
       <c r="O735" s="2"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="16"/>
+      <c r="A736" s="10"/>
       <c r="O736" s="2"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="16"/>
+      <c r="A737" s="10"/>
       <c r="O737" s="2"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="16"/>
+      <c r="A738" s="10"/>
       <c r="O738" s="2"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="16"/>
+      <c r="A739" s="10"/>
       <c r="O739" s="2"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="16"/>
+      <c r="A740" s="10"/>
       <c r="O740" s="2"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="16"/>
+      <c r="A741" s="10"/>
       <c r="O741" s="2"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="16"/>
+      <c r="A742" s="10"/>
       <c r="O742" s="2"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="16"/>
+      <c r="A743" s="10"/>
       <c r="O743" s="2"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="16"/>
+      <c r="A744" s="10"/>
       <c r="O744" s="2"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="16"/>
+      <c r="A745" s="10"/>
       <c r="O745" s="2"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="16"/>
+      <c r="A746" s="10"/>
       <c r="O746" s="2"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="16"/>
+      <c r="A747" s="10"/>
       <c r="O747" s="2"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="16"/>
+      <c r="A748" s="10"/>
       <c r="O748" s="2"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="16"/>
+      <c r="A749" s="10"/>
       <c r="O749" s="2"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="16"/>
+      <c r="A750" s="10"/>
       <c r="O750" s="2"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="16"/>
+      <c r="A751" s="10"/>
       <c r="O751" s="2"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="16"/>
+      <c r="A752" s="10"/>
       <c r="O752" s="2"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="16"/>
+      <c r="A753" s="10"/>
       <c r="O753" s="2"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="16"/>
+      <c r="A754" s="10"/>
       <c r="O754" s="2"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="16"/>
+      <c r="A755" s="10"/>
       <c r="O755" s="2"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="16"/>
+      <c r="A756" s="10"/>
       <c r="O756" s="2"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="16"/>
+      <c r="A757" s="10"/>
       <c r="O757" s="2"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="16"/>
+      <c r="A758" s="10"/>
       <c r="O758" s="2"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="16"/>
+      <c r="A759" s="10"/>
       <c r="O759" s="2"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="16"/>
+      <c r="A760" s="10"/>
       <c r="O760" s="2"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="16"/>
+      <c r="A761" s="10"/>
       <c r="O761" s="2"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="16"/>
+      <c r="A762" s="10"/>
       <c r="O762" s="2"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="16"/>
+      <c r="A763" s="10"/>
       <c r="O763" s="2"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="16"/>
+      <c r="A764" s="10"/>
       <c r="O764" s="2"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="16"/>
+      <c r="A765" s="10"/>
       <c r="O765" s="2"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="16"/>
+      <c r="A766" s="10"/>
       <c r="O766" s="2"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="16"/>
+      <c r="A767" s="10"/>
       <c r="O767" s="2"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="16"/>
+      <c r="A768" s="10"/>
       <c r="O768" s="2"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="16"/>
+      <c r="A769" s="10"/>
       <c r="O769" s="2"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="16"/>
+      <c r="A770" s="10"/>
       <c r="O770" s="2"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="16"/>
+      <c r="A771" s="10"/>
       <c r="O771" s="2"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="16"/>
+      <c r="A772" s="10"/>
       <c r="O772" s="2"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="16"/>
+      <c r="A773" s="10"/>
       <c r="O773" s="2"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="16"/>
+      <c r="A774" s="10"/>
       <c r="O774" s="2"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="16"/>
+      <c r="A775" s="10"/>
       <c r="O775" s="2"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="16"/>
+      <c r="A776" s="10"/>
       <c r="O776" s="2"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="16"/>
+      <c r="A777" s="10"/>
       <c r="O777" s="2"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="16"/>
+      <c r="A778" s="10"/>
       <c r="O778" s="2"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="16"/>
+      <c r="A779" s="10"/>
       <c r="O779" s="2"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="16"/>
+      <c r="A780" s="10"/>
       <c r="O780" s="2"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="16"/>
+      <c r="A781" s="10"/>
       <c r="O781" s="2"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="16"/>
+      <c r="A782" s="10"/>
       <c r="O782" s="2"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="16"/>
+      <c r="A783" s="10"/>
       <c r="O783" s="2"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="16"/>
+      <c r="A784" s="10"/>
       <c r="O784" s="2"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="16"/>
+      <c r="A785" s="10"/>
       <c r="O785" s="2"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="16"/>
+      <c r="A786" s="10"/>
       <c r="O786" s="2"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="16"/>
+      <c r="A787" s="10"/>
       <c r="O787" s="2"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="16"/>
+      <c r="A788" s="10"/>
       <c r="O788" s="2"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="16"/>
+      <c r="A789" s="10"/>
       <c r="O789" s="2"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="16"/>
+      <c r="A790" s="10"/>
       <c r="O790" s="2"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="16"/>
+      <c r="A791" s="10"/>
       <c r="O791" s="2"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="16"/>
+      <c r="A792" s="10"/>
       <c r="O792" s="2"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="16"/>
+      <c r="A793" s="10"/>
       <c r="O793" s="2"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="16"/>
+      <c r="A794" s="10"/>
       <c r="O794" s="2"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="16"/>
+      <c r="A795" s="10"/>
       <c r="O795" s="2"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="16"/>
+      <c r="A796" s="10"/>
       <c r="O796" s="2"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="16"/>
+      <c r="A797" s="10"/>
       <c r="O797" s="2"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="16"/>
+      <c r="A798" s="10"/>
       <c r="O798" s="2"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="16"/>
+      <c r="A799" s="10"/>
       <c r="O799" s="2"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="16"/>
+      <c r="A800" s="10"/>
       <c r="O800" s="2"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="16"/>
+      <c r="A801" s="10"/>
       <c r="O801" s="2"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="16"/>
+      <c r="A802" s="10"/>
       <c r="O802" s="2"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="16"/>
+      <c r="A803" s="10"/>
       <c r="O803" s="2"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="16"/>
+      <c r="A804" s="10"/>
       <c r="O804" s="2"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="16"/>
+      <c r="A805" s="10"/>
       <c r="O805" s="2"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="16"/>
+      <c r="A806" s="10"/>
       <c r="O806" s="2"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="16"/>
+      <c r="A807" s="10"/>
       <c r="O807" s="2"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="16"/>
+      <c r="A808" s="10"/>
       <c r="O808" s="2"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="16"/>
+      <c r="A809" s="10"/>
       <c r="O809" s="2"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="16"/>
+      <c r="A810" s="10"/>
       <c r="O810" s="2"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="16"/>
+      <c r="A811" s="10"/>
       <c r="O811" s="2"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="16"/>
+      <c r="A812" s="10"/>
       <c r="O812" s="2"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="16"/>
+      <c r="A813" s="10"/>
       <c r="O813" s="2"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="16"/>
+      <c r="A814" s="10"/>
       <c r="O814" s="2"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="16"/>
+      <c r="A815" s="10"/>
       <c r="O815" s="2"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="16"/>
+      <c r="A816" s="10"/>
       <c r="O816" s="2"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="16"/>
+      <c r="A817" s="10"/>
       <c r="O817" s="2"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="16"/>
+      <c r="A818" s="10"/>
       <c r="O818" s="2"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="16"/>
+      <c r="A819" s="10"/>
       <c r="O819" s="2"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="16"/>
+      <c r="A820" s="10"/>
       <c r="O820" s="2"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="16"/>
+      <c r="A821" s="10"/>
       <c r="O821" s="2"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="16"/>
+      <c r="A822" s="10"/>
       <c r="O822" s="2"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="16"/>
+      <c r="A823" s="10"/>
       <c r="O823" s="2"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="16"/>
+      <c r="A824" s="10"/>
       <c r="O824" s="2"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="16"/>
+      <c r="A825" s="10"/>
       <c r="O825" s="2"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="16"/>
+      <c r="A826" s="10"/>
       <c r="O826" s="2"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="16"/>
+      <c r="A827" s="10"/>
       <c r="O827" s="2"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="16"/>
+      <c r="A828" s="10"/>
       <c r="O828" s="2"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="16"/>
+      <c r="A829" s="10"/>
       <c r="O829" s="2"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="16"/>
+      <c r="A830" s="10"/>
       <c r="O830" s="2"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="16"/>
+      <c r="A831" s="10"/>
       <c r="O831" s="2"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="16"/>
+      <c r="A832" s="10"/>
       <c r="O832" s="2"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="16"/>
+      <c r="A833" s="10"/>
       <c r="O833" s="2"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="16"/>
+      <c r="A834" s="10"/>
       <c r="O834" s="2"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="16"/>
+      <c r="A835" s="10"/>
       <c r="O835" s="2"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="16"/>
+      <c r="A836" s="10"/>
       <c r="O836" s="2"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="16"/>
+      <c r="A837" s="10"/>
       <c r="O837" s="2"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="16"/>
+      <c r="A838" s="10"/>
       <c r="O838" s="2"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="16"/>
+      <c r="A839" s="10"/>
       <c r="O839" s="2"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="16"/>
+      <c r="A840" s="10"/>
       <c r="O840" s="2"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="16"/>
+      <c r="A841" s="10"/>
       <c r="O841" s="2"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="16"/>
+      <c r="A842" s="10"/>
       <c r="O842" s="2"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="16"/>
+      <c r="A843" s="10"/>
       <c r="O843" s="2"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="16"/>
+      <c r="A844" s="10"/>
       <c r="O844" s="2"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="16"/>
+      <c r="A845" s="10"/>
       <c r="O845" s="2"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="16"/>
+      <c r="A846" s="10"/>
       <c r="O846" s="2"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="16"/>
+      <c r="A847" s="10"/>
       <c r="O847" s="2"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="16"/>
+      <c r="A848" s="10"/>
       <c r="O848" s="2"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="16"/>
+      <c r="A849" s="10"/>
       <c r="O849" s="2"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="16"/>
+      <c r="A850" s="10"/>
       <c r="O850" s="2"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="16"/>
+      <c r="A851" s="10"/>
       <c r="O851" s="2"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="16"/>
+      <c r="A852" s="10"/>
       <c r="O852" s="2"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="16"/>
+      <c r="A853" s="10"/>
       <c r="O853" s="2"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="16"/>
+      <c r="A854" s="10"/>
       <c r="O854" s="2"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="16"/>
+      <c r="A855" s="10"/>
       <c r="O855" s="2"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="16"/>
+      <c r="A856" s="10"/>
       <c r="O856" s="2"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="16"/>
+      <c r="A857" s="10"/>
       <c r="O857" s="2"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="16"/>
+      <c r="A858" s="10"/>
       <c r="O858" s="2"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="16"/>
+      <c r="A859" s="10"/>
       <c r="O859" s="2"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="16"/>
+      <c r="A860" s="10"/>
       <c r="O860" s="2"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="16"/>
+      <c r="A861" s="10"/>
       <c r="O861" s="2"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="16"/>
+      <c r="A862" s="10"/>
       <c r="O862" s="2"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="16"/>
+      <c r="A863" s="10"/>
       <c r="O863" s="2"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="16"/>
+      <c r="A864" s="10"/>
       <c r="O864" s="2"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="16"/>
+      <c r="A865" s="10"/>
       <c r="O865" s="2"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="16"/>
+      <c r="A866" s="10"/>
       <c r="O866" s="2"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="16"/>
+      <c r="A867" s="10"/>
       <c r="O867" s="2"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="16"/>
+      <c r="A868" s="10"/>
       <c r="O868" s="2"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="16"/>
+      <c r="A869" s="10"/>
       <c r="O869" s="2"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="16"/>
+      <c r="A870" s="10"/>
       <c r="O870" s="2"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="16"/>
+      <c r="A871" s="10"/>
       <c r="O871" s="2"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="16"/>
+      <c r="A872" s="10"/>
       <c r="O872" s="2"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="16"/>
+      <c r="A873" s="10"/>
       <c r="O873" s="2"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="16"/>
+      <c r="A874" s="10"/>
       <c r="O874" s="2"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="16"/>
+      <c r="A875" s="10"/>
       <c r="O875" s="2"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="16"/>
+      <c r="A876" s="10"/>
       <c r="O876" s="2"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="16"/>
+      <c r="A877" s="10"/>
       <c r="O877" s="2"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="16"/>
+      <c r="A878" s="10"/>
       <c r="O878" s="2"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="16"/>
+      <c r="A879" s="10"/>
       <c r="O879" s="2"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="16"/>
+      <c r="A880" s="10"/>
       <c r="O880" s="2"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="16"/>
+      <c r="A881" s="10"/>
       <c r="O881" s="2"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="16"/>
+      <c r="A882" s="10"/>
       <c r="O882" s="2"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="16"/>
+      <c r="A883" s="10"/>
       <c r="O883" s="2"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="16"/>
+      <c r="A884" s="10"/>
       <c r="O884" s="2"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="16"/>
+      <c r="A885" s="10"/>
       <c r="O885" s="2"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="16"/>
+      <c r="A886" s="10"/>
       <c r="O886" s="2"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="16"/>
+      <c r="A887" s="10"/>
       <c r="O887" s="2"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="16"/>
+      <c r="A888" s="10"/>
       <c r="O888" s="2"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="16"/>
+      <c r="A889" s="10"/>
       <c r="O889" s="2"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="16"/>
+      <c r="A890" s="10"/>
       <c r="O890" s="2"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="16"/>
+      <c r="A891" s="10"/>
       <c r="O891" s="2"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="16"/>
+      <c r="A892" s="10"/>
       <c r="O892" s="2"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="16"/>
+      <c r="A893" s="10"/>
       <c r="O893" s="2"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="16"/>
+      <c r="A894" s="10"/>
       <c r="O894" s="2"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="16"/>
+      <c r="A895" s="10"/>
       <c r="O895" s="2"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="16"/>
+      <c r="A896" s="10"/>
       <c r="O896" s="2"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="16"/>
+      <c r="A897" s="10"/>
       <c r="O897" s="2"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="16"/>
+      <c r="A898" s="10"/>
       <c r="O898" s="2"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="16"/>
+      <c r="A899" s="10"/>
       <c r="O899" s="2"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="16"/>
+      <c r="A900" s="10"/>
       <c r="O900" s="2"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="16"/>
+      <c r="A901" s="10"/>
       <c r="O901" s="2"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="16"/>
+      <c r="A902" s="10"/>
       <c r="O902" s="2"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="16"/>
+      <c r="A903" s="10"/>
       <c r="O903" s="2"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="16"/>
+      <c r="A904" s="10"/>
       <c r="O904" s="2"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="16"/>
+      <c r="A905" s="10"/>
       <c r="O905" s="2"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="16"/>
+      <c r="A906" s="10"/>
       <c r="O906" s="2"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="16"/>
+      <c r="A907" s="10"/>
       <c r="O907" s="2"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="16"/>
+      <c r="A908" s="10"/>
       <c r="O908" s="2"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="16"/>
+      <c r="A909" s="10"/>
       <c r="O909" s="2"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="16"/>
+      <c r="A910" s="10"/>
       <c r="O910" s="2"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="16"/>
+      <c r="A911" s="10"/>
       <c r="O911" s="2"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="16"/>
+      <c r="A912" s="10"/>
       <c r="O912" s="2"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="16"/>
+      <c r="A913" s="10"/>
       <c r="O913" s="2"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="16"/>
+      <c r="A914" s="10"/>
       <c r="O914" s="2"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="16"/>
+      <c r="A915" s="10"/>
       <c r="O915" s="2"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="16"/>
+      <c r="A916" s="10"/>
       <c r="O916" s="2"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="16"/>
+      <c r="A917" s="10"/>
       <c r="O917" s="2"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="16"/>
+      <c r="A918" s="10"/>
       <c r="O918" s="2"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="16"/>
+      <c r="A919" s="10"/>
       <c r="O919" s="2"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="16"/>
+      <c r="A920" s="10"/>
       <c r="O920" s="2"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="16"/>
+      <c r="A921" s="10"/>
       <c r="O921" s="2"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="16"/>
+      <c r="A922" s="10"/>
       <c r="O922" s="2"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="16"/>
+      <c r="A923" s="10"/>
       <c r="O923" s="2"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="16"/>
+      <c r="A924" s="10"/>
       <c r="O924" s="2"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="16"/>
+      <c r="A925" s="10"/>
       <c r="O925" s="2"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="16"/>
+      <c r="A926" s="10"/>
       <c r="O926" s="2"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="16"/>
+      <c r="A927" s="10"/>
       <c r="O927" s="2"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="16"/>
+      <c r="A928" s="10"/>
       <c r="O928" s="2"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="16"/>
+      <c r="A929" s="10"/>
       <c r="O929" s="2"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="16"/>
+      <c r="A930" s="10"/>
       <c r="O930" s="2"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="16"/>
+      <c r="A931" s="10"/>
       <c r="O931" s="2"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="16"/>
+      <c r="A932" s="10"/>
       <c r="O932" s="2"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="16"/>
+      <c r="A933" s="10"/>
       <c r="O933" s="2"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="16"/>
+      <c r="A934" s="10"/>
       <c r="O934" s="2"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="16"/>
+      <c r="A935" s="10"/>
       <c r="O935" s="2"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="16"/>
+      <c r="A936" s="10"/>
       <c r="O936" s="2"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="16"/>
+      <c r="A937" s="10"/>
       <c r="O937" s="2"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="16"/>
+      <c r="A938" s="10"/>
       <c r="O938" s="2"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="16"/>
+      <c r="A939" s="10"/>
       <c r="O939" s="2"/>
     </row>
   </sheetData>

--- a/data/VGPs_NAM/4.xlsx
+++ b/data/VGPs_NAM/4.xlsx
@@ -293,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -309,7 +309,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -328,17 +327,6 @@
       <sz val="11.0"/>
       <color rgb="FF2E2E2E"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF2E2E2E"/>
     </font>
     <font>
       <b/>
@@ -373,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -398,72 +386,59 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -686,7 +661,7 @@
     <col customWidth="1" min="2" max="2" width="10.38"/>
     <col customWidth="1" min="3" max="21" width="9.38"/>
     <col customWidth="1" min="22" max="22" width="12.25"/>
-    <col customWidth="1" min="23" max="23" width="17.0"/>
+    <col customWidth="1" min="23" max="23" width="39.63"/>
     <col customWidth="1" min="24" max="30" width="9.38"/>
   </cols>
   <sheetData>
@@ -817,14 +792,14 @@
         <v>3.5</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
+      <c r="P3" s="7"/>
       <c r="Q3" s="6">
         <v>0.0</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="6">
         <v>2.58</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="T3" s="6" t="s">
@@ -837,16 +812,16 @@
       <c r="W3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="AA3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="10"/>
+      <c r="A4" s="8"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5">
@@ -936,13 +911,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="6">
         <v>20.87</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>-103.84</v>
       </c>
       <c r="D7" s="6">
@@ -966,29 +941,29 @@
       <c r="J7" s="6">
         <v>28.4</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
       <c r="T7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="15" t="s">
+      <c r="U7" s="11"/>
+      <c r="V7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W7" s="16" t="s">
+      <c r="W7" s="14" t="s">
         <v>29</v>
       </c>
       <c r="AA7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="6">
@@ -1018,29 +993,29 @@
       <c r="J8" s="6">
         <v>359.6</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="17">
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="15">
         <v>0.55</v>
       </c>
       <c r="P8" s="6">
         <v>0.06</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
       <c r="S8" s="6" t="s">
         <v>41</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="13"/>
-      <c r="V8" s="15" t="s">
+      <c r="U8" s="11"/>
+      <c r="V8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W8" s="16" t="s">
+      <c r="W8" s="14" t="s">
         <v>29</v>
       </c>
       <c r="X8" s="6" t="s">
@@ -1048,7 +1023,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="6">
@@ -1078,29 +1053,29 @@
       <c r="J9" s="6">
         <v>202.2</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="17">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="15">
         <v>1.6</v>
       </c>
       <c r="P9" s="6">
         <v>0.1</v>
       </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
       <c r="S9" s="6" t="s">
         <v>41</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="13"/>
-      <c r="V9" s="15" t="s">
+      <c r="U9" s="11"/>
+      <c r="V9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="16" t="s">
+      <c r="W9" s="14" t="s">
         <v>29</v>
       </c>
       <c r="X9" s="6" t="s">
@@ -1108,7 +1083,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="6">
@@ -1138,28 +1113,28 @@
       <c r="J10" s="6">
         <v>284.7</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
       <c r="T10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U10" s="13"/>
-      <c r="V10" s="15" t="s">
+      <c r="U10" s="11"/>
+      <c r="V10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="6">
@@ -1189,28 +1164,28 @@
       <c r="J11" s="6">
         <v>232.5</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
       <c r="T11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U11" s="13"/>
-      <c r="V11" s="15" t="s">
+      <c r="U11" s="11"/>
+      <c r="V11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="6">
@@ -1240,29 +1215,29 @@
       <c r="J12" s="6">
         <v>313.3</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="17">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="15">
         <v>0.54</v>
       </c>
       <c r="P12" s="6">
         <v>0.07</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
       <c r="S12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="T12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="13"/>
-      <c r="V12" s="15" t="s">
+      <c r="U12" s="11"/>
+      <c r="V12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W12" s="16" t="s">
+      <c r="W12" s="14" t="s">
         <v>29</v>
       </c>
       <c r="X12" s="6" t="s">
@@ -1270,7 +1245,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="6">
@@ -1300,29 +1275,29 @@
       <c r="J13" s="6">
         <v>85.9</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="17">
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="15">
         <v>0.87</v>
       </c>
       <c r="P13" s="6">
         <v>0.05</v>
       </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
       <c r="S13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U13" s="13"/>
-      <c r="V13" s="15" t="s">
+      <c r="U13" s="11"/>
+      <c r="V13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="16" t="s">
+      <c r="W13" s="14" t="s">
         <v>29</v>
       </c>
       <c r="X13" s="6" t="s">
@@ -1330,59 +1305,59 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <v>19.29</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="17">
         <v>-100.35</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="17">
         <v>8.0</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <v>357.2</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="17">
         <v>20.9</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="17">
         <v>399.9</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <v>2.8</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="17">
         <v>81.1</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="17">
         <v>97.7</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="19">
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="17">
         <v>1.5</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="17">
         <v>0.3</v>
       </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
       <c r="S14" s="6" t="s">
         <v>41</v>
       </c>
       <c r="T14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U14" s="13"/>
-      <c r="V14" s="15" t="s">
+      <c r="U14" s="11"/>
+      <c r="V14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W14" s="16" t="s">
+      <c r="W14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="X14" s="6" t="s">
@@ -1390,110 +1365,110 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="17">
         <v>19.31</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <v>-100.35</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="17">
         <v>10.0</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <v>348.0</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="17">
         <v>46.5</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="17">
         <v>556.8</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <v>2.0</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="17">
         <v>76.1</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="17">
         <v>209.5</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="20"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="18"/>
       <c r="T15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="15" t="s">
+      <c r="U15" s="11"/>
+      <c r="V15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W15" s="16" t="s">
+      <c r="W15" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="17">
         <v>19.38</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>-100.34</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="17">
         <v>10.0</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>28.1</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="17">
         <v>42.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="17">
         <v>204.7</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <v>3.4</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="17">
         <v>63.5</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="17">
         <v>333.7</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="19">
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="17">
         <v>1.6</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="17">
         <v>0.3</v>
       </c>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
       <c r="S16" s="6" t="s">
         <v>41</v>
       </c>
       <c r="T16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U16" s="13"/>
-      <c r="V16" s="15" t="s">
+      <c r="U16" s="11"/>
+      <c r="V16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W16" s="16" t="s">
+      <c r="W16" s="14" t="s">
         <v>29</v>
       </c>
       <c r="X16" s="6" t="s">
@@ -1501,59 +1476,59 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="17">
         <v>19.36</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>-100.32</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="17">
         <v>8.0</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <v>313.0</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="17">
         <v>19.4</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="17">
         <v>291.3</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <v>2.9</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="17">
         <v>43.7</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="17">
         <v>165.0</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="19">
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="17">
         <v>0.67</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="17">
         <v>0.07</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="6" t="s">
         <v>41</v>
       </c>
       <c r="T17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U17" s="21"/>
-      <c r="V17" s="15" t="s">
+      <c r="U17" s="11"/>
+      <c r="V17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="W17" s="16" t="s">
+      <c r="W17" s="14" t="s">
         <v>29</v>
       </c>
       <c r="X17" s="6" t="s">
@@ -1564,547 +1539,547 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="20">
         <f>round(19+(17.75/60),2)</f>
         <v>19.3</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="20">
         <f>-round(99+(23.95/60),2)</f>
         <v>-99.4</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="17">
         <v>10.0</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="17">
         <v>167.3</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="21">
         <v>-26.7</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="21">
         <v>130.5</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="21">
         <v>4.2</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="20"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
       <c r="T18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U18" s="13"/>
-      <c r="V18" s="26" t="s">
+      <c r="U18" s="11"/>
+      <c r="V18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W18" s="15" t="s">
+      <c r="W18" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="20">
         <f>round(19+(19/60),2)</f>
         <v>19.32</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="20">
         <f>-round(99+(19.52/60),2)</f>
         <v>-99.33</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="17">
         <v>10.0</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="17">
         <v>177.0</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="21">
         <v>-53.9</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="21">
         <v>80.1</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="21">
         <v>5.4</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="20"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
       <c r="T19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U19" s="13"/>
-      <c r="V19" s="26" t="s">
+      <c r="U19" s="11"/>
+      <c r="V19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W19" s="15" t="s">
+      <c r="W19" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="20">
         <f>round(19+(17.67/60),2)</f>
         <v>19.29</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="20">
         <f>-round(99+(20.45/60),2)</f>
         <v>-99.34</v>
       </c>
       <c r="D20" s="6">
         <v>9.0</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="21">
         <v>362.2</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="21">
         <v>32.2</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="21">
         <v>170.4</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="21">
         <v>4.0</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="17">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="15">
         <v>0.679</v>
       </c>
       <c r="P20" s="6">
         <v>0.28</v>
       </c>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="9" t="s">
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="6" t="s">
         <v>41</v>
       </c>
       <c r="T20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U20" s="13"/>
-      <c r="V20" s="26" t="s">
+      <c r="U20" s="11"/>
+      <c r="V20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W20" s="15" t="s">
+      <c r="W20" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="20">
         <f>round(19+(18.42/60),2)</f>
         <v>19.31</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="20">
         <f>-round(99+(20.67/60),2)</f>
         <v>-99.34</v>
       </c>
       <c r="D21" s="6">
         <v>8.0</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="21">
         <v>352.1</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="21">
         <v>45.6</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="21">
         <v>337.7</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="21">
         <v>3.0</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="13"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
       <c r="T21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U21" s="13"/>
-      <c r="V21" s="26" t="s">
+      <c r="U21" s="11"/>
+      <c r="V21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W21" s="15" t="s">
+      <c r="W21" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="20">
         <f>round(19+(19.9/60),2)</f>
         <v>19.33</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="20">
         <f>-round(98+(47/60),2)</f>
         <v>-98.78</v>
       </c>
       <c r="D22" s="6">
         <v>10.0</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="21">
         <v>358.3</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="21">
         <v>33.8</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="21">
         <v>108.8</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="21">
         <v>4.7</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="13"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
       <c r="T22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U22" s="13"/>
-      <c r="V22" s="26" t="s">
+      <c r="U22" s="11"/>
+      <c r="V22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W22" s="15" t="s">
+      <c r="W22" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="20">
         <f>round(19+(20.37/60),2)</f>
         <v>19.34</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="20">
         <f>-round(98+(42.83/60),2)</f>
         <v>-98.71</v>
       </c>
       <c r="D23" s="6">
         <v>11.0</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="21">
         <v>324.6</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="21">
         <v>36.3</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="21">
         <v>93.0</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="21">
         <v>4.8</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="13"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
       <c r="T23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U23" s="13"/>
-      <c r="V23" s="26" t="s">
+      <c r="U23" s="11"/>
+      <c r="V23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W23" s="15" t="s">
+      <c r="W23" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="20">
         <f>round(19+(19.35/60),2)</f>
         <v>19.32</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="20">
         <f>-round(98+(43.72/60),2)</f>
         <v>-98.73</v>
       </c>
       <c r="D24" s="6">
         <v>10.0</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="21">
         <v>191.0</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="21">
         <v>-32.0</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="21">
         <v>389.1</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="21">
         <v>2.5</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="13"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
       <c r="T24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U24" s="13"/>
-      <c r="V24" s="26" t="s">
+      <c r="U24" s="11"/>
+      <c r="V24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W24" s="15" t="s">
+      <c r="W24" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="20">
         <f>round(19+(20.63/60),2)</f>
         <v>19.34</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="20">
         <f>-round(98+(41.58/60),2)</f>
         <v>-98.69</v>
       </c>
       <c r="D25" s="6">
         <v>11.0</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="21">
         <v>343.7</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="21">
         <v>34.0</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="21">
         <v>35.1</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="21">
         <v>7.8</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
       <c r="T25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U25" s="13"/>
-      <c r="V25" s="26" t="s">
+      <c r="U25" s="11"/>
+      <c r="V25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W25" s="15" t="s">
+      <c r="W25" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="20">
         <f>round(19+(17.57/60),2)</f>
         <v>19.29</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="20">
         <f>-round(98+(40.65/60),2)</f>
         <v>-98.68</v>
       </c>
       <c r="D26" s="6">
         <v>13.0</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="21">
         <v>356.5</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="21">
         <v>38.2</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="21">
         <v>112.7</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="21">
         <v>3.9</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
       <c r="T26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U26" s="13"/>
-      <c r="V26" s="26" t="s">
+      <c r="U26" s="11"/>
+      <c r="V26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W26" s="15" t="s">
+      <c r="W26" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="20">
         <f>round(19+(16.83/60),2)</f>
         <v>19.28</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="20">
         <f>-round(98+(43.22/60),2)</f>
         <v>-98.72</v>
       </c>
       <c r="D27" s="6">
         <v>10.0</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="21">
         <v>6.2</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="21">
         <v>34.6</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="21">
         <v>84.4</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="21">
         <v>5.3</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
       <c r="T27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U27" s="13"/>
-      <c r="V27" s="26" t="s">
+      <c r="U27" s="11"/>
+      <c r="V27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W27" s="15" t="s">
+      <c r="W27" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="20">
         <f>round(19+(3.55/60),2)</f>
         <v>19.06</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="20">
         <f>-round(98+(22.5/60),2)</f>
         <v>-98.38</v>
       </c>
       <c r="D28" s="6">
         <v>10.0</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="21">
         <v>5.8</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="21">
         <v>16.7</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="21">
         <v>48.4</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="21">
         <v>7.0</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
       <c r="T28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U28" s="13"/>
-      <c r="V28" s="26" t="s">
+      <c r="U28" s="11"/>
+      <c r="V28" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="W28" s="15" t="s">
+      <c r="W28" s="13" t="s">
         <v>65</v>
       </c>
       <c r="Y28" s="6" t="s">
@@ -2112,198 +2087,198 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="20">
         <f>round(19+(5.17/60),2)</f>
         <v>19.09</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="20">
         <f>-round(98+(35.35/60),2)</f>
         <v>-98.59</v>
       </c>
       <c r="D29" s="6">
         <v>13.0</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="21">
         <v>2.1</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="21">
         <v>32.9</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="21">
         <v>116.0</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="21">
         <v>3.9</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
       <c r="T29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U29" s="13"/>
-      <c r="V29" s="26" t="s">
+      <c r="U29" s="11"/>
+      <c r="V29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W29" s="15" t="s">
+      <c r="W29" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="20">
         <f>round(19+(5.57/60),2)</f>
         <v>19.09</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="20">
         <f>-round(98+(37.15/60),2)</f>
         <v>-98.62</v>
       </c>
       <c r="D30" s="6">
         <v>9.0</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="21">
         <v>0.9</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="21">
         <v>19.7</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="21">
         <v>117.5</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="21">
         <v>3.9</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
       <c r="T30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U30" s="13"/>
-      <c r="V30" s="26" t="s">
+      <c r="U30" s="11"/>
+      <c r="V30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W30" s="15" t="s">
+      <c r="W30" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="20">
         <f>round(19+(8.15/ 60),2)</f>
         <v>19.14</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="20">
         <f>-round(98+(38.93/60),2)</f>
         <v>-98.65</v>
       </c>
       <c r="D31" s="6">
         <v>11.0</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="21">
         <v>4.4</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="21">
         <v>32.4</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="21">
         <v>84.1</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="21">
         <v>5.0</v>
       </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
       <c r="T31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U31" s="13"/>
-      <c r="V31" s="26" t="s">
+      <c r="U31" s="11"/>
+      <c r="V31" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W31" s="15" t="s">
+      <c r="W31" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="20">
         <f>round(19+(12.63/60),2)</f>
         <v>19.21</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="20">
         <f>-round(98+(44.43/60),2)</f>
         <v>-98.74</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="21">
         <v>11.0</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="21">
         <v>180.8</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="21">
         <v>-16.5</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="21">
         <v>357.2</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="21">
         <v>2.4</v>
       </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
       <c r="T32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U32" s="13"/>
-      <c r="V32" s="26" t="s">
+      <c r="U32" s="11"/>
+      <c r="V32" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="W32" s="15" t="s">
+      <c r="W32" s="13" t="s">
         <v>65</v>
       </c>
       <c r="Y32" s="6" t="s">
@@ -2311,170 +2286,170 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="20">
         <f>round(19+(11.68/60),2)</f>
         <v>19.19</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="20">
         <f>-round(98+(347.78/60),2)</f>
         <v>-103.8</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="21">
         <v>11.0</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="21">
         <v>355.2</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="21">
         <v>24.4</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="21">
         <v>98.6</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="21">
         <v>4.6</v>
       </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
       <c r="T33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U33" s="13"/>
-      <c r="V33" s="26" t="s">
+      <c r="U33" s="11"/>
+      <c r="V33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W33" s="15" t="s">
+      <c r="W33" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
       <c r="O34" s="2"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
       <c r="O35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="22"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
       <c r="O36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
       <c r="O37" s="2"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="22"/>
+      <c r="A38" s="19"/>
       <c r="O38" s="2"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
       <c r="O39" s="2"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="22"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
       <c r="O40" s="2"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
       <c r="O41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="22"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
       <c r="O42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="22"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
       <c r="O43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="10"/>
+      <c r="A44" s="8"/>
       <c r="O44" s="2"/>
     </row>
     <row r="45">
@@ -2490,3567 +2465,3567 @@
       <c r="O48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="10"/>
+      <c r="A49" s="8"/>
       <c r="O49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="10"/>
+      <c r="A50" s="8"/>
       <c r="O50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="10"/>
+      <c r="A51" s="8"/>
       <c r="O51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="10"/>
+      <c r="A52" s="8"/>
       <c r="O52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="10"/>
+      <c r="A53" s="8"/>
       <c r="O53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="10"/>
+      <c r="A54" s="8"/>
       <c r="O54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="10"/>
+      <c r="A55" s="8"/>
       <c r="O55" s="2"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="10"/>
+      <c r="A56" s="8"/>
       <c r="O56" s="2"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="10"/>
+      <c r="A57" s="8"/>
       <c r="O57" s="2"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="10"/>
+      <c r="A58" s="8"/>
       <c r="O58" s="2"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="10"/>
+      <c r="A59" s="8"/>
       <c r="O59" s="2"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="10"/>
+      <c r="A60" s="8"/>
       <c r="O60" s="2"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="10"/>
+      <c r="A61" s="8"/>
       <c r="O61" s="2"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="10"/>
+      <c r="A62" s="8"/>
       <c r="O62" s="2"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="10"/>
+      <c r="A63" s="8"/>
       <c r="O63" s="2"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="10"/>
+      <c r="A64" s="8"/>
       <c r="O64" s="2"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="10"/>
+      <c r="A65" s="8"/>
       <c r="O65" s="2"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="10"/>
+      <c r="A66" s="8"/>
       <c r="O66" s="2"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="10"/>
+      <c r="A67" s="8"/>
       <c r="O67" s="2"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="10"/>
+      <c r="A68" s="8"/>
       <c r="O68" s="2"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="10"/>
+      <c r="A69" s="8"/>
       <c r="O69" s="2"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="10"/>
+      <c r="A70" s="8"/>
       <c r="O70" s="2"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="10"/>
+      <c r="A71" s="8"/>
       <c r="O71" s="2"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="10"/>
+      <c r="A72" s="8"/>
       <c r="O72" s="2"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="10"/>
+      <c r="A73" s="8"/>
       <c r="O73" s="2"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="10"/>
+      <c r="A74" s="8"/>
       <c r="O74" s="2"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="10"/>
+      <c r="A75" s="8"/>
       <c r="O75" s="2"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="10"/>
+      <c r="A76" s="8"/>
       <c r="O76" s="2"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="10"/>
+      <c r="A77" s="8"/>
       <c r="O77" s="2"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="10"/>
+      <c r="A78" s="8"/>
       <c r="O78" s="2"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="10"/>
+      <c r="A79" s="8"/>
       <c r="O79" s="2"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="10"/>
+      <c r="A80" s="8"/>
       <c r="O80" s="2"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="10"/>
+      <c r="A81" s="8"/>
       <c r="O81" s="2"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="10"/>
+      <c r="A82" s="8"/>
       <c r="O82" s="2"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="10"/>
+      <c r="A83" s="8"/>
       <c r="O83" s="2"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="10"/>
+      <c r="A84" s="8"/>
       <c r="O84" s="2"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="10"/>
+      <c r="A85" s="8"/>
       <c r="O85" s="2"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="10"/>
+      <c r="A86" s="8"/>
       <c r="O86" s="2"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="10"/>
+      <c r="A87" s="8"/>
       <c r="O87" s="2"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="10"/>
+      <c r="A88" s="8"/>
       <c r="O88" s="2"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="10"/>
+      <c r="A89" s="8"/>
       <c r="O89" s="2"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="10"/>
+      <c r="A90" s="8"/>
       <c r="O90" s="2"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="10"/>
+      <c r="A91" s="8"/>
       <c r="O91" s="2"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="10"/>
+      <c r="A92" s="8"/>
       <c r="O92" s="2"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="10"/>
+      <c r="A93" s="8"/>
       <c r="O93" s="2"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="10"/>
+      <c r="A94" s="8"/>
       <c r="O94" s="2"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="10"/>
+      <c r="A95" s="8"/>
       <c r="O95" s="2"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="10"/>
+      <c r="A96" s="8"/>
       <c r="O96" s="2"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="10"/>
+      <c r="A97" s="8"/>
       <c r="O97" s="2"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="10"/>
+      <c r="A98" s="8"/>
       <c r="O98" s="2"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="10"/>
+      <c r="A99" s="8"/>
       <c r="O99" s="2"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="10"/>
+      <c r="A100" s="8"/>
       <c r="O100" s="2"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="10"/>
+      <c r="A101" s="8"/>
       <c r="O101" s="2"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="10"/>
+      <c r="A102" s="8"/>
       <c r="O102" s="2"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="10"/>
+      <c r="A103" s="8"/>
       <c r="O103" s="2"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="10"/>
+      <c r="A104" s="8"/>
       <c r="O104" s="2"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="10"/>
+      <c r="A105" s="8"/>
       <c r="O105" s="2"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="10"/>
+      <c r="A106" s="8"/>
       <c r="O106" s="2"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="10"/>
+      <c r="A107" s="8"/>
       <c r="O107" s="2"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="10"/>
+      <c r="A108" s="8"/>
       <c r="O108" s="2"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="10"/>
+      <c r="A109" s="8"/>
       <c r="O109" s="2"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="10"/>
+      <c r="A110" s="8"/>
       <c r="O110" s="2"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="10"/>
+      <c r="A111" s="8"/>
       <c r="O111" s="2"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="10"/>
+      <c r="A112" s="8"/>
       <c r="O112" s="2"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="10"/>
+      <c r="A113" s="8"/>
       <c r="O113" s="2"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="10"/>
+      <c r="A114" s="8"/>
       <c r="O114" s="2"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="10"/>
+      <c r="A115" s="8"/>
       <c r="O115" s="2"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="10"/>
+      <c r="A116" s="8"/>
       <c r="O116" s="2"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="10"/>
+      <c r="A117" s="8"/>
       <c r="O117" s="2"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="10"/>
+      <c r="A118" s="8"/>
       <c r="O118" s="2"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="10"/>
+      <c r="A119" s="8"/>
       <c r="O119" s="2"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="10"/>
+      <c r="A120" s="8"/>
       <c r="O120" s="2"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="10"/>
+      <c r="A121" s="8"/>
       <c r="O121" s="2"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="10"/>
+      <c r="A122" s="8"/>
       <c r="O122" s="2"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="10"/>
+      <c r="A123" s="8"/>
       <c r="O123" s="2"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="10"/>
+      <c r="A124" s="8"/>
       <c r="O124" s="2"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="10"/>
+      <c r="A125" s="8"/>
       <c r="O125" s="2"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="10"/>
+      <c r="A126" s="8"/>
       <c r="O126" s="2"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="10"/>
+      <c r="A127" s="8"/>
       <c r="O127" s="2"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="10"/>
+      <c r="A128" s="8"/>
       <c r="O128" s="2"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="10"/>
+      <c r="A129" s="8"/>
       <c r="O129" s="2"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="10"/>
+      <c r="A130" s="8"/>
       <c r="O130" s="2"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="10"/>
+      <c r="A131" s="8"/>
       <c r="O131" s="2"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="10"/>
+      <c r="A132" s="8"/>
       <c r="O132" s="2"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="10"/>
+      <c r="A133" s="8"/>
       <c r="O133" s="2"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="10"/>
+      <c r="A134" s="8"/>
       <c r="O134" s="2"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="10"/>
+      <c r="A135" s="8"/>
       <c r="O135" s="2"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="10"/>
+      <c r="A136" s="8"/>
       <c r="O136" s="2"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="10"/>
+      <c r="A137" s="8"/>
       <c r="O137" s="2"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="10"/>
+      <c r="A138" s="8"/>
       <c r="O138" s="2"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="10"/>
+      <c r="A139" s="8"/>
       <c r="O139" s="2"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="10"/>
+      <c r="A140" s="8"/>
       <c r="O140" s="2"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="10"/>
+      <c r="A141" s="8"/>
       <c r="O141" s="2"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="10"/>
+      <c r="A142" s="8"/>
       <c r="O142" s="2"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="10"/>
+      <c r="A143" s="8"/>
       <c r="O143" s="2"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="10"/>
+      <c r="A144" s="8"/>
       <c r="O144" s="2"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="10"/>
+      <c r="A145" s="8"/>
       <c r="O145" s="2"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="10"/>
+      <c r="A146" s="8"/>
       <c r="O146" s="2"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="10"/>
+      <c r="A147" s="8"/>
       <c r="O147" s="2"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="10"/>
+      <c r="A148" s="8"/>
       <c r="O148" s="2"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="10"/>
+      <c r="A149" s="8"/>
       <c r="O149" s="2"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="10"/>
+      <c r="A150" s="8"/>
       <c r="O150" s="2"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="10"/>
+      <c r="A151" s="8"/>
       <c r="O151" s="2"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="10"/>
+      <c r="A152" s="8"/>
       <c r="O152" s="2"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="10"/>
+      <c r="A153" s="8"/>
       <c r="O153" s="2"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="10"/>
+      <c r="A154" s="8"/>
       <c r="O154" s="2"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="10"/>
+      <c r="A155" s="8"/>
       <c r="O155" s="2"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="10"/>
+      <c r="A156" s="8"/>
       <c r="O156" s="2"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="10"/>
+      <c r="A157" s="8"/>
       <c r="O157" s="2"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="10"/>
+      <c r="A158" s="8"/>
       <c r="O158" s="2"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="10"/>
+      <c r="A159" s="8"/>
       <c r="O159" s="2"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="10"/>
+      <c r="A160" s="8"/>
       <c r="O160" s="2"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="10"/>
+      <c r="A161" s="8"/>
       <c r="O161" s="2"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="10"/>
+      <c r="A162" s="8"/>
       <c r="O162" s="2"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="10"/>
+      <c r="A163" s="8"/>
       <c r="O163" s="2"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="10"/>
+      <c r="A164" s="8"/>
       <c r="O164" s="2"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="10"/>
+      <c r="A165" s="8"/>
       <c r="O165" s="2"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="10"/>
+      <c r="A166" s="8"/>
       <c r="O166" s="2"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="10"/>
+      <c r="A167" s="8"/>
       <c r="O167" s="2"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="10"/>
+      <c r="A168" s="8"/>
       <c r="O168" s="2"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="10"/>
+      <c r="A169" s="8"/>
       <c r="O169" s="2"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="10"/>
+      <c r="A170" s="8"/>
       <c r="O170" s="2"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="10"/>
+      <c r="A171" s="8"/>
       <c r="O171" s="2"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="10"/>
+      <c r="A172" s="8"/>
       <c r="O172" s="2"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="10"/>
+      <c r="A173" s="8"/>
       <c r="O173" s="2"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="10"/>
+      <c r="A174" s="8"/>
       <c r="O174" s="2"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="10"/>
+      <c r="A175" s="8"/>
       <c r="O175" s="2"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="10"/>
+      <c r="A176" s="8"/>
       <c r="O176" s="2"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="10"/>
+      <c r="A177" s="8"/>
       <c r="O177" s="2"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="10"/>
+      <c r="A178" s="8"/>
       <c r="O178" s="2"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="10"/>
+      <c r="A179" s="8"/>
       <c r="O179" s="2"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="10"/>
+      <c r="A180" s="8"/>
       <c r="O180" s="2"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="10"/>
+      <c r="A181" s="8"/>
       <c r="O181" s="2"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="10"/>
+      <c r="A182" s="8"/>
       <c r="O182" s="2"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="10"/>
+      <c r="A183" s="8"/>
       <c r="O183" s="2"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="10"/>
+      <c r="A184" s="8"/>
       <c r="O184" s="2"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="10"/>
+      <c r="A185" s="8"/>
       <c r="O185" s="2"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="10"/>
+      <c r="A186" s="8"/>
       <c r="O186" s="2"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="10"/>
+      <c r="A187" s="8"/>
       <c r="O187" s="2"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="10"/>
+      <c r="A188" s="8"/>
       <c r="O188" s="2"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="10"/>
+      <c r="A189" s="8"/>
       <c r="O189" s="2"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="10"/>
+      <c r="A190" s="8"/>
       <c r="O190" s="2"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="10"/>
+      <c r="A191" s="8"/>
       <c r="O191" s="2"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="10"/>
+      <c r="A192" s="8"/>
       <c r="O192" s="2"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="10"/>
+      <c r="A193" s="8"/>
       <c r="O193" s="2"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="10"/>
+      <c r="A194" s="8"/>
       <c r="O194" s="2"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="10"/>
+      <c r="A195" s="8"/>
       <c r="O195" s="2"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="10"/>
+      <c r="A196" s="8"/>
       <c r="O196" s="2"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="10"/>
+      <c r="A197" s="8"/>
       <c r="O197" s="2"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="10"/>
+      <c r="A198" s="8"/>
       <c r="O198" s="2"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="10"/>
+      <c r="A199" s="8"/>
       <c r="O199" s="2"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="10"/>
+      <c r="A200" s="8"/>
       <c r="O200" s="2"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="10"/>
+      <c r="A201" s="8"/>
       <c r="O201" s="2"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="10"/>
+      <c r="A202" s="8"/>
       <c r="O202" s="2"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="10"/>
+      <c r="A203" s="8"/>
       <c r="O203" s="2"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="10"/>
+      <c r="A204" s="8"/>
       <c r="O204" s="2"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="10"/>
+      <c r="A205" s="8"/>
       <c r="O205" s="2"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="10"/>
+      <c r="A206" s="8"/>
       <c r="O206" s="2"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="10"/>
+      <c r="A207" s="8"/>
       <c r="O207" s="2"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="10"/>
+      <c r="A208" s="8"/>
       <c r="O208" s="2"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="10"/>
+      <c r="A209" s="8"/>
       <c r="O209" s="2"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="10"/>
+      <c r="A210" s="8"/>
       <c r="O210" s="2"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="10"/>
+      <c r="A211" s="8"/>
       <c r="O211" s="2"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="10"/>
+      <c r="A212" s="8"/>
       <c r="O212" s="2"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="10"/>
+      <c r="A213" s="8"/>
       <c r="O213" s="2"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="10"/>
+      <c r="A214" s="8"/>
       <c r="O214" s="2"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="10"/>
+      <c r="A215" s="8"/>
       <c r="O215" s="2"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="10"/>
+      <c r="A216" s="8"/>
       <c r="O216" s="2"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="10"/>
+      <c r="A217" s="8"/>
       <c r="O217" s="2"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="10"/>
+      <c r="A218" s="8"/>
       <c r="O218" s="2"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="10"/>
+      <c r="A219" s="8"/>
       <c r="O219" s="2"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="10"/>
+      <c r="A220" s="8"/>
       <c r="O220" s="2"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="10"/>
+      <c r="A221" s="8"/>
       <c r="O221" s="2"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="10"/>
+      <c r="A222" s="8"/>
       <c r="O222" s="2"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="10"/>
+      <c r="A223" s="8"/>
       <c r="O223" s="2"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="10"/>
+      <c r="A224" s="8"/>
       <c r="O224" s="2"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="10"/>
+      <c r="A225" s="8"/>
       <c r="O225" s="2"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="10"/>
+      <c r="A226" s="8"/>
       <c r="O226" s="2"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="10"/>
+      <c r="A227" s="8"/>
       <c r="O227" s="2"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="10"/>
+      <c r="A228" s="8"/>
       <c r="O228" s="2"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="10"/>
+      <c r="A229" s="8"/>
       <c r="O229" s="2"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="10"/>
+      <c r="A230" s="8"/>
       <c r="O230" s="2"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="10"/>
+      <c r="A231" s="8"/>
       <c r="O231" s="2"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="10"/>
+      <c r="A232" s="8"/>
       <c r="O232" s="2"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="10"/>
+      <c r="A233" s="8"/>
       <c r="O233" s="2"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="10"/>
+      <c r="A234" s="8"/>
       <c r="O234" s="2"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="10"/>
+      <c r="A235" s="8"/>
       <c r="O235" s="2"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="10"/>
+      <c r="A236" s="8"/>
       <c r="O236" s="2"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="10"/>
+      <c r="A237" s="8"/>
       <c r="O237" s="2"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="10"/>
+      <c r="A238" s="8"/>
       <c r="O238" s="2"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="10"/>
+      <c r="A239" s="8"/>
       <c r="O239" s="2"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="10"/>
+      <c r="A240" s="8"/>
       <c r="O240" s="2"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="10"/>
+      <c r="A241" s="8"/>
       <c r="O241" s="2"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="10"/>
+      <c r="A242" s="8"/>
       <c r="O242" s="2"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="10"/>
+      <c r="A243" s="8"/>
       <c r="O243" s="2"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="10"/>
+      <c r="A244" s="8"/>
       <c r="O244" s="2"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="10"/>
+      <c r="A245" s="8"/>
       <c r="O245" s="2"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="10"/>
+      <c r="A246" s="8"/>
       <c r="O246" s="2"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="10"/>
+      <c r="A247" s="8"/>
       <c r="O247" s="2"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="10"/>
+      <c r="A248" s="8"/>
       <c r="O248" s="2"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="10"/>
+      <c r="A249" s="8"/>
       <c r="O249" s="2"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="10"/>
+      <c r="A250" s="8"/>
       <c r="O250" s="2"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="10"/>
+      <c r="A251" s="8"/>
       <c r="O251" s="2"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="10"/>
+      <c r="A252" s="8"/>
       <c r="O252" s="2"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="10"/>
+      <c r="A253" s="8"/>
       <c r="O253" s="2"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="10"/>
+      <c r="A254" s="8"/>
       <c r="O254" s="2"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="10"/>
+      <c r="A255" s="8"/>
       <c r="O255" s="2"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="10"/>
+      <c r="A256" s="8"/>
       <c r="O256" s="2"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="10"/>
+      <c r="A257" s="8"/>
       <c r="O257" s="2"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="10"/>
+      <c r="A258" s="8"/>
       <c r="O258" s="2"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="10"/>
+      <c r="A259" s="8"/>
       <c r="O259" s="2"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="10"/>
+      <c r="A260" s="8"/>
       <c r="O260" s="2"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="10"/>
+      <c r="A261" s="8"/>
       <c r="O261" s="2"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="10"/>
+      <c r="A262" s="8"/>
       <c r="O262" s="2"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="10"/>
+      <c r="A263" s="8"/>
       <c r="O263" s="2"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="10"/>
+      <c r="A264" s="8"/>
       <c r="O264" s="2"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="10"/>
+      <c r="A265" s="8"/>
       <c r="O265" s="2"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="10"/>
+      <c r="A266" s="8"/>
       <c r="O266" s="2"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="10"/>
+      <c r="A267" s="8"/>
       <c r="O267" s="2"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="10"/>
+      <c r="A268" s="8"/>
       <c r="O268" s="2"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="10"/>
+      <c r="A269" s="8"/>
       <c r="O269" s="2"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="10"/>
+      <c r="A270" s="8"/>
       <c r="O270" s="2"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="10"/>
+      <c r="A271" s="8"/>
       <c r="O271" s="2"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="10"/>
+      <c r="A272" s="8"/>
       <c r="O272" s="2"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="10"/>
+      <c r="A273" s="8"/>
       <c r="O273" s="2"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="10"/>
+      <c r="A274" s="8"/>
       <c r="O274" s="2"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="10"/>
+      <c r="A275" s="8"/>
       <c r="O275" s="2"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="10"/>
+      <c r="A276" s="8"/>
       <c r="O276" s="2"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="10"/>
+      <c r="A277" s="8"/>
       <c r="O277" s="2"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="10"/>
+      <c r="A278" s="8"/>
       <c r="O278" s="2"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="10"/>
+      <c r="A279" s="8"/>
       <c r="O279" s="2"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="10"/>
+      <c r="A280" s="8"/>
       <c r="O280" s="2"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="10"/>
+      <c r="A281" s="8"/>
       <c r="O281" s="2"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="10"/>
+      <c r="A282" s="8"/>
       <c r="O282" s="2"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="10"/>
+      <c r="A283" s="8"/>
       <c r="O283" s="2"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="10"/>
+      <c r="A284" s="8"/>
       <c r="O284" s="2"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="10"/>
+      <c r="A285" s="8"/>
       <c r="O285" s="2"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="10"/>
+      <c r="A286" s="8"/>
       <c r="O286" s="2"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="10"/>
+      <c r="A287" s="8"/>
       <c r="O287" s="2"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="10"/>
+      <c r="A288" s="8"/>
       <c r="O288" s="2"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="10"/>
+      <c r="A289" s="8"/>
       <c r="O289" s="2"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="10"/>
+      <c r="A290" s="8"/>
       <c r="O290" s="2"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="10"/>
+      <c r="A291" s="8"/>
       <c r="O291" s="2"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="10"/>
+      <c r="A292" s="8"/>
       <c r="O292" s="2"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="10"/>
+      <c r="A293" s="8"/>
       <c r="O293" s="2"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="10"/>
+      <c r="A294" s="8"/>
       <c r="O294" s="2"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="10"/>
+      <c r="A295" s="8"/>
       <c r="O295" s="2"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="10"/>
+      <c r="A296" s="8"/>
       <c r="O296" s="2"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="10"/>
+      <c r="A297" s="8"/>
       <c r="O297" s="2"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="10"/>
+      <c r="A298" s="8"/>
       <c r="O298" s="2"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="10"/>
+      <c r="A299" s="8"/>
       <c r="O299" s="2"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="10"/>
+      <c r="A300" s="8"/>
       <c r="O300" s="2"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="10"/>
+      <c r="A301" s="8"/>
       <c r="O301" s="2"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="10"/>
+      <c r="A302" s="8"/>
       <c r="O302" s="2"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="10"/>
+      <c r="A303" s="8"/>
       <c r="O303" s="2"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="10"/>
+      <c r="A304" s="8"/>
       <c r="O304" s="2"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="10"/>
+      <c r="A305" s="8"/>
       <c r="O305" s="2"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="10"/>
+      <c r="A306" s="8"/>
       <c r="O306" s="2"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="10"/>
+      <c r="A307" s="8"/>
       <c r="O307" s="2"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="10"/>
+      <c r="A308" s="8"/>
       <c r="O308" s="2"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="10"/>
+      <c r="A309" s="8"/>
       <c r="O309" s="2"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="10"/>
+      <c r="A310" s="8"/>
       <c r="O310" s="2"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="10"/>
+      <c r="A311" s="8"/>
       <c r="O311" s="2"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="10"/>
+      <c r="A312" s="8"/>
       <c r="O312" s="2"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="10"/>
+      <c r="A313" s="8"/>
       <c r="O313" s="2"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="10"/>
+      <c r="A314" s="8"/>
       <c r="O314" s="2"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="10"/>
+      <c r="A315" s="8"/>
       <c r="O315" s="2"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="10"/>
+      <c r="A316" s="8"/>
       <c r="O316" s="2"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="10"/>
+      <c r="A317" s="8"/>
       <c r="O317" s="2"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="10"/>
+      <c r="A318" s="8"/>
       <c r="O318" s="2"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="10"/>
+      <c r="A319" s="8"/>
       <c r="O319" s="2"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="10"/>
+      <c r="A320" s="8"/>
       <c r="O320" s="2"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="10"/>
+      <c r="A321" s="8"/>
       <c r="O321" s="2"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="10"/>
+      <c r="A322" s="8"/>
       <c r="O322" s="2"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="10"/>
+      <c r="A323" s="8"/>
       <c r="O323" s="2"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="10"/>
+      <c r="A324" s="8"/>
       <c r="O324" s="2"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="10"/>
+      <c r="A325" s="8"/>
       <c r="O325" s="2"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="10"/>
+      <c r="A326" s="8"/>
       <c r="O326" s="2"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="10"/>
+      <c r="A327" s="8"/>
       <c r="O327" s="2"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="10"/>
+      <c r="A328" s="8"/>
       <c r="O328" s="2"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="10"/>
+      <c r="A329" s="8"/>
       <c r="O329" s="2"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="10"/>
+      <c r="A330" s="8"/>
       <c r="O330" s="2"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="10"/>
+      <c r="A331" s="8"/>
       <c r="O331" s="2"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="10"/>
+      <c r="A332" s="8"/>
       <c r="O332" s="2"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="10"/>
+      <c r="A333" s="8"/>
       <c r="O333" s="2"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="10"/>
+      <c r="A334" s="8"/>
       <c r="O334" s="2"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="10"/>
+      <c r="A335" s="8"/>
       <c r="O335" s="2"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="10"/>
+      <c r="A336" s="8"/>
       <c r="O336" s="2"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="10"/>
+      <c r="A337" s="8"/>
       <c r="O337" s="2"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="10"/>
+      <c r="A338" s="8"/>
       <c r="O338" s="2"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="10"/>
+      <c r="A339" s="8"/>
       <c r="O339" s="2"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="10"/>
+      <c r="A340" s="8"/>
       <c r="O340" s="2"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="10"/>
+      <c r="A341" s="8"/>
       <c r="O341" s="2"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="10"/>
+      <c r="A342" s="8"/>
       <c r="O342" s="2"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="10"/>
+      <c r="A343" s="8"/>
       <c r="O343" s="2"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="10"/>
+      <c r="A344" s="8"/>
       <c r="O344" s="2"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="10"/>
+      <c r="A345" s="8"/>
       <c r="O345" s="2"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="10"/>
+      <c r="A346" s="8"/>
       <c r="O346" s="2"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="10"/>
+      <c r="A347" s="8"/>
       <c r="O347" s="2"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="10"/>
+      <c r="A348" s="8"/>
       <c r="O348" s="2"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="10"/>
+      <c r="A349" s="8"/>
       <c r="O349" s="2"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="10"/>
+      <c r="A350" s="8"/>
       <c r="O350" s="2"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="10"/>
+      <c r="A351" s="8"/>
       <c r="O351" s="2"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="10"/>
+      <c r="A352" s="8"/>
       <c r="O352" s="2"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="10"/>
+      <c r="A353" s="8"/>
       <c r="O353" s="2"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="10"/>
+      <c r="A354" s="8"/>
       <c r="O354" s="2"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="10"/>
+      <c r="A355" s="8"/>
       <c r="O355" s="2"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="10"/>
+      <c r="A356" s="8"/>
       <c r="O356" s="2"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="10"/>
+      <c r="A357" s="8"/>
       <c r="O357" s="2"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="10"/>
+      <c r="A358" s="8"/>
       <c r="O358" s="2"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="10"/>
+      <c r="A359" s="8"/>
       <c r="O359" s="2"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="10"/>
+      <c r="A360" s="8"/>
       <c r="O360" s="2"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="10"/>
+      <c r="A361" s="8"/>
       <c r="O361" s="2"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="10"/>
+      <c r="A362" s="8"/>
       <c r="O362" s="2"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="10"/>
+      <c r="A363" s="8"/>
       <c r="O363" s="2"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="10"/>
+      <c r="A364" s="8"/>
       <c r="O364" s="2"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="10"/>
+      <c r="A365" s="8"/>
       <c r="O365" s="2"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="10"/>
+      <c r="A366" s="8"/>
       <c r="O366" s="2"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="10"/>
+      <c r="A367" s="8"/>
       <c r="O367" s="2"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="10"/>
+      <c r="A368" s="8"/>
       <c r="O368" s="2"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="10"/>
+      <c r="A369" s="8"/>
       <c r="O369" s="2"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="10"/>
+      <c r="A370" s="8"/>
       <c r="O370" s="2"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="10"/>
+      <c r="A371" s="8"/>
       <c r="O371" s="2"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="10"/>
+      <c r="A372" s="8"/>
       <c r="O372" s="2"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="10"/>
+      <c r="A373" s="8"/>
       <c r="O373" s="2"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="10"/>
+      <c r="A374" s="8"/>
       <c r="O374" s="2"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="10"/>
+      <c r="A375" s="8"/>
       <c r="O375" s="2"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="10"/>
+      <c r="A376" s="8"/>
       <c r="O376" s="2"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="10"/>
+      <c r="A377" s="8"/>
       <c r="O377" s="2"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="10"/>
+      <c r="A378" s="8"/>
       <c r="O378" s="2"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="10"/>
+      <c r="A379" s="8"/>
       <c r="O379" s="2"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="10"/>
+      <c r="A380" s="8"/>
       <c r="O380" s="2"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="10"/>
+      <c r="A381" s="8"/>
       <c r="O381" s="2"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="10"/>
+      <c r="A382" s="8"/>
       <c r="O382" s="2"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="10"/>
+      <c r="A383" s="8"/>
       <c r="O383" s="2"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="10"/>
+      <c r="A384" s="8"/>
       <c r="O384" s="2"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="10"/>
+      <c r="A385" s="8"/>
       <c r="O385" s="2"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="10"/>
+      <c r="A386" s="8"/>
       <c r="O386" s="2"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="10"/>
+      <c r="A387" s="8"/>
       <c r="O387" s="2"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="10"/>
+      <c r="A388" s="8"/>
       <c r="O388" s="2"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="10"/>
+      <c r="A389" s="8"/>
       <c r="O389" s="2"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="10"/>
+      <c r="A390" s="8"/>
       <c r="O390" s="2"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="10"/>
+      <c r="A391" s="8"/>
       <c r="O391" s="2"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="10"/>
+      <c r="A392" s="8"/>
       <c r="O392" s="2"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="10"/>
+      <c r="A393" s="8"/>
       <c r="O393" s="2"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="10"/>
+      <c r="A394" s="8"/>
       <c r="O394" s="2"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="10"/>
+      <c r="A395" s="8"/>
       <c r="O395" s="2"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="10"/>
+      <c r="A396" s="8"/>
       <c r="O396" s="2"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="10"/>
+      <c r="A397" s="8"/>
       <c r="O397" s="2"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="10"/>
+      <c r="A398" s="8"/>
       <c r="O398" s="2"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="10"/>
+      <c r="A399" s="8"/>
       <c r="O399" s="2"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="10"/>
+      <c r="A400" s="8"/>
       <c r="O400" s="2"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="10"/>
+      <c r="A401" s="8"/>
       <c r="O401" s="2"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="10"/>
+      <c r="A402" s="8"/>
       <c r="O402" s="2"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="10"/>
+      <c r="A403" s="8"/>
       <c r="O403" s="2"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="10"/>
+      <c r="A404" s="8"/>
       <c r="O404" s="2"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="10"/>
+      <c r="A405" s="8"/>
       <c r="O405" s="2"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="10"/>
+      <c r="A406" s="8"/>
       <c r="O406" s="2"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="10"/>
+      <c r="A407" s="8"/>
       <c r="O407" s="2"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="10"/>
+      <c r="A408" s="8"/>
       <c r="O408" s="2"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="10"/>
+      <c r="A409" s="8"/>
       <c r="O409" s="2"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="10"/>
+      <c r="A410" s="8"/>
       <c r="O410" s="2"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="10"/>
+      <c r="A411" s="8"/>
       <c r="O411" s="2"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="10"/>
+      <c r="A412" s="8"/>
       <c r="O412" s="2"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="10"/>
+      <c r="A413" s="8"/>
       <c r="O413" s="2"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="10"/>
+      <c r="A414" s="8"/>
       <c r="O414" s="2"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="10"/>
+      <c r="A415" s="8"/>
       <c r="O415" s="2"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="10"/>
+      <c r="A416" s="8"/>
       <c r="O416" s="2"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="10"/>
+      <c r="A417" s="8"/>
       <c r="O417" s="2"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="10"/>
+      <c r="A418" s="8"/>
       <c r="O418" s="2"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="10"/>
+      <c r="A419" s="8"/>
       <c r="O419" s="2"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="10"/>
+      <c r="A420" s="8"/>
       <c r="O420" s="2"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="10"/>
+      <c r="A421" s="8"/>
       <c r="O421" s="2"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="10"/>
+      <c r="A422" s="8"/>
       <c r="O422" s="2"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="10"/>
+      <c r="A423" s="8"/>
       <c r="O423" s="2"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="10"/>
+      <c r="A424" s="8"/>
       <c r="O424" s="2"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="10"/>
+      <c r="A425" s="8"/>
       <c r="O425" s="2"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="10"/>
+      <c r="A426" s="8"/>
       <c r="O426" s="2"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="10"/>
+      <c r="A427" s="8"/>
       <c r="O427" s="2"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="10"/>
+      <c r="A428" s="8"/>
       <c r="O428" s="2"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="10"/>
+      <c r="A429" s="8"/>
       <c r="O429" s="2"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="10"/>
+      <c r="A430" s="8"/>
       <c r="O430" s="2"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="10"/>
+      <c r="A431" s="8"/>
       <c r="O431" s="2"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="10"/>
+      <c r="A432" s="8"/>
       <c r="O432" s="2"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="10"/>
+      <c r="A433" s="8"/>
       <c r="O433" s="2"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="10"/>
+      <c r="A434" s="8"/>
       <c r="O434" s="2"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="10"/>
+      <c r="A435" s="8"/>
       <c r="O435" s="2"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="10"/>
+      <c r="A436" s="8"/>
       <c r="O436" s="2"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="10"/>
+      <c r="A437" s="8"/>
       <c r="O437" s="2"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="10"/>
+      <c r="A438" s="8"/>
       <c r="O438" s="2"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="10"/>
+      <c r="A439" s="8"/>
       <c r="O439" s="2"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="10"/>
+      <c r="A440" s="8"/>
       <c r="O440" s="2"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="10"/>
+      <c r="A441" s="8"/>
       <c r="O441" s="2"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="10"/>
+      <c r="A442" s="8"/>
       <c r="O442" s="2"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="10"/>
+      <c r="A443" s="8"/>
       <c r="O443" s="2"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="10"/>
+      <c r="A444" s="8"/>
       <c r="O444" s="2"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="10"/>
+      <c r="A445" s="8"/>
       <c r="O445" s="2"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="10"/>
+      <c r="A446" s="8"/>
       <c r="O446" s="2"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="10"/>
+      <c r="A447" s="8"/>
       <c r="O447" s="2"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="10"/>
+      <c r="A448" s="8"/>
       <c r="O448" s="2"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="10"/>
+      <c r="A449" s="8"/>
       <c r="O449" s="2"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="10"/>
+      <c r="A450" s="8"/>
       <c r="O450" s="2"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="10"/>
+      <c r="A451" s="8"/>
       <c r="O451" s="2"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="10"/>
+      <c r="A452" s="8"/>
       <c r="O452" s="2"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="10"/>
+      <c r="A453" s="8"/>
       <c r="O453" s="2"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="10"/>
+      <c r="A454" s="8"/>
       <c r="O454" s="2"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="10"/>
+      <c r="A455" s="8"/>
       <c r="O455" s="2"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="10"/>
+      <c r="A456" s="8"/>
       <c r="O456" s="2"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="10"/>
+      <c r="A457" s="8"/>
       <c r="O457" s="2"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="10"/>
+      <c r="A458" s="8"/>
       <c r="O458" s="2"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="10"/>
+      <c r="A459" s="8"/>
       <c r="O459" s="2"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="10"/>
+      <c r="A460" s="8"/>
       <c r="O460" s="2"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="10"/>
+      <c r="A461" s="8"/>
       <c r="O461" s="2"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="10"/>
+      <c r="A462" s="8"/>
       <c r="O462" s="2"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="10"/>
+      <c r="A463" s="8"/>
       <c r="O463" s="2"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="10"/>
+      <c r="A464" s="8"/>
       <c r="O464" s="2"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="10"/>
+      <c r="A465" s="8"/>
       <c r="O465" s="2"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="10"/>
+      <c r="A466" s="8"/>
       <c r="O466" s="2"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="10"/>
+      <c r="A467" s="8"/>
       <c r="O467" s="2"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="10"/>
+      <c r="A468" s="8"/>
       <c r="O468" s="2"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="10"/>
+      <c r="A469" s="8"/>
       <c r="O469" s="2"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="10"/>
+      <c r="A470" s="8"/>
       <c r="O470" s="2"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="10"/>
+      <c r="A471" s="8"/>
       <c r="O471" s="2"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="10"/>
+      <c r="A472" s="8"/>
       <c r="O472" s="2"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="10"/>
+      <c r="A473" s="8"/>
       <c r="O473" s="2"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="10"/>
+      <c r="A474" s="8"/>
       <c r="O474" s="2"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="10"/>
+      <c r="A475" s="8"/>
       <c r="O475" s="2"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="10"/>
+      <c r="A476" s="8"/>
       <c r="O476" s="2"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="10"/>
+      <c r="A477" s="8"/>
       <c r="O477" s="2"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="10"/>
+      <c r="A478" s="8"/>
       <c r="O478" s="2"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="10"/>
+      <c r="A479" s="8"/>
       <c r="O479" s="2"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="10"/>
+      <c r="A480" s="8"/>
       <c r="O480" s="2"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="10"/>
+      <c r="A481" s="8"/>
       <c r="O481" s="2"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="10"/>
+      <c r="A482" s="8"/>
       <c r="O482" s="2"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="10"/>
+      <c r="A483" s="8"/>
       <c r="O483" s="2"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="10"/>
+      <c r="A484" s="8"/>
       <c r="O484" s="2"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="10"/>
+      <c r="A485" s="8"/>
       <c r="O485" s="2"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="10"/>
+      <c r="A486" s="8"/>
       <c r="O486" s="2"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="10"/>
+      <c r="A487" s="8"/>
       <c r="O487" s="2"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="10"/>
+      <c r="A488" s="8"/>
       <c r="O488" s="2"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="10"/>
+      <c r="A489" s="8"/>
       <c r="O489" s="2"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="10"/>
+      <c r="A490" s="8"/>
       <c r="O490" s="2"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="10"/>
+      <c r="A491" s="8"/>
       <c r="O491" s="2"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="10"/>
+      <c r="A492" s="8"/>
       <c r="O492" s="2"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="10"/>
+      <c r="A493" s="8"/>
       <c r="O493" s="2"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="10"/>
+      <c r="A494" s="8"/>
       <c r="O494" s="2"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="10"/>
+      <c r="A495" s="8"/>
       <c r="O495" s="2"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="10"/>
+      <c r="A496" s="8"/>
       <c r="O496" s="2"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="10"/>
+      <c r="A497" s="8"/>
       <c r="O497" s="2"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="10"/>
+      <c r="A498" s="8"/>
       <c r="O498" s="2"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="10"/>
+      <c r="A499" s="8"/>
       <c r="O499" s="2"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="10"/>
+      <c r="A500" s="8"/>
       <c r="O500" s="2"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="10"/>
+      <c r="A501" s="8"/>
       <c r="O501" s="2"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="10"/>
+      <c r="A502" s="8"/>
       <c r="O502" s="2"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="10"/>
+      <c r="A503" s="8"/>
       <c r="O503" s="2"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="10"/>
+      <c r="A504" s="8"/>
       <c r="O504" s="2"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="10"/>
+      <c r="A505" s="8"/>
       <c r="O505" s="2"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="10"/>
+      <c r="A506" s="8"/>
       <c r="O506" s="2"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="10"/>
+      <c r="A507" s="8"/>
       <c r="O507" s="2"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="10"/>
+      <c r="A508" s="8"/>
       <c r="O508" s="2"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="10"/>
+      <c r="A509" s="8"/>
       <c r="O509" s="2"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="10"/>
+      <c r="A510" s="8"/>
       <c r="O510" s="2"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="10"/>
+      <c r="A511" s="8"/>
       <c r="O511" s="2"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="10"/>
+      <c r="A512" s="8"/>
       <c r="O512" s="2"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="10"/>
+      <c r="A513" s="8"/>
       <c r="O513" s="2"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="10"/>
+      <c r="A514" s="8"/>
       <c r="O514" s="2"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="10"/>
+      <c r="A515" s="8"/>
       <c r="O515" s="2"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="10"/>
+      <c r="A516" s="8"/>
       <c r="O516" s="2"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="10"/>
+      <c r="A517" s="8"/>
       <c r="O517" s="2"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="10"/>
+      <c r="A518" s="8"/>
       <c r="O518" s="2"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="10"/>
+      <c r="A519" s="8"/>
       <c r="O519" s="2"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="10"/>
+      <c r="A520" s="8"/>
       <c r="O520" s="2"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="10"/>
+      <c r="A521" s="8"/>
       <c r="O521" s="2"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="10"/>
+      <c r="A522" s="8"/>
       <c r="O522" s="2"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="10"/>
+      <c r="A523" s="8"/>
       <c r="O523" s="2"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="10"/>
+      <c r="A524" s="8"/>
       <c r="O524" s="2"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="10"/>
+      <c r="A525" s="8"/>
       <c r="O525" s="2"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="10"/>
+      <c r="A526" s="8"/>
       <c r="O526" s="2"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="10"/>
+      <c r="A527" s="8"/>
       <c r="O527" s="2"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="10"/>
+      <c r="A528" s="8"/>
       <c r="O528" s="2"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="10"/>
+      <c r="A529" s="8"/>
       <c r="O529" s="2"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="10"/>
+      <c r="A530" s="8"/>
       <c r="O530" s="2"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="10"/>
+      <c r="A531" s="8"/>
       <c r="O531" s="2"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="10"/>
+      <c r="A532" s="8"/>
       <c r="O532" s="2"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="10"/>
+      <c r="A533" s="8"/>
       <c r="O533" s="2"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="10"/>
+      <c r="A534" s="8"/>
       <c r="O534" s="2"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="10"/>
+      <c r="A535" s="8"/>
       <c r="O535" s="2"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="10"/>
+      <c r="A536" s="8"/>
       <c r="O536" s="2"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="10"/>
+      <c r="A537" s="8"/>
       <c r="O537" s="2"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="10"/>
+      <c r="A538" s="8"/>
       <c r="O538" s="2"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="10"/>
+      <c r="A539" s="8"/>
       <c r="O539" s="2"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="10"/>
+      <c r="A540" s="8"/>
       <c r="O540" s="2"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="10"/>
+      <c r="A541" s="8"/>
       <c r="O541" s="2"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="10"/>
+      <c r="A542" s="8"/>
       <c r="O542" s="2"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="10"/>
+      <c r="A543" s="8"/>
       <c r="O543" s="2"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="10"/>
+      <c r="A544" s="8"/>
       <c r="O544" s="2"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="10"/>
+      <c r="A545" s="8"/>
       <c r="O545" s="2"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="10"/>
+      <c r="A546" s="8"/>
       <c r="O546" s="2"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="10"/>
+      <c r="A547" s="8"/>
       <c r="O547" s="2"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="10"/>
+      <c r="A548" s="8"/>
       <c r="O548" s="2"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="10"/>
+      <c r="A549" s="8"/>
       <c r="O549" s="2"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="10"/>
+      <c r="A550" s="8"/>
       <c r="O550" s="2"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="10"/>
+      <c r="A551" s="8"/>
       <c r="O551" s="2"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="10"/>
+      <c r="A552" s="8"/>
       <c r="O552" s="2"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="10"/>
+      <c r="A553" s="8"/>
       <c r="O553" s="2"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="10"/>
+      <c r="A554" s="8"/>
       <c r="O554" s="2"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="10"/>
+      <c r="A555" s="8"/>
       <c r="O555" s="2"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="10"/>
+      <c r="A556" s="8"/>
       <c r="O556" s="2"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="10"/>
+      <c r="A557" s="8"/>
       <c r="O557" s="2"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="10"/>
+      <c r="A558" s="8"/>
       <c r="O558" s="2"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="10"/>
+      <c r="A559" s="8"/>
       <c r="O559" s="2"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="10"/>
+      <c r="A560" s="8"/>
       <c r="O560" s="2"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="10"/>
+      <c r="A561" s="8"/>
       <c r="O561" s="2"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="10"/>
+      <c r="A562" s="8"/>
       <c r="O562" s="2"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="10"/>
+      <c r="A563" s="8"/>
       <c r="O563" s="2"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="10"/>
+      <c r="A564" s="8"/>
       <c r="O564" s="2"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="10"/>
+      <c r="A565" s="8"/>
       <c r="O565" s="2"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="10"/>
+      <c r="A566" s="8"/>
       <c r="O566" s="2"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="10"/>
+      <c r="A567" s="8"/>
       <c r="O567" s="2"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="10"/>
+      <c r="A568" s="8"/>
       <c r="O568" s="2"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="10"/>
+      <c r="A569" s="8"/>
       <c r="O569" s="2"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="10"/>
+      <c r="A570" s="8"/>
       <c r="O570" s="2"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="10"/>
+      <c r="A571" s="8"/>
       <c r="O571" s="2"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="10"/>
+      <c r="A572" s="8"/>
       <c r="O572" s="2"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="10"/>
+      <c r="A573" s="8"/>
       <c r="O573" s="2"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="10"/>
+      <c r="A574" s="8"/>
       <c r="O574" s="2"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="10"/>
+      <c r="A575" s="8"/>
       <c r="O575" s="2"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="10"/>
+      <c r="A576" s="8"/>
       <c r="O576" s="2"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="10"/>
+      <c r="A577" s="8"/>
       <c r="O577" s="2"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="10"/>
+      <c r="A578" s="8"/>
       <c r="O578" s="2"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="10"/>
+      <c r="A579" s="8"/>
       <c r="O579" s="2"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="10"/>
+      <c r="A580" s="8"/>
       <c r="O580" s="2"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="10"/>
+      <c r="A581" s="8"/>
       <c r="O581" s="2"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="10"/>
+      <c r="A582" s="8"/>
       <c r="O582" s="2"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="10"/>
+      <c r="A583" s="8"/>
       <c r="O583" s="2"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="10"/>
+      <c r="A584" s="8"/>
       <c r="O584" s="2"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="10"/>
+      <c r="A585" s="8"/>
       <c r="O585" s="2"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="10"/>
+      <c r="A586" s="8"/>
       <c r="O586" s="2"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="10"/>
+      <c r="A587" s="8"/>
       <c r="O587" s="2"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="10"/>
+      <c r="A588" s="8"/>
       <c r="O588" s="2"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="10"/>
+      <c r="A589" s="8"/>
       <c r="O589" s="2"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="10"/>
+      <c r="A590" s="8"/>
       <c r="O590" s="2"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="10"/>
+      <c r="A591" s="8"/>
       <c r="O591" s="2"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="10"/>
+      <c r="A592" s="8"/>
       <c r="O592" s="2"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="10"/>
+      <c r="A593" s="8"/>
       <c r="O593" s="2"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="10"/>
+      <c r="A594" s="8"/>
       <c r="O594" s="2"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="10"/>
+      <c r="A595" s="8"/>
       <c r="O595" s="2"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="10"/>
+      <c r="A596" s="8"/>
       <c r="O596" s="2"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="10"/>
+      <c r="A597" s="8"/>
       <c r="O597" s="2"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="10"/>
+      <c r="A598" s="8"/>
       <c r="O598" s="2"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="10"/>
+      <c r="A599" s="8"/>
       <c r="O599" s="2"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="10"/>
+      <c r="A600" s="8"/>
       <c r="O600" s="2"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="10"/>
+      <c r="A601" s="8"/>
       <c r="O601" s="2"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="10"/>
+      <c r="A602" s="8"/>
       <c r="O602" s="2"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="10"/>
+      <c r="A603" s="8"/>
       <c r="O603" s="2"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="10"/>
+      <c r="A604" s="8"/>
       <c r="O604" s="2"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="10"/>
+      <c r="A605" s="8"/>
       <c r="O605" s="2"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="10"/>
+      <c r="A606" s="8"/>
       <c r="O606" s="2"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="10"/>
+      <c r="A607" s="8"/>
       <c r="O607" s="2"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="10"/>
+      <c r="A608" s="8"/>
       <c r="O608" s="2"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="10"/>
+      <c r="A609" s="8"/>
       <c r="O609" s="2"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="10"/>
+      <c r="A610" s="8"/>
       <c r="O610" s="2"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="10"/>
+      <c r="A611" s="8"/>
       <c r="O611" s="2"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="10"/>
+      <c r="A612" s="8"/>
       <c r="O612" s="2"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="10"/>
+      <c r="A613" s="8"/>
       <c r="O613" s="2"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="10"/>
+      <c r="A614" s="8"/>
       <c r="O614" s="2"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="10"/>
+      <c r="A615" s="8"/>
       <c r="O615" s="2"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="10"/>
+      <c r="A616" s="8"/>
       <c r="O616" s="2"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="10"/>
+      <c r="A617" s="8"/>
       <c r="O617" s="2"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="10"/>
+      <c r="A618" s="8"/>
       <c r="O618" s="2"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="10"/>
+      <c r="A619" s="8"/>
       <c r="O619" s="2"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="10"/>
+      <c r="A620" s="8"/>
       <c r="O620" s="2"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="10"/>
+      <c r="A621" s="8"/>
       <c r="O621" s="2"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="10"/>
+      <c r="A622" s="8"/>
       <c r="O622" s="2"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="10"/>
+      <c r="A623" s="8"/>
       <c r="O623" s="2"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="10"/>
+      <c r="A624" s="8"/>
       <c r="O624" s="2"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="10"/>
+      <c r="A625" s="8"/>
       <c r="O625" s="2"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="10"/>
+      <c r="A626" s="8"/>
       <c r="O626" s="2"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="10"/>
+      <c r="A627" s="8"/>
       <c r="O627" s="2"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="10"/>
+      <c r="A628" s="8"/>
       <c r="O628" s="2"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="10"/>
+      <c r="A629" s="8"/>
       <c r="O629" s="2"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="10"/>
+      <c r="A630" s="8"/>
       <c r="O630" s="2"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="10"/>
+      <c r="A631" s="8"/>
       <c r="O631" s="2"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="10"/>
+      <c r="A632" s="8"/>
       <c r="O632" s="2"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="10"/>
+      <c r="A633" s="8"/>
       <c r="O633" s="2"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="10"/>
+      <c r="A634" s="8"/>
       <c r="O634" s="2"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="10"/>
+      <c r="A635" s="8"/>
       <c r="O635" s="2"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="10"/>
+      <c r="A636" s="8"/>
       <c r="O636" s="2"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="10"/>
+      <c r="A637" s="8"/>
       <c r="O637" s="2"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="10"/>
+      <c r="A638" s="8"/>
       <c r="O638" s="2"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="10"/>
+      <c r="A639" s="8"/>
       <c r="O639" s="2"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="10"/>
+      <c r="A640" s="8"/>
       <c r="O640" s="2"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="10"/>
+      <c r="A641" s="8"/>
       <c r="O641" s="2"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="10"/>
+      <c r="A642" s="8"/>
       <c r="O642" s="2"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="10"/>
+      <c r="A643" s="8"/>
       <c r="O643" s="2"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="10"/>
+      <c r="A644" s="8"/>
       <c r="O644" s="2"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="10"/>
+      <c r="A645" s="8"/>
       <c r="O645" s="2"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="10"/>
+      <c r="A646" s="8"/>
       <c r="O646" s="2"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="10"/>
+      <c r="A647" s="8"/>
       <c r="O647" s="2"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="10"/>
+      <c r="A648" s="8"/>
       <c r="O648" s="2"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="10"/>
+      <c r="A649" s="8"/>
       <c r="O649" s="2"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="10"/>
+      <c r="A650" s="8"/>
       <c r="O650" s="2"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="10"/>
+      <c r="A651" s="8"/>
       <c r="O651" s="2"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="10"/>
+      <c r="A652" s="8"/>
       <c r="O652" s="2"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="10"/>
+      <c r="A653" s="8"/>
       <c r="O653" s="2"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="10"/>
+      <c r="A654" s="8"/>
       <c r="O654" s="2"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="10"/>
+      <c r="A655" s="8"/>
       <c r="O655" s="2"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="10"/>
+      <c r="A656" s="8"/>
       <c r="O656" s="2"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="10"/>
+      <c r="A657" s="8"/>
       <c r="O657" s="2"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="10"/>
+      <c r="A658" s="8"/>
       <c r="O658" s="2"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="10"/>
+      <c r="A659" s="8"/>
       <c r="O659" s="2"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="10"/>
+      <c r="A660" s="8"/>
       <c r="O660" s="2"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="10"/>
+      <c r="A661" s="8"/>
       <c r="O661" s="2"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="10"/>
+      <c r="A662" s="8"/>
       <c r="O662" s="2"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="10"/>
+      <c r="A663" s="8"/>
       <c r="O663" s="2"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="10"/>
+      <c r="A664" s="8"/>
       <c r="O664" s="2"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="10"/>
+      <c r="A665" s="8"/>
       <c r="O665" s="2"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="10"/>
+      <c r="A666" s="8"/>
       <c r="O666" s="2"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="10"/>
+      <c r="A667" s="8"/>
       <c r="O667" s="2"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="10"/>
+      <c r="A668" s="8"/>
       <c r="O668" s="2"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="10"/>
+      <c r="A669" s="8"/>
       <c r="O669" s="2"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="10"/>
+      <c r="A670" s="8"/>
       <c r="O670" s="2"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="10"/>
+      <c r="A671" s="8"/>
       <c r="O671" s="2"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="10"/>
+      <c r="A672" s="8"/>
       <c r="O672" s="2"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="10"/>
+      <c r="A673" s="8"/>
       <c r="O673" s="2"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="10"/>
+      <c r="A674" s="8"/>
       <c r="O674" s="2"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="10"/>
+      <c r="A675" s="8"/>
       <c r="O675" s="2"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="10"/>
+      <c r="A676" s="8"/>
       <c r="O676" s="2"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="10"/>
+      <c r="A677" s="8"/>
       <c r="O677" s="2"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="10"/>
+      <c r="A678" s="8"/>
       <c r="O678" s="2"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="10"/>
+      <c r="A679" s="8"/>
       <c r="O679" s="2"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="10"/>
+      <c r="A680" s="8"/>
       <c r="O680" s="2"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="10"/>
+      <c r="A681" s="8"/>
       <c r="O681" s="2"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="10"/>
+      <c r="A682" s="8"/>
       <c r="O682" s="2"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="10"/>
+      <c r="A683" s="8"/>
       <c r="O683" s="2"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="10"/>
+      <c r="A684" s="8"/>
       <c r="O684" s="2"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="10"/>
+      <c r="A685" s="8"/>
       <c r="O685" s="2"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="10"/>
+      <c r="A686" s="8"/>
       <c r="O686" s="2"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="10"/>
+      <c r="A687" s="8"/>
       <c r="O687" s="2"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="10"/>
+      <c r="A688" s="8"/>
       <c r="O688" s="2"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="10"/>
+      <c r="A689" s="8"/>
       <c r="O689" s="2"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="10"/>
+      <c r="A690" s="8"/>
       <c r="O690" s="2"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="10"/>
+      <c r="A691" s="8"/>
       <c r="O691" s="2"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="10"/>
+      <c r="A692" s="8"/>
       <c r="O692" s="2"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="10"/>
+      <c r="A693" s="8"/>
       <c r="O693" s="2"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="10"/>
+      <c r="A694" s="8"/>
       <c r="O694" s="2"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="10"/>
+      <c r="A695" s="8"/>
       <c r="O695" s="2"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="10"/>
+      <c r="A696" s="8"/>
       <c r="O696" s="2"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="10"/>
+      <c r="A697" s="8"/>
       <c r="O697" s="2"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="10"/>
+      <c r="A698" s="8"/>
       <c r="O698" s="2"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="10"/>
+      <c r="A699" s="8"/>
       <c r="O699" s="2"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="10"/>
+      <c r="A700" s="8"/>
       <c r="O700" s="2"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="10"/>
+      <c r="A701" s="8"/>
       <c r="O701" s="2"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="10"/>
+      <c r="A702" s="8"/>
       <c r="O702" s="2"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="10"/>
+      <c r="A703" s="8"/>
       <c r="O703" s="2"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="10"/>
+      <c r="A704" s="8"/>
       <c r="O704" s="2"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="10"/>
+      <c r="A705" s="8"/>
       <c r="O705" s="2"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="10"/>
+      <c r="A706" s="8"/>
       <c r="O706" s="2"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="10"/>
+      <c r="A707" s="8"/>
       <c r="O707" s="2"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="10"/>
+      <c r="A708" s="8"/>
       <c r="O708" s="2"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="10"/>
+      <c r="A709" s="8"/>
       <c r="O709" s="2"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="10"/>
+      <c r="A710" s="8"/>
       <c r="O710" s="2"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="10"/>
+      <c r="A711" s="8"/>
       <c r="O711" s="2"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="10"/>
+      <c r="A712" s="8"/>
       <c r="O712" s="2"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="10"/>
+      <c r="A713" s="8"/>
       <c r="O713" s="2"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="10"/>
+      <c r="A714" s="8"/>
       <c r="O714" s="2"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="10"/>
+      <c r="A715" s="8"/>
       <c r="O715" s="2"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="10"/>
+      <c r="A716" s="8"/>
       <c r="O716" s="2"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="10"/>
+      <c r="A717" s="8"/>
       <c r="O717" s="2"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="10"/>
+      <c r="A718" s="8"/>
       <c r="O718" s="2"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="10"/>
+      <c r="A719" s="8"/>
       <c r="O719" s="2"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="10"/>
+      <c r="A720" s="8"/>
       <c r="O720" s="2"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="10"/>
+      <c r="A721" s="8"/>
       <c r="O721" s="2"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="10"/>
+      <c r="A722" s="8"/>
       <c r="O722" s="2"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="10"/>
+      <c r="A723" s="8"/>
       <c r="O723" s="2"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="10"/>
+      <c r="A724" s="8"/>
       <c r="O724" s="2"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="10"/>
+      <c r="A725" s="8"/>
       <c r="O725" s="2"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="10"/>
+      <c r="A726" s="8"/>
       <c r="O726" s="2"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="10"/>
+      <c r="A727" s="8"/>
       <c r="O727" s="2"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="10"/>
+      <c r="A728" s="8"/>
       <c r="O728" s="2"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="10"/>
+      <c r="A729" s="8"/>
       <c r="O729" s="2"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="10"/>
+      <c r="A730" s="8"/>
       <c r="O730" s="2"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="10"/>
+      <c r="A731" s="8"/>
       <c r="O731" s="2"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="10"/>
+      <c r="A732" s="8"/>
       <c r="O732" s="2"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="10"/>
+      <c r="A733" s="8"/>
       <c r="O733" s="2"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="10"/>
+      <c r="A734" s="8"/>
       <c r="O734" s="2"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="10"/>
+      <c r="A735" s="8"/>
       <c r="O735" s="2"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="10"/>
+      <c r="A736" s="8"/>
       <c r="O736" s="2"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="10"/>
+      <c r="A737" s="8"/>
       <c r="O737" s="2"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="10"/>
+      <c r="A738" s="8"/>
       <c r="O738" s="2"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="10"/>
+      <c r="A739" s="8"/>
       <c r="O739" s="2"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="10"/>
+      <c r="A740" s="8"/>
       <c r="O740" s="2"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="10"/>
+      <c r="A741" s="8"/>
       <c r="O741" s="2"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="10"/>
+      <c r="A742" s="8"/>
       <c r="O742" s="2"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="10"/>
+      <c r="A743" s="8"/>
       <c r="O743" s="2"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="10"/>
+      <c r="A744" s="8"/>
       <c r="O744" s="2"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="10"/>
+      <c r="A745" s="8"/>
       <c r="O745" s="2"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="10"/>
+      <c r="A746" s="8"/>
       <c r="O746" s="2"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="10"/>
+      <c r="A747" s="8"/>
       <c r="O747" s="2"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="10"/>
+      <c r="A748" s="8"/>
       <c r="O748" s="2"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="10"/>
+      <c r="A749" s="8"/>
       <c r="O749" s="2"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="10"/>
+      <c r="A750" s="8"/>
       <c r="O750" s="2"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="10"/>
+      <c r="A751" s="8"/>
       <c r="O751" s="2"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="10"/>
+      <c r="A752" s="8"/>
       <c r="O752" s="2"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="10"/>
+      <c r="A753" s="8"/>
       <c r="O753" s="2"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="10"/>
+      <c r="A754" s="8"/>
       <c r="O754" s="2"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="10"/>
+      <c r="A755" s="8"/>
       <c r="O755" s="2"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="10"/>
+      <c r="A756" s="8"/>
       <c r="O756" s="2"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="10"/>
+      <c r="A757" s="8"/>
       <c r="O757" s="2"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="10"/>
+      <c r="A758" s="8"/>
       <c r="O758" s="2"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="10"/>
+      <c r="A759" s="8"/>
       <c r="O759" s="2"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="10"/>
+      <c r="A760" s="8"/>
       <c r="O760" s="2"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="10"/>
+      <c r="A761" s="8"/>
       <c r="O761" s="2"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="10"/>
+      <c r="A762" s="8"/>
       <c r="O762" s="2"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="10"/>
+      <c r="A763" s="8"/>
       <c r="O763" s="2"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="10"/>
+      <c r="A764" s="8"/>
       <c r="O764" s="2"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="10"/>
+      <c r="A765" s="8"/>
       <c r="O765" s="2"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="10"/>
+      <c r="A766" s="8"/>
       <c r="O766" s="2"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="10"/>
+      <c r="A767" s="8"/>
       <c r="O767" s="2"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="10"/>
+      <c r="A768" s="8"/>
       <c r="O768" s="2"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="10"/>
+      <c r="A769" s="8"/>
       <c r="O769" s="2"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="10"/>
+      <c r="A770" s="8"/>
       <c r="O770" s="2"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="10"/>
+      <c r="A771" s="8"/>
       <c r="O771" s="2"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="10"/>
+      <c r="A772" s="8"/>
       <c r="O772" s="2"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="10"/>
+      <c r="A773" s="8"/>
       <c r="O773" s="2"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="10"/>
+      <c r="A774" s="8"/>
       <c r="O774" s="2"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="10"/>
+      <c r="A775" s="8"/>
       <c r="O775" s="2"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="10"/>
+      <c r="A776" s="8"/>
       <c r="O776" s="2"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="10"/>
+      <c r="A777" s="8"/>
       <c r="O777" s="2"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="10"/>
+      <c r="A778" s="8"/>
       <c r="O778" s="2"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="10"/>
+      <c r="A779" s="8"/>
       <c r="O779" s="2"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="10"/>
+      <c r="A780" s="8"/>
       <c r="O780" s="2"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="10"/>
+      <c r="A781" s="8"/>
       <c r="O781" s="2"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="10"/>
+      <c r="A782" s="8"/>
       <c r="O782" s="2"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="10"/>
+      <c r="A783" s="8"/>
       <c r="O783" s="2"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="10"/>
+      <c r="A784" s="8"/>
       <c r="O784" s="2"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="10"/>
+      <c r="A785" s="8"/>
       <c r="O785" s="2"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="10"/>
+      <c r="A786" s="8"/>
       <c r="O786" s="2"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="10"/>
+      <c r="A787" s="8"/>
       <c r="O787" s="2"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="10"/>
+      <c r="A788" s="8"/>
       <c r="O788" s="2"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="10"/>
+      <c r="A789" s="8"/>
       <c r="O789" s="2"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="10"/>
+      <c r="A790" s="8"/>
       <c r="O790" s="2"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="10"/>
+      <c r="A791" s="8"/>
       <c r="O791" s="2"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="10"/>
+      <c r="A792" s="8"/>
       <c r="O792" s="2"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="10"/>
+      <c r="A793" s="8"/>
       <c r="O793" s="2"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="10"/>
+      <c r="A794" s="8"/>
       <c r="O794" s="2"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="10"/>
+      <c r="A795" s="8"/>
       <c r="O795" s="2"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="10"/>
+      <c r="A796" s="8"/>
       <c r="O796" s="2"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="10"/>
+      <c r="A797" s="8"/>
       <c r="O797" s="2"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="10"/>
+      <c r="A798" s="8"/>
       <c r="O798" s="2"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="10"/>
+      <c r="A799" s="8"/>
       <c r="O799" s="2"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="10"/>
+      <c r="A800" s="8"/>
       <c r="O800" s="2"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="10"/>
+      <c r="A801" s="8"/>
       <c r="O801" s="2"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="10"/>
+      <c r="A802" s="8"/>
       <c r="O802" s="2"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="10"/>
+      <c r="A803" s="8"/>
       <c r="O803" s="2"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="10"/>
+      <c r="A804" s="8"/>
       <c r="O804" s="2"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="10"/>
+      <c r="A805" s="8"/>
       <c r="O805" s="2"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="10"/>
+      <c r="A806" s="8"/>
       <c r="O806" s="2"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="10"/>
+      <c r="A807" s="8"/>
       <c r="O807" s="2"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="10"/>
+      <c r="A808" s="8"/>
       <c r="O808" s="2"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="10"/>
+      <c r="A809" s="8"/>
       <c r="O809" s="2"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="10"/>
+      <c r="A810" s="8"/>
       <c r="O810" s="2"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="10"/>
+      <c r="A811" s="8"/>
       <c r="O811" s="2"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="10"/>
+      <c r="A812" s="8"/>
       <c r="O812" s="2"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="10"/>
+      <c r="A813" s="8"/>
       <c r="O813" s="2"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="10"/>
+      <c r="A814" s="8"/>
       <c r="O814" s="2"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="10"/>
+      <c r="A815" s="8"/>
       <c r="O815" s="2"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="10"/>
+      <c r="A816" s="8"/>
       <c r="O816" s="2"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="10"/>
+      <c r="A817" s="8"/>
       <c r="O817" s="2"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="10"/>
+      <c r="A818" s="8"/>
       <c r="O818" s="2"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="10"/>
+      <c r="A819" s="8"/>
       <c r="O819" s="2"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="10"/>
+      <c r="A820" s="8"/>
       <c r="O820" s="2"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="10"/>
+      <c r="A821" s="8"/>
       <c r="O821" s="2"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="10"/>
+      <c r="A822" s="8"/>
       <c r="O822" s="2"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="10"/>
+      <c r="A823" s="8"/>
       <c r="O823" s="2"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="10"/>
+      <c r="A824" s="8"/>
       <c r="O824" s="2"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="10"/>
+      <c r="A825" s="8"/>
       <c r="O825" s="2"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="10"/>
+      <c r="A826" s="8"/>
       <c r="O826" s="2"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="10"/>
+      <c r="A827" s="8"/>
       <c r="O827" s="2"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="10"/>
+      <c r="A828" s="8"/>
       <c r="O828" s="2"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="10"/>
+      <c r="A829" s="8"/>
       <c r="O829" s="2"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="10"/>
+      <c r="A830" s="8"/>
       <c r="O830" s="2"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="10"/>
+      <c r="A831" s="8"/>
       <c r="O831" s="2"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="10"/>
+      <c r="A832" s="8"/>
       <c r="O832" s="2"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="10"/>
+      <c r="A833" s="8"/>
       <c r="O833" s="2"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="10"/>
+      <c r="A834" s="8"/>
       <c r="O834" s="2"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="10"/>
+      <c r="A835" s="8"/>
       <c r="O835" s="2"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="10"/>
+      <c r="A836" s="8"/>
       <c r="O836" s="2"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="10"/>
+      <c r="A837" s="8"/>
       <c r="O837" s="2"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="10"/>
+      <c r="A838" s="8"/>
       <c r="O838" s="2"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="10"/>
+      <c r="A839" s="8"/>
       <c r="O839" s="2"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="10"/>
+      <c r="A840" s="8"/>
       <c r="O840" s="2"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="10"/>
+      <c r="A841" s="8"/>
       <c r="O841" s="2"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="10"/>
+      <c r="A842" s="8"/>
       <c r="O842" s="2"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="10"/>
+      <c r="A843" s="8"/>
       <c r="O843" s="2"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="10"/>
+      <c r="A844" s="8"/>
       <c r="O844" s="2"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="10"/>
+      <c r="A845" s="8"/>
       <c r="O845" s="2"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="10"/>
+      <c r="A846" s="8"/>
       <c r="O846" s="2"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="10"/>
+      <c r="A847" s="8"/>
       <c r="O847" s="2"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="10"/>
+      <c r="A848" s="8"/>
       <c r="O848" s="2"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="10"/>
+      <c r="A849" s="8"/>
       <c r="O849" s="2"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="10"/>
+      <c r="A850" s="8"/>
       <c r="O850" s="2"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="10"/>
+      <c r="A851" s="8"/>
       <c r="O851" s="2"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="10"/>
+      <c r="A852" s="8"/>
       <c r="O852" s="2"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="10"/>
+      <c r="A853" s="8"/>
       <c r="O853" s="2"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="10"/>
+      <c r="A854" s="8"/>
       <c r="O854" s="2"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="10"/>
+      <c r="A855" s="8"/>
       <c r="O855" s="2"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="10"/>
+      <c r="A856" s="8"/>
       <c r="O856" s="2"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="10"/>
+      <c r="A857" s="8"/>
       <c r="O857" s="2"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="10"/>
+      <c r="A858" s="8"/>
       <c r="O858" s="2"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="10"/>
+      <c r="A859" s="8"/>
       <c r="O859" s="2"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="10"/>
+      <c r="A860" s="8"/>
       <c r="O860" s="2"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="10"/>
+      <c r="A861" s="8"/>
       <c r="O861" s="2"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="10"/>
+      <c r="A862" s="8"/>
       <c r="O862" s="2"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="10"/>
+      <c r="A863" s="8"/>
       <c r="O863" s="2"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="10"/>
+      <c r="A864" s="8"/>
       <c r="O864" s="2"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="10"/>
+      <c r="A865" s="8"/>
       <c r="O865" s="2"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="10"/>
+      <c r="A866" s="8"/>
       <c r="O866" s="2"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="10"/>
+      <c r="A867" s="8"/>
       <c r="O867" s="2"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="10"/>
+      <c r="A868" s="8"/>
       <c r="O868" s="2"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="10"/>
+      <c r="A869" s="8"/>
       <c r="O869" s="2"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="10"/>
+      <c r="A870" s="8"/>
       <c r="O870" s="2"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="10"/>
+      <c r="A871" s="8"/>
       <c r="O871" s="2"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="10"/>
+      <c r="A872" s="8"/>
       <c r="O872" s="2"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="10"/>
+      <c r="A873" s="8"/>
       <c r="O873" s="2"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="10"/>
+      <c r="A874" s="8"/>
       <c r="O874" s="2"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="10"/>
+      <c r="A875" s="8"/>
       <c r="O875" s="2"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="10"/>
+      <c r="A876" s="8"/>
       <c r="O876" s="2"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="10"/>
+      <c r="A877" s="8"/>
       <c r="O877" s="2"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="10"/>
+      <c r="A878" s="8"/>
       <c r="O878" s="2"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="10"/>
+      <c r="A879" s="8"/>
       <c r="O879" s="2"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="10"/>
+      <c r="A880" s="8"/>
       <c r="O880" s="2"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="10"/>
+      <c r="A881" s="8"/>
       <c r="O881" s="2"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="10"/>
+      <c r="A882" s="8"/>
       <c r="O882" s="2"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="10"/>
+      <c r="A883" s="8"/>
       <c r="O883" s="2"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="10"/>
+      <c r="A884" s="8"/>
       <c r="O884" s="2"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="10"/>
+      <c r="A885" s="8"/>
       <c r="O885" s="2"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="10"/>
+      <c r="A886" s="8"/>
       <c r="O886" s="2"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="10"/>
+      <c r="A887" s="8"/>
       <c r="O887" s="2"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="10"/>
+      <c r="A888" s="8"/>
       <c r="O888" s="2"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="10"/>
+      <c r="A889" s="8"/>
       <c r="O889" s="2"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="10"/>
+      <c r="A890" s="8"/>
       <c r="O890" s="2"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="10"/>
+      <c r="A891" s="8"/>
       <c r="O891" s="2"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="10"/>
+      <c r="A892" s="8"/>
       <c r="O892" s="2"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="10"/>
+      <c r="A893" s="8"/>
       <c r="O893" s="2"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="10"/>
+      <c r="A894" s="8"/>
       <c r="O894" s="2"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="10"/>
+      <c r="A895" s="8"/>
       <c r="O895" s="2"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="10"/>
+      <c r="A896" s="8"/>
       <c r="O896" s="2"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="10"/>
+      <c r="A897" s="8"/>
       <c r="O897" s="2"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="10"/>
+      <c r="A898" s="8"/>
       <c r="O898" s="2"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="10"/>
+      <c r="A899" s="8"/>
       <c r="O899" s="2"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="10"/>
+      <c r="A900" s="8"/>
       <c r="O900" s="2"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="10"/>
+      <c r="A901" s="8"/>
       <c r="O901" s="2"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="10"/>
+      <c r="A902" s="8"/>
       <c r="O902" s="2"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="10"/>
+      <c r="A903" s="8"/>
       <c r="O903" s="2"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="10"/>
+      <c r="A904" s="8"/>
       <c r="O904" s="2"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="10"/>
+      <c r="A905" s="8"/>
       <c r="O905" s="2"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="10"/>
+      <c r="A906" s="8"/>
       <c r="O906" s="2"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="10"/>
+      <c r="A907" s="8"/>
       <c r="O907" s="2"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="10"/>
+      <c r="A908" s="8"/>
       <c r="O908" s="2"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="10"/>
+      <c r="A909" s="8"/>
       <c r="O909" s="2"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="10"/>
+      <c r="A910" s="8"/>
       <c r="O910" s="2"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="10"/>
+      <c r="A911" s="8"/>
       <c r="O911" s="2"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="10"/>
+      <c r="A912" s="8"/>
       <c r="O912" s="2"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="10"/>
+      <c r="A913" s="8"/>
       <c r="O913" s="2"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="10"/>
+      <c r="A914" s="8"/>
       <c r="O914" s="2"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="10"/>
+      <c r="A915" s="8"/>
       <c r="O915" s="2"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="10"/>
+      <c r="A916" s="8"/>
       <c r="O916" s="2"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="10"/>
+      <c r="A917" s="8"/>
       <c r="O917" s="2"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="10"/>
+      <c r="A918" s="8"/>
       <c r="O918" s="2"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="10"/>
+      <c r="A919" s="8"/>
       <c r="O919" s="2"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="10"/>
+      <c r="A920" s="8"/>
       <c r="O920" s="2"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="10"/>
+      <c r="A921" s="8"/>
       <c r="O921" s="2"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="10"/>
+      <c r="A922" s="8"/>
       <c r="O922" s="2"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="10"/>
+      <c r="A923" s="8"/>
       <c r="O923" s="2"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="10"/>
+      <c r="A924" s="8"/>
       <c r="O924" s="2"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="10"/>
+      <c r="A925" s="8"/>
       <c r="O925" s="2"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="10"/>
+      <c r="A926" s="8"/>
       <c r="O926" s="2"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="10"/>
+      <c r="A927" s="8"/>
       <c r="O927" s="2"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="10"/>
+      <c r="A928" s="8"/>
       <c r="O928" s="2"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="10"/>
+      <c r="A929" s="8"/>
       <c r="O929" s="2"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="10"/>
+      <c r="A930" s="8"/>
       <c r="O930" s="2"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="10"/>
+      <c r="A931" s="8"/>
       <c r="O931" s="2"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="10"/>
+      <c r="A932" s="8"/>
       <c r="O932" s="2"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="10"/>
+      <c r="A933" s="8"/>
       <c r="O933" s="2"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="10"/>
+      <c r="A934" s="8"/>
       <c r="O934" s="2"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="10"/>
+      <c r="A935" s="8"/>
       <c r="O935" s="2"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="10"/>
+      <c r="A936" s="8"/>
       <c r="O936" s="2"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="10"/>
+      <c r="A937" s="8"/>
       <c r="O937" s="2"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="10"/>
+      <c r="A938" s="8"/>
       <c r="O938" s="2"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="10"/>
+      <c r="A939" s="8"/>
       <c r="O939" s="2"/>
     </row>
   </sheetData>
